--- a/Hardware/AllRadio.xlsx
+++ b/Hardware/AllRadio.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28928"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ed5d551b811378b0/GitRepos/TkRadio/Hardware/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ED5D551B811378B0/GitRepos/TkRadio/Hardware/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="50" documentId="8_{3E2B63D6-EBC3-4CBD-991C-BE0FCE1149EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CA5EACBE-534A-436B-8EDE-D7E247100351}"/>
+  <xr:revisionPtr revIDLastSave="54" documentId="8_{3E2B63D6-EBC3-4CBD-991C-BE0FCE1149EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F1755969-DF95-4B66-A5AF-BEABF45B7121}"/>
   <bookViews>
-    <workbookView xWindow="-29460" yWindow="1605" windowWidth="24735" windowHeight="17070" xr2:uid="{6890E1AA-A5F3-4B94-A4A7-FBFFCD23E2B5}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{6890E1AA-A5F3-4B94-A4A7-FBFFCD23E2B5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,735 +39,996 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="334">
   <si>
+    <t/>
+  </si>
+  <si>
     <t xml:space="preserve">            &lt;a href="https://www.radio-osterreich.at" class="mdc-typography--caption"&gt;&lt;img class="website-links" src="https://cdn.mytuner.mobi/static/ctr/images/country/at.png" data-src="https://cdn.mytuner.mobi/static/ctr/images/country/at.png" alt="Internetradio Österreich" title="radio österreich website" width="64" height="64"&gt;&lt;/a&gt;</t>
   </si>
   <si>
+    <t>https://www.radioarabic.org</t>
+  </si>
+  <si>
+    <t>ab</t>
+  </si>
+  <si>
+    <t>Arabic</t>
+  </si>
+  <si>
+    <t>https://www.radioarabic.org,ab,Arabic,31</t>
+  </si>
+  <si>
     <t xml:space="preserve">            &lt;a href="https://www.radio-belgie.be" class="mdc-typography--caption"&gt;&lt;img class="website-links" src="https://cdn.mytuner.mobi/static/ctr/images/country/be.png" data-src="https://cdn.mytuner.mobi/static/ctr/images/country/be.png" alt="Radio België" title="radio belgie website" width="64" height="64"&gt;&lt;/a&gt;</t>
   </si>
   <si>
+    <t>https://www.radios-argentinas.org</t>
+  </si>
+  <si>
+    <t>ar</t>
+  </si>
+  <si>
+    <t>argentina</t>
+  </si>
+  <si>
+    <t>https://www.radios-argentinas.org,ar,argentina,30</t>
+  </si>
+  <si>
     <t xml:space="preserve">            &lt;a href="https://www.radio-danmark.dk" class="mdc-typography--caption"&gt;&lt;img class="website-links" src="https://cdn.mytuner.mobi/static/ctr/images/country/dk.png" data-src="https://cdn.mytuner.mobi/static/ctr/images/country/dk.png" alt="Netradio Danmark" title="radio danmark website" width="64" height="64"&gt;&lt;/a&gt;</t>
   </si>
   <si>
+    <t>https://www.radio-osterreich.at</t>
+  </si>
+  <si>
+    <t>at</t>
+  </si>
+  <si>
+    <t>österreich</t>
+  </si>
+  <si>
+    <t>https://www.radio-osterreich.at,at,österreich,6</t>
+  </si>
+  <si>
     <t xml:space="preserve">            &lt;a href="https://www.radio-suomi.com" class="mdc-typography--caption"&gt;&lt;img class="website-links" src="https://cdn.mytuner.mobi/static/ctr/images/country/fi.png" data-src="https://cdn.mytuner.mobi/static/ctr/images/country/fi.png" alt="Nettiradio Suomi" title="radio finland website" width="64" height="64"&gt;&lt;/a&gt;</t>
   </si>
   <si>
+    <t>https://www.radio-australia.org</t>
+  </si>
+  <si>
+    <t>au</t>
+  </si>
+  <si>
+    <t>australia</t>
+  </si>
+  <si>
+    <t>https://www.radio-australia.org,au,australia,16</t>
+  </si>
+  <si>
     <t xml:space="preserve">            &lt;a href="https://www.radio-en-ligne.fr" class="mdc-typography--caption"&gt;&lt;img class="website-links" src="https://cdn.mytuner.mobi/static/ctr/images/country/fr.png" data-src="https://cdn.mytuner.mobi/static/ctr/images/country/fr.png" alt="Radio France" title="radio france website" width="64" height="64"&gt;&lt;/a&gt;</t>
   </si>
   <si>
+    <t>https://www.radio-belgie.be</t>
+  </si>
+  <si>
+    <t>be</t>
+  </si>
+  <si>
+    <t>belgie</t>
+  </si>
+  <si>
+    <t>https://www.radio-belgie.be,be,belgie,13</t>
+  </si>
+  <si>
     <t xml:space="preserve">            &lt;a href="https://www.internetradio-horen.de" class="mdc-typography--caption"&gt;&lt;img class="website-links" src="https://cdn.mytuner.mobi/static/ctr/images/country/de.png" data-src="https://cdn.mytuner.mobi/static/ctr/images/country/de.png" alt="Internetradio Deutschland" title="radio deutschland website" width="64" height="64"&gt;&lt;/a&gt;</t>
   </si>
   <si>
+    <t>https://www.onlineradio-bg.com</t>
+  </si>
+  <si>
+    <t>bg</t>
+  </si>
+  <si>
+    <t>bulgaria</t>
+  </si>
+  <si>
+    <t>https://www.onlineradio-bg.com,bg,bulgaria,3</t>
+  </si>
+  <si>
     <t xml:space="preserve">            &lt;a href="https://www.radio-italiane.it" class="mdc-typography--caption"&gt;&lt;img class="website-links" src="https://cdn.mytuner.mobi/static/ctr/images/country/it.png" data-src="https://cdn.mytuner.mobi/static/ctr/images/country/it.png" alt="Radio Italia" title="radio italia website" width="64" height="64"&gt;&lt;/a&gt;</t>
   </si>
   <si>
+    <t>https://www.radios-bolivia.com</t>
+  </si>
+  <si>
+    <t>bo</t>
+  </si>
+  <si>
+    <t>bolivia</t>
+  </si>
+  <si>
+    <t>https://www.radios-bolivia.com,bo,bolivia,6</t>
+  </si>
+  <si>
     <t xml:space="preserve">            &lt;a href="https://www.radio-nederland.nl" class="mdc-typography--caption"&gt;&lt;img class="website-links" src="https://cdn.mytuner.mobi/static/ctr/images/country/nl.png" data-src="https://cdn.mytuner.mobi/static/ctr/images/country/nl.png" alt="Radio Nederland" title="radio nederland website" width="64" height="64"&gt;&lt;/a&gt;</t>
   </si>
   <si>
+    <t>https://www.radio-ao-vivo.com</t>
+  </si>
+  <si>
+    <t>br</t>
+  </si>
+  <si>
+    <t>brasil</t>
+  </si>
+  <si>
+    <t>https://www.radio-ao-vivo.com,br,brasil,99</t>
+  </si>
+  <si>
     <t xml:space="preserve">            &lt;a href="https://www.radio-norge.org" class="mdc-typography--caption"&gt;&lt;img class="website-links" src="https://cdn.mytuner.mobi/static/ctr/images/country/no.png" data-src="https://cdn.mytuner.mobi/static/ctr/images/country/no.png" alt="Nettradio Norge" title="radio norge website" width="64" height="64"&gt;&lt;/a&gt;</t>
   </si>
   <si>
+    <t>https://www.canadaradiostations.com</t>
+  </si>
+  <si>
+    <t>ca</t>
+  </si>
+  <si>
+    <t>canada</t>
+  </si>
+  <si>
+    <t>https://www.canadaradiostations.com,ca,canada,35</t>
+  </si>
+  <si>
     <t xml:space="preserve">            &lt;a href="https://www.radio-espana.es" class="mdc-typography--caption"&gt;&lt;img class="website-links" src="https://cdn.mytuner.mobi/static/ctr/images/country/es.png" data-src="https://cdn.mytuner.mobi/static/ctr/images/country/es.png" alt="Radio España" title="radio españa website" width="64" height="64"&gt;&lt;/a&gt;</t>
   </si>
   <si>
+    <t>https://www.internetradio-schweiz.ch</t>
+  </si>
+  <si>
+    <t>ch</t>
+  </si>
+  <si>
+    <t>schweiz</t>
+  </si>
+  <si>
+    <t>https://www.internetradio-schweiz.ch,ch,schweiz,10</t>
+  </si>
+  <si>
     <t xml:space="preserve">            &lt;a href="https://www.radio-sveriges.se" class="mdc-typography--caption"&gt;&lt;img class="website-links" src="https://cdn.mytuner.mobi/static/ctr/images/country/se.png" data-src="https://cdn.mytuner.mobi/static/ctr/images/country/se.png" alt="Radio Sveriges" title="radio sverige website" width="64" height="64"&gt;&lt;/a&gt;</t>
   </si>
   <si>
+    <t>https://www.radios-chilenas.com</t>
+  </si>
+  <si>
+    <t>cl</t>
+  </si>
+  <si>
+    <t>chile</t>
+  </si>
+  <si>
+    <t>https://www.radios-chilenas.com,cl,chile,27</t>
+  </si>
+  <si>
     <t xml:space="preserve">            &lt;a href="https://www.internetradio-schweiz.ch" class="mdc-typography--caption"&gt;&lt;img class="website-links" src="https://cdn.mytuner.mobi/static/ctr/images/country/ch.png" data-src="https://cdn.mytuner.mobi/static/ctr/images/country/ch.png" alt="Internetradio Schweiz" title="radio schweiz website" width="64" height="64"&gt;&lt;/a&gt;</t>
   </si>
   <si>
+    <t>https://www.emisorascolombianas.co</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
+    <t>colombia</t>
+  </si>
+  <si>
+    <t>https://www.emisorascolombianas.co,co,colombia,37</t>
+  </si>
+  <si>
     <t xml:space="preserve">            &lt;a href="https://www.radio-uk.co.uk" class="mdc-typography--caption"&gt;&lt;img class="website-links" src="https://cdn.mytuner.mobi/static/ctr/images/country/gb.png" data-src="https://cdn.mytuner.mobi/static/ctr/images/country/gb.png" alt="Radio UK" title="radio uk website" width="64" height="64"&gt;&lt;/a&gt;</t>
   </si>
   <si>
+    <t>https://www.radioscostarica.org</t>
+  </si>
+  <si>
+    <t>cr</t>
+  </si>
+  <si>
+    <t>costa rica</t>
+  </si>
+  <si>
+    <t>https://www.radioscostarica.org,cr,costa rica,6</t>
+  </si>
+  <si>
     <t xml:space="preserve">            &lt;a href="https://www.radio-polska.pl/" class="mdc-typography--caption"&gt;&lt;img class="website-links" src="https://cdn.mytuner.mobi/static/ctr/images/country/pl.png" data-src="https://cdn.mytuner.mobi/static/ctr/images/country/pl.png" alt="Radio Polska" title="radio polska website" width="64" height="64"&gt;&lt;/a&gt;</t>
   </si>
   <si>
+    <t>https://www.radiaonline.org</t>
+  </si>
+  <si>
+    <t>cz</t>
+  </si>
+  <si>
+    <t>czech</t>
+  </si>
+  <si>
+    <t>https://www.radiaonline.org,cz,czech,4</t>
+  </si>
+  <si>
     <t xml:space="preserve">            &lt;a href="https://www.radios-online.pt/" class="mdc-typography--caption"&gt;&lt;img class="website-links" src="https://cdn.mytuner.mobi/static/ctr/images/country/pt.png" data-src="https://cdn.mytuner.mobi/static/ctr/images/country/pt.png" alt="Radio Portugal" title="radio portugal website" width="64" height="64"&gt;&lt;/a&gt;</t>
   </si>
   <si>
+    <t>https://www.internetradio-horen.de</t>
+  </si>
+  <si>
+    <t>de</t>
+  </si>
+  <si>
+    <t>deutschland</t>
+  </si>
+  <si>
+    <t>https://www.internetradio-horen.de,de,deutschland,59</t>
+  </si>
+  <si>
     <t xml:space="preserve">            &lt;a href="https://www.radio-hrvatska.com" class="mdc-typography--caption"&gt;&lt;img class="website-links" src="https://cdn.mytuner.mobi/static/ctr/images/country/hr.png" data-src="https://cdn.mytuner.mobi/static/ctr/images/country/hr.png" alt="Radio Croatia" title="radio croatia website" width="64" height="64"&gt;&lt;/a&gt;</t>
   </si>
   <si>
+    <t>https://www.radio-danmark.dk</t>
+  </si>
+  <si>
+    <t>dk</t>
+  </si>
+  <si>
+    <t>danmark</t>
+  </si>
+  <si>
+    <t>https://www.radio-danmark.dk,dk,danmark,5</t>
+  </si>
+  <si>
     <t xml:space="preserve">            &lt;a href="https://www.radio-ua.com" class="mdc-typography--caption"&gt;&lt;img class="website-links" src="https://cdn.mytuner.mobi/static/ctr/images/country/ua.png" data-src="https://cdn.mytuner.mobi/static/ctr/images/country/ua.png" alt="Radio Ukraine" title="radio ukraine website" width="64" height="64"&gt;&lt;/a&gt;</t>
   </si>
   <si>
+    <t>https://www.radio-dominicana.com</t>
+  </si>
+  <si>
+    <t>do</t>
+  </si>
+  <si>
+    <t>domican republic</t>
+  </si>
+  <si>
+    <t>https://www.radio-dominicana.com,do,domican republic,13</t>
+  </si>
+  <si>
     <t xml:space="preserve">            &lt;a href="https://www.radio-romania.com" class="mdc-typography--caption"&gt;&lt;img class="website-links" src="https://cdn.mytuner.mobi/static/ctr/images/country/ro.png" data-src="https://cdn.mytuner.mobi/static/ctr/images/country/ro.png" alt="Radio România" title="radio romania website" width="64" height="64"&gt;&lt;/a&gt;</t>
   </si>
   <si>
+    <t>https://www.radio-ecuador.org</t>
+  </si>
+  <si>
+    <t>ec</t>
+  </si>
+  <si>
+    <t>ecuador</t>
+  </si>
+  <si>
+    <t>https://www.radio-ecuador.org,ec,ecuador,17</t>
+  </si>
+  <si>
     <t xml:space="preserve">            &lt;a href="https://www.radio-ireland.com" class="mdc-typography--caption"&gt;&lt;img class="website-links" src="https://cdn.mytuner.mobi/static/ctr/images/country/ie.png" data-src="https://cdn.mytuner.mobi/static/ctr/images/country/ie.png" alt="Radio Ireland" title="radio ireland website" width="64" height="64"&gt;&lt;/a&gt;</t>
   </si>
   <si>
+    <t>https://www.radio-espana.es</t>
+  </si>
+  <si>
+    <t>es</t>
+  </si>
+  <si>
+    <t>españa</t>
+  </si>
+  <si>
+    <t>https://www.radio-espana.es,es,españa,44</t>
+  </si>
+  <si>
     <t xml:space="preserve">            &lt;a href="https://www.onlineradio-bg.com" class="mdc-typography--caption"&gt;&lt;img class="website-links" src="https://cdn.mytuner.mobi/static/ctr/images/country/bg.png" data-src="https://cdn.mytuner.mobi/static/ctr/images/country/bg.png" alt="Radio Bulgaria" title="radio bulgaria website" width="64" height="64"&gt;&lt;/a&gt;</t>
   </si>
   <si>
+    <t>https://www.radio-suomi.com</t>
+  </si>
+  <si>
+    <t>fi</t>
+  </si>
+  <si>
+    <t>finland</t>
+  </si>
+  <si>
+    <t>https://www.radio-suomi.com,fi,finland,3</t>
+  </si>
+  <si>
     <t xml:space="preserve">            &lt;a href="https://www.radiaonline.org" class="mdc-typography--caption"&gt;&lt;img class="website-links" src="https://cdn.mytuner.mobi/static/ctr/images/country/cz.png" data-src="https://cdn.mytuner.mobi/static/ctr/images/country/cz.png" alt="Radio Czech" title="radio czech website" width="64" height="64"&gt;&lt;/a&gt;</t>
   </si>
   <si>
+    <t>https://www.radio-en-ligne.fr</t>
+  </si>
+  <si>
+    <t>fr</t>
+  </si>
+  <si>
+    <t>france</t>
+  </si>
+  <si>
+    <t>https://www.radio-en-ligne.fr,fr,france,62</t>
+  </si>
+  <si>
     <t xml:space="preserve">            &lt;a href="https://www.radiosrbija.org" class="mdc-typography--caption"&gt;&lt;img class="website-links" src="https://cdn.mytuner.mobi/static/ctr/images/country/rs.png" data-src="https://cdn.mytuner.mobi/static/ctr/images/country/rs.png" alt="Radio Srbija" title="radio srbija website" width="64" height="64"&gt;&lt;/a&gt;</t>
   </si>
   <si>
+    <t>https://www.radio-uk.co.uk</t>
+  </si>
+  <si>
+    <t>gb</t>
+  </si>
+  <si>
+    <t>uk</t>
+  </si>
+  <si>
+    <t>https://www.radio-uk.co.uk,gb,uk,61</t>
+  </si>
+  <si>
     <t xml:space="preserve">            &lt;a href="https://www.onlineradiok.org" class="mdc-typography--caption"&gt;&lt;img class="website-links" src="https://cdn.mytuner.mobi/static/ctr/images/country/hu.png" data-src="https://cdn.mytuner.mobi/static/ctr/images/country/hu.png" alt="Radio Magyarország" title="radio magyarorszag website" width="64" height="64"&gt;&lt;/a&gt;</t>
   </si>
   <si>
+    <t>https://www.radio-ghana.org</t>
+  </si>
+  <si>
+    <t>gh</t>
+  </si>
+  <si>
+    <t>ghana</t>
+  </si>
+  <si>
+    <t>https://www.radio-ghana.org,gh,ghana,9</t>
+  </si>
+  <si>
     <t xml:space="preserve">            &lt;a href="https://www.radijskepostaje.com" class="mdc-typography--caption"&gt;&lt;img class="website-links" src="https://cdn.mytuner.mobi/static/ctr/images/country/si.png" data-src="https://cdn.mytuner.mobi/static/ctr/images/country/si.png" alt="Radio Slovenija" title="radio slovenija website" width="64" height="64"&gt;&lt;/a&gt;</t>
   </si>
   <si>
+    <t>https://www.greek-radio.org</t>
+  </si>
+  <si>
+    <t>gr</t>
+  </si>
+  <si>
+    <t>greece</t>
+  </si>
+  <si>
+    <t>https://www.greek-radio.org,gr,greece,19</t>
+  </si>
+  <si>
     <t xml:space="preserve">            &lt;a href="https://www.greek-radio.org" class="mdc-typography--caption"&gt;&lt;img class="website-links" src="https://cdn.mytuner.mobi/static/ctr/images/country/gr.png" data-src="https://cdn.mytuner.mobi/static/ctr/images/country/gr.png" alt="Radio Greece" title="radio greece website" width="64" height="64"&gt;&lt;/a&gt;</t>
   </si>
   <si>
+    <t>https://www.radios-guatemala.com</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>guatemala</t>
+  </si>
+  <si>
+    <t>https://www.radios-guatemala.com,gt,guatemala,18</t>
+  </si>
+  <si>
     <t xml:space="preserve">            &lt;a href="https://www.canadaradiostations.com" class="mdc-typography--caption"&gt;&lt;img class="website-links" src="https://cdn.mytuner.mobi/static/ctr/images/country/ca.png" data-src="https://cdn.mytuner.mobi/static/ctr/images/country/ca.png" alt="Canada Radio Stations" title="canada radio stations website" width="64" height="64"&gt;&lt;/a&gt;</t>
   </si>
   <si>
+    <t>https://www.radio-hk.com</t>
+  </si>
+  <si>
+    <t>hk</t>
+  </si>
+  <si>
+    <t>https://www.radio-hk.com,hk,hk,1</t>
+  </si>
+  <si>
     <t xml:space="preserve">            &lt;a href="https://www.radio-en-vivo.mx" class="mdc-typography--caption"&gt;&lt;img class="website-links" src="https://cdn.mytuner.mobi/static/ctr/images/country/mx.png" data-src="https://cdn.mytuner.mobi/static/ctr/images/country/mx.png" alt="Radio en Vivo México" title="radio mexico website" width="64" height="64"&gt;&lt;/a&gt;</t>
   </si>
   <si>
+    <t>https://www.emisoras-de-honduras.com</t>
+  </si>
+  <si>
+    <t>hn</t>
+  </si>
+  <si>
+    <t>honduras</t>
+  </si>
+  <si>
+    <t>https://www.emisoras-de-honduras.com,hn,honduras,6</t>
+  </si>
+  <si>
     <t xml:space="preserve">            &lt;a href="https://www.fmradiofree.com" class="mdc-typography--caption"&gt;&lt;img class="website-links" src="https://cdn.mytuner.mobi/static/ctr/images/country/us.png" data-src="https://cdn.mytuner.mobi/static/ctr/images/country/us.png" alt="Radio US" title="radio us website" width="64" height="64"&gt;&lt;/a&gt;</t>
   </si>
   <si>
+    <t>https://www.radio-hrvatska.com</t>
+  </si>
+  <si>
+    <t>hr</t>
+  </si>
+  <si>
+    <t>croatia</t>
+  </si>
+  <si>
+    <t>https://www.radio-hrvatska.com,hr,croatia,4</t>
+  </si>
+  <si>
     <t xml:space="preserve">            &lt;a href="https://www.radio-trinidad.com" class="mdc-typography--caption"&gt;&lt;img class="website-links" src="https://cdn.mytuner.mobi/static/ctr/images/country/tt.png" data-src="https://cdn.mytuner.mobi/static/ctr/images/country/tt.png" alt="Radio Trinidad y Tobago" title="radio trinidad website" width="64" height="64"&gt;&lt;/a&gt;</t>
   </si>
   <si>
+    <t>https://www.onlineradiok.org</t>
+  </si>
+  <si>
+    <t>hu</t>
+  </si>
+  <si>
+    <t>magyarorszag</t>
+  </si>
+  <si>
+    <t>https://www.onlineradiok.org,hu,magyarorszag,8</t>
+  </si>
+  <si>
     <t xml:space="preserve">            &lt;a href="https://www.radio-jamaica.com" class="mdc-typography--caption"&gt;&lt;img class="website-links" src="https://cdn.mytuner.mobi/static/ctr/images/country/jm.png" data-src="https://cdn.mytuner.mobi/static/ctr/images/country/jm.png" alt="Radio Jamaica" title="radio jamaica website" width="64" height="64"&gt;&lt;/a&gt;</t>
   </si>
   <si>
+    <t>https://www.radioindonesia.org</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>indonesia</t>
+  </si>
+  <si>
+    <t>https://www.radioindonesia.org,id,indonesia,11</t>
+  </si>
+  <si>
     <t xml:space="preserve">            &lt;a href="https://www.radiosdenicaragua.org" class="mdc-typography--caption"&gt;&lt;img class="website-links" src="https://cdn.mytuner.mobi/static/ctr/images/country/ni.png" data-src="https://cdn.mytuner.mobi/static/ctr/images/country/ni.png" alt="Radios Nicaragua" title="radio nicaragua website" width="64" height="64"&gt;&lt;/a&gt;</t>
   </si>
   <si>
+    <t>https://www.radio-ireland.com</t>
+  </si>
+  <si>
+    <t>ie</t>
+  </si>
+  <si>
+    <t>ireland</t>
+  </si>
+  <si>
+    <t>https://www.radio-ireland.com,ie,ireland,5</t>
+  </si>
+  <si>
     <t xml:space="preserve">            &lt;a href="https://www.radioselsalvador.org" class="mdc-typography--caption"&gt;&lt;img class="website-links" src="https://cdn.mytuner.mobi/static/ctr/images/country/sv.png" data-src="https://cdn.mytuner.mobi/static/ctr/images/country/sv.png" alt="Radios El Salvador" title="radio salvador website" width="64" height="64"&gt;&lt;/a&gt;</t>
   </si>
   <si>
+    <t>https://www.radio-israel.org</t>
+  </si>
+  <si>
+    <t>il</t>
+  </si>
+  <si>
+    <t>Israel</t>
+  </si>
+  <si>
+    <t>https://www.radio-israel.org,il,Israel,4</t>
+  </si>
+  <si>
     <t xml:space="preserve">            &lt;a href="https://www.emisoras-de-honduras.com" class="mdc-typography--caption"&gt;&lt;img class="website-links" src="https://cdn.mytuner.mobi/static/ctr/images/country/hn.png" data-src="https://cdn.mytuner.mobi/static/ctr/images/country/hn.png" alt="Radios Honduras" title="radio honduras website" width="64" height="64"&gt;&lt;/a&gt;</t>
   </si>
   <si>
+    <t>https://www.radioindia.in</t>
+  </si>
+  <si>
+    <t>in</t>
+  </si>
+  <si>
+    <t>india</t>
+  </si>
+  <si>
+    <t>https://www.radioindia.in,in,india,17</t>
+  </si>
+  <si>
     <t xml:space="preserve">            &lt;a href="https://www.radios-argentinas.org" class="mdc-typography--caption"&gt;&lt;img class="website-links" src="https://cdn.mytuner.mobi/static/ctr/images/country/ar.png" data-src="https://cdn.mytuner.mobi/static/ctr/images/country/ar.png" alt="Radios Argentinas" title="radio argentina website" width="64" height="64"&gt;&lt;/a&gt;</t>
   </si>
   <si>
+    <t>https://www.radio-italiane.it</t>
+  </si>
+  <si>
+    <t>it</t>
+  </si>
+  <si>
+    <t>italia</t>
+  </si>
+  <si>
+    <t>https://www.radio-italiane.it,it,italia,40</t>
+  </si>
+  <si>
     <t xml:space="preserve">            &lt;a href="https://www.radio-ao-vivo.com/" class="mdc-typography--caption"&gt;&lt;img class="website-links" src="https://cdn.mytuner.mobi/static/ctr/images/country/br.png" data-src="https://cdn.mytuner.mobi/static/ctr/images/country/br.png" alt="Rádio Brasil" title="radio brasil website" width="64" height="64"&gt;&lt;/a&gt;</t>
   </si>
   <si>
+    <t>https://www.radio-jamaica.com</t>
+  </si>
+  <si>
+    <t>jm</t>
+  </si>
+  <si>
+    <t>jamaica</t>
+  </si>
+  <si>
+    <t>https://www.radio-jamaica.com,jm,jamaica,2</t>
+  </si>
+  <si>
     <t xml:space="preserve">            &lt;a href="https://www.radios-chilenas.com" class="mdc-typography--caption"&gt;&lt;img class="website-links" src="https://cdn.mytuner.mobi/static/ctr/images/country/cl.png" data-src="https://cdn.mytuner.mobi/static/ctr/images/country/cl.png" alt="Radios Chile" title="radio chile website" width="64" height="64"&gt;&lt;/a&gt;</t>
   </si>
   <si>
+    <t>https://www.radiojapan.org</t>
+  </si>
+  <si>
+    <t>jp</t>
+  </si>
+  <si>
+    <t>japan</t>
+  </si>
+  <si>
+    <t>https://www.radiojapan.org,jp,japan,6</t>
+  </si>
+  <si>
     <t xml:space="preserve">            &lt;a href="https://www.emisorascolombianas.co" class="mdc-typography--caption"&gt;&lt;img class="website-links" src="https://cdn.mytuner.mobi/static/ctr/images/country/co.png" data-src="https://cdn.mytuner.mobi/static/ctr/images/country/co.png" alt="Emisoras Colombianas" title="radio colombia website" width="64" height="64"&gt;&lt;/a&gt;</t>
   </si>
   <si>
+    <t>https://www.radio-kenya.com</t>
+  </si>
+  <si>
+    <t>ke</t>
+  </si>
+  <si>
+    <t>kenya</t>
+  </si>
+  <si>
+    <t>https://www.radio-kenya.com,ke,kenya,3</t>
+  </si>
+  <si>
     <t xml:space="preserve">            &lt;a href="https://www.radiosdelperu.com.pe" class="mdc-typography--caption"&gt;&lt;img class="website-links" src="https://cdn.mytuner.mobi/static/ctr/images/country/pe.png" data-src="https://cdn.mytuner.mobi/static/ctr/images/country/pe.png" alt="Radios Peru" title="radio peru website" width="64" height="64"&gt;&lt;/a&gt;</t>
   </si>
   <si>
+    <t>https://www.radio-korea.com</t>
+  </si>
+  <si>
+    <t>kr</t>
+  </si>
+  <si>
+    <t>south korea</t>
+  </si>
+  <si>
+    <t>https://www.radio-korea.com,kr,south korea,3</t>
+  </si>
+  <si>
     <t xml:space="preserve">            &lt;a href="https://www.radio-ecuador.org/" class="mdc-typography--caption"&gt;&lt;img class="website-links" src="https://cdn.mytuner.mobi/static/ctr/images/country/ec.png" data-src="https://cdn.mytuner.mobi/static/ctr/images/country/ec.png" alt="Radios Ecuador" title="radio ecuador website" width="64" height="64"&gt;&lt;/a&gt;</t>
   </si>
   <si>
+    <t>https://www.radio-maroc.org</t>
+  </si>
+  <si>
+    <t>ma</t>
+  </si>
+  <si>
+    <t>morocco</t>
+  </si>
+  <si>
+    <t>https://www.radio-maroc.org,ma,morocco,2</t>
+  </si>
+  <si>
     <t xml:space="preserve">            &lt;a href="https://www.radios-uruguay.com/" class="mdc-typography--caption"&gt;&lt;img class="website-links" src="https://cdn.mytuner.mobi/static/ctr/images/country/uy.png" data-src="https://cdn.mytuner.mobi/static/ctr/images/country/uy.png" alt="Radios Uruguay" title="radio uruguay website" width="64" height="64"&gt;&lt;/a&gt;</t>
   </si>
   <si>
+    <t>https://www.radio-en-vivo.mx</t>
+  </si>
+  <si>
+    <t>mx</t>
+  </si>
+  <si>
+    <t>mexico</t>
+  </si>
+  <si>
+    <t>https://www.radio-en-vivo.mx,mx,mexico,40</t>
+  </si>
+  <si>
     <t xml:space="preserve">            &lt;a href="https://www.radios-guatemala.com/" class="mdc-typography--caption"&gt;&lt;img class="website-links" src="https://cdn.mytuner.mobi/static/ctr/images/country/gt.png" data-src="https://cdn.mytuner.mobi/static/ctr/images/country/gt.png" alt="Radios Guatemala" title="radio guatemala website" width="64" height="64"&gt;&lt;/a&gt;</t>
   </si>
   <si>
+    <t>https://www.radiomalaysia.org</t>
+  </si>
+  <si>
+    <t>my</t>
+  </si>
+  <si>
+    <t>malaysia</t>
+  </si>
+  <si>
+    <t>https://www.radiomalaysia.org,my,malaysia,2</t>
+  </si>
+  <si>
     <t xml:space="preserve">            &lt;a href="https://www.radios-venezuela.com/" class="mdc-typography--caption"&gt;&lt;img class="website-links" src="https://cdn.mytuner.mobi/static/ctr/images/country/ve.png" data-src="https://cdn.mytuner.mobi/static/ctr/images/country/ve.png" alt="Radios Venezuela" title="radio venezuela website" width="64" height="64"&gt;&lt;/a&gt;</t>
   </si>
   <si>
+    <t>https://www.radio-nigeria.com</t>
+  </si>
+  <si>
+    <t>ng</t>
+  </si>
+  <si>
+    <t>Nigeria</t>
+  </si>
+  <si>
+    <t>https://www.radio-nigeria.com,ng,Nigeria,6</t>
+  </si>
+  <si>
     <t xml:space="preserve">            &lt;a href="https://www.emisoras-puertorico.com/" class="mdc-typography--caption"&gt;&lt;img class="website-links" src="https://cdn.mytuner.mobi/static/ctr/images/country/pr.png" data-src="https://cdn.mytuner.mobi/static/ctr/images/country/pr.png" alt="Radios Puerto Rico" title="radio puerto rico website" width="64" height="64"&gt;&lt;/a&gt;</t>
   </si>
   <si>
+    <t>https://www.radiosdenicaragua.org</t>
+  </si>
+  <si>
+    <t>ni</t>
+  </si>
+  <si>
+    <t>nicaragua</t>
+  </si>
+  <si>
+    <t>https://www.radiosdenicaragua.org,ni,nicaragua,4</t>
+  </si>
+  <si>
     <t xml:space="preserve">            &lt;a href="https://www.radio-dominicana.com/" class="mdc-typography--caption"&gt;&lt;img class="website-links" src="https://cdn.mytuner.mobi/static/ctr/images/country/do.png" data-src="https://cdn.mytuner.mobi/static/ctr/images/country/do.png" alt="Radios Dominican Republic" title="radio domican republic website" width="64" height="64"&gt;&lt;/a&gt;</t>
   </si>
   <si>
+    <t>https://www.radio-nederland.nl</t>
+  </si>
+  <si>
+    <t>nl</t>
+  </si>
+  <si>
+    <t>nederland</t>
+  </si>
+  <si>
+    <t>https://www.radio-nederland.nl,nl,nederland,28</t>
+  </si>
+  <si>
     <t xml:space="preserve">            &lt;a href="https://www.radios-bolivia.com/" class="mdc-typography--caption"&gt;&lt;img class="website-links" src="https://cdn.mytuner.mobi/static/ctr/images/country/bo.png" data-src="https://cdn.mytuner.mobi/static/ctr/images/country/bo.png" alt="Radios Bolivia" title="radio bolivia website" width="64" height="64"&gt;&lt;/a&gt;</t>
   </si>
   <si>
+    <t>https://www.radio-norge.org</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>norge</t>
+  </si>
+  <si>
+    <t>https://www.radio-norge.org,no,norge,4</t>
+  </si>
+  <si>
     <t xml:space="preserve">            &lt;a href="https://www.radioscostarica.org/" class="mdc-typography--caption"&gt;&lt;img class="website-links" src="https://cdn.mytuner.mobi/static/ctr/images/country/cr.png" data-src="https://cdn.mytuner.mobi/static/ctr/images/country/cr.png" alt="Radios Costa Rica" title="radio costa rica website" width="64" height="64"&gt;&lt;/a&gt;</t>
   </si>
   <si>
+    <t>https://www.radio-stations.co.nz</t>
+  </si>
+  <si>
+    <t>nz</t>
+  </si>
+  <si>
+    <t>new zealand</t>
+  </si>
+  <si>
+    <t>https://www.radio-stations.co.nz,nz,new zealand,5</t>
+  </si>
+  <si>
     <t xml:space="preserve">            &lt;a href="https://www.radio-australia.org" class="mdc-typography--caption"&gt;&lt;img class="website-links" src="https://cdn.mytuner.mobi/static/ctr/images/country/au.png" data-src="https://cdn.mytuner.mobi/static/ctr/images/country/au.png" alt="Radio Australia" title="radio australia website" width="64" height="64"&gt;&lt;/a&gt;</t>
   </si>
   <si>
+    <t>https://www.radiosdelperu.com.pe</t>
+  </si>
+  <si>
+    <t>pe</t>
+  </si>
+  <si>
+    <t>peru</t>
+  </si>
+  <si>
+    <t>https://www.radiosdelperu.com.pe,pe,peru,23</t>
+  </si>
+  <si>
     <t xml:space="preserve">            &lt;a href="https://www.radio-stations.co.nz/" class="mdc-typography--caption"&gt;&lt;img class="website-links" src="https://cdn.mytuner.mobi/static/ctr/images/country/nz.png" data-src="https://cdn.mytuner.mobi/static/ctr/images/country/nz.png" alt="Radio New Zealand" title="radio new zealand website" width="64" height="64"&gt;&lt;/a&gt;</t>
   </si>
   <si>
+    <t>https://www.radio-philippines.com</t>
+  </si>
+  <si>
+    <t>ph</t>
+  </si>
+  <si>
+    <t>philippines</t>
+  </si>
+  <si>
+    <t>https://www.radio-philippines.com,ph,philippines,18</t>
+  </si>
+  <si>
     <t xml:space="preserve">            &lt;a href="https://www.canli-radyo-dinle.com/" class="mdc-typography--caption"&gt;&lt;img class="website-links" src="https://cdn.mytuner.mobi/static/ctr/images/country/tr.png" data-src="https://cdn.mytuner.mobi/static/ctr/images/country/tr.png" alt="Radyo Türkiye" title="radio turkey website" width="64" height="64"&gt;&lt;/a&gt;</t>
   </si>
   <si>
+    <t>https://www.radio-polska.pl</t>
+  </si>
+  <si>
+    <t>pl</t>
+  </si>
+  <si>
+    <t>polska</t>
+  </si>
+  <si>
+    <t>https://www.radio-polska.pl,pl,polska,12</t>
+  </si>
+  <si>
     <t xml:space="preserve">            &lt;a href="https://www.radioindia.in/" class="mdc-typography--caption"&gt;&lt;img class="website-links" src="https://cdn.mytuner.mobi/static/ctr/images/country/in.png" data-src="https://cdn.mytuner.mobi/static/ctr/images/country/in.png" alt="FM Radio India" title="radio india website" width="64" height="64"&gt;&lt;/a&gt;</t>
   </si>
   <si>
+    <t>https://www.emisoras-puertorico.com</t>
+  </si>
+  <si>
+    <t>pr</t>
+  </si>
+  <si>
+    <t>puerto rico</t>
+  </si>
+  <si>
+    <t>https://www.emisoras-puertorico.com,pr,puerto rico,4</t>
+  </si>
+  <si>
     <t xml:space="preserve">            &lt;a href="https://www.radio-hk.com" class="mdc-typography--caption"&gt;&lt;img class="website-links" src="https://cdn.mytuner.mobi/static/ctr/images/country/hk.png" data-src="https://cdn.mytuner.mobi/static/ctr/images/country/hk.png" alt="香港 收音機" title="radio hk website" width="64" height="64"&gt;&lt;/a&gt;</t>
   </si>
   <si>
+    <t>https://www.radios-online.pt</t>
+  </si>
+  <si>
+    <t>pt</t>
+  </si>
+  <si>
+    <t>portugal</t>
+  </si>
+  <si>
+    <t>https://www.radios-online.pt,pt,portugal,10</t>
+  </si>
+  <si>
     <t xml:space="preserve">            &lt;a href="https://www.radioindonesia.org" class="mdc-typography--caption"&gt;&lt;img class="website-links" src="https://cdn.mytuner.mobi/static/ctr/images/country/id.png" data-src="https://cdn.mytuner.mobi/static/ctr/images/country/id.png" alt="Radio Online Indonesia" title="radio indonesia website" width="64" height="64"&gt;&lt;/a&gt;</t>
   </si>
   <si>
+    <t>https://www.radio-romania.com</t>
+  </si>
+  <si>
+    <t>ro</t>
+  </si>
+  <si>
+    <t>romania</t>
+  </si>
+  <si>
+    <t>https://www.radio-romania.com,ro,romania,11</t>
+  </si>
+  <si>
     <t xml:space="preserve">            &lt;a href="https://www.radiojapan.org" class="mdc-typography--caption"&gt;&lt;img class="website-links" src="https://cdn.mytuner.mobi/static/ctr/images/country/jp.png" data-src="https://cdn.mytuner.mobi/static/ctr/images/country/jp.png" alt="ラジオ 日本" title="radio japan website" width="64" height="64"&gt;&lt;/a&gt;</t>
   </si>
   <si>
+    <t>https://www.radiosrbija.org</t>
+  </si>
+  <si>
+    <t>rs</t>
+  </si>
+  <si>
+    <t>srbija</t>
+  </si>
+  <si>
+    <t>https://www.radiosrbija.org,rs,srbija,5</t>
+  </si>
+  <si>
     <t xml:space="preserve">            &lt;a href="https://www.radio-philippines.com" class="mdc-typography--caption"&gt;&lt;img class="website-links" src="https://cdn.mytuner.mobi/static/ctr/images/country/ph.png" data-src="https://cdn.mytuner.mobi/static/ctr/images/country/ph.png" alt="FM Radio Philippines" title="radio philippines website" width="64" height="64"&gt;&lt;/a&gt;</t>
   </si>
   <si>
+    <t>https://www.radio-sveriges.se</t>
+  </si>
+  <si>
+    <t>se</t>
+  </si>
+  <si>
+    <t>sverige</t>
+  </si>
+  <si>
+    <t>https://www.radio-sveriges.se,se,sverige,6</t>
+  </si>
+  <si>
     <t xml:space="preserve">            &lt;a href="https://www.radio-singapore.com" class="mdc-typography--caption"&gt;&lt;img class="website-links" src="https://cdn.mytuner.mobi/static/ctr/images/country/sg.png" data-src="https://cdn.mytuner.mobi/static/ctr/images/country/sg.png" alt="Radio Singapore" title="radio singapore website" width="64" height="64"&gt;&lt;/a&gt;</t>
   </si>
   <si>
+    <t>https://www.radio-singapore.com</t>
+  </si>
+  <si>
+    <t>sg</t>
+  </si>
+  <si>
+    <t>singapore</t>
+  </si>
+  <si>
+    <t>https://www.radio-singapore.com,sg,singapore,2</t>
+  </si>
+  <si>
     <t xml:space="preserve">            &lt;a href="https://www.radio-thai.com" class="mdc-typography--caption"&gt;&lt;img class="website-links" src="https://cdn.mytuner.mobi/static/ctr/images/country/th.png" data-src="https://cdn.mytuner.mobi/static/ctr/images/country/th.png" alt="Radio Thailand" title="radio thailand website" width="64" height="64"&gt;&lt;/a&gt;</t>
   </si>
   <si>
+    <t>https://www.radijskepostaje.com</t>
+  </si>
+  <si>
+    <t>si</t>
+  </si>
+  <si>
+    <t>slovenija</t>
+  </si>
+  <si>
+    <t>https://www.radijskepostaje.com,si,slovenija,2</t>
+  </si>
+  <si>
     <t xml:space="preserve">            &lt;a href="https://www.radio-korea.com" class="mdc-typography--caption"&gt;&lt;img class="website-links" src="https://cdn.mytuner.mobi/static/ctr/images/country/kr.png" data-src="https://cdn.mytuner.mobi/static/ctr/images/country/kr.png" alt="Radio South Korea" title="radio south korea website" width="64" height="64"&gt;&lt;/a&gt;</t>
   </si>
   <si>
+    <t>https://www.radio-senegal.com</t>
+  </si>
+  <si>
+    <t>sn</t>
+  </si>
+  <si>
+    <t>senegal</t>
+  </si>
+  <si>
+    <t>https://www.radio-senegal.com,sn,senegal,2</t>
+  </si>
+  <si>
     <t xml:space="preserve">            &lt;a href="https://www.radiotaiwan.tw" class="mdc-typography--caption"&gt;&lt;img class="website-links" src="https://cdn.mytuner.mobi/static/ctr/images/country/tw.png" data-src="https://cdn.mytuner.mobi/static/ctr/images/country/tw.png" alt="台灣 收音機" title="radio taiwan website" width="64" height="64"&gt;&lt;/a&gt;</t>
   </si>
   <si>
+    <t>https://www.radioselsalvador.org</t>
+  </si>
+  <si>
+    <t>sv</t>
+  </si>
+  <si>
+    <t>salvador</t>
+  </si>
+  <si>
+    <t>https://www.radioselsalvador.org,sv,salvador,6</t>
+  </si>
+  <si>
     <t xml:space="preserve">            &lt;a href="https://www.radiomalaysia.org" class="mdc-typography--caption"&gt;&lt;img class="website-links" src="https://cdn.mytuner.mobi/static/ctr/images/country/my.png" data-src="https://cdn.mytuner.mobi/static/ctr/images/country/my.png" alt="Radio Malaysia" title="radio malaysia website" width="64" height="64"&gt;&lt;/a&gt;</t>
   </si>
   <si>
+    <t>https://www.radio-thai.com</t>
+  </si>
+  <si>
+    <t>th</t>
+  </si>
+  <si>
+    <t>thailand</t>
+  </si>
+  <si>
+    <t>https://www.radio-thai.com,th,thailand,7</t>
+  </si>
+  <si>
     <t xml:space="preserve">            &lt;a href="https://www.radio-south-africa.co.za" class="mdc-typography--caption"&gt;&lt;img class="website-links" src="https://cdn.mytuner.mobi/static/ctr/images/country/za.png" data-src="https://cdn.mytuner.mobi/static/ctr/images/country/za.png" alt="Radio South Africa" title="radio south africa website" width="64" height="64"&gt;&lt;/a&gt;</t>
   </si>
   <si>
+    <t>https://www.canli-radyo-dinle.com</t>
+  </si>
+  <si>
+    <t>tr</t>
+  </si>
+  <si>
+    <t>turkey</t>
+  </si>
+  <si>
+    <t>https://www.canli-radyo-dinle.com,tr,turkey,17</t>
+  </si>
+  <si>
     <t xml:space="preserve">            &lt;a href="https://www.radio-maroc.org/" class="mdc-typography--caption"&gt;&lt;img class="website-links" src="https://cdn.mytuner.mobi/static/ctr/images/country/ma.png" data-src="https://cdn.mytuner.mobi/static/ctr/images/country/ma.png" alt="Radio Morocco" title="radio morocco website" width="64" height="64"&gt;&lt;/a&gt;</t>
   </si>
   <si>
+    <t>https://www.radio-trinidad.com</t>
+  </si>
+  <si>
+    <t>tt</t>
+  </si>
+  <si>
+    <t>trinidad</t>
+  </si>
+  <si>
+    <t>https://www.radio-trinidad.com,tt,trinidad,2</t>
+  </si>
+  <si>
     <t xml:space="preserve">            &lt;a href="https://www.radio-senegal.com" class="mdc-typography--caption"&gt;&lt;img class="website-links" src="https://cdn.mytuner.mobi/static/ctr/images/country/sn.png" data-src="https://cdn.mytuner.mobi/static/ctr/images/country/sn.png" alt="Radio Senegal" title="radio senegal website" width="64" height="64"&gt;&lt;/a&gt;</t>
   </si>
   <si>
+    <t>https://www.radiotaiwan.tw</t>
+  </si>
+  <si>
+    <t>tw</t>
+  </si>
+  <si>
+    <t>taiwan</t>
+  </si>
+  <si>
+    <t>https://www.radiotaiwan.tw,tw,taiwan,3</t>
+  </si>
+  <si>
     <t xml:space="preserve">            &lt;a href="https://www.radio-ghana.org" class="mdc-typography--caption"&gt;&lt;img class="website-links" src="https://cdn.mytuner.mobi/static/ctr/images/country/gh.png" data-src="https://cdn.mytuner.mobi/static/ctr/images/country/gh.png" alt="Radio Ghana" title="radio ghana website" width="64" height="64"&gt;&lt;/a&gt;</t>
   </si>
   <si>
+    <t>https://www.radio-ua.com</t>
+  </si>
+  <si>
+    <t>ua</t>
+  </si>
+  <si>
+    <t>ukraine</t>
+  </si>
+  <si>
+    <t>https://www.radio-ua.com,ua,ukraine,5</t>
+  </si>
+  <si>
     <t xml:space="preserve">            &lt;a href="https://www.radio-kenya.com" class="mdc-typography--caption"&gt;&lt;img class="website-links" src="https://cdn.mytuner.mobi/static/ctr/images/country/ke.png" data-src="https://cdn.mytuner.mobi/static/ctr/images/country/ke.png" alt="Radio Kenya" title="radio kenya website" width="64" height="64"&gt;&lt;/a&gt;</t>
   </si>
   <si>
+    <t>https://www.fmradiofree.com</t>
+  </si>
+  <si>
+    <t>us</t>
+  </si>
+  <si>
+    <t>https://www.radios-uruguay.com,uy,uruguay,7</t>
+  </si>
+  <si>
     <t xml:space="preserve">            &lt;a href="https://www.radio-nigeria.com" class="mdc-typography--caption"&gt;&lt;img class="website-links" src="https://cdn.mytuner.mobi/static/ctr/images/country/ng.png" data-src="https://cdn.mytuner.mobi/static/ctr/images/country/ng.png" alt="Radio Nigeria" title="radio Nigeria website" width="64" height="64"&gt;&lt;/a&gt;</t>
   </si>
   <si>
+    <t>https://www.radios-uruguay.com</t>
+  </si>
+  <si>
+    <t>uy</t>
+  </si>
+  <si>
+    <t>uruguay</t>
+  </si>
+  <si>
+    <t>https://www.radios-venezuela.com,ve,venezuela,12</t>
+  </si>
+  <si>
     <t xml:space="preserve">            &lt;a href="https://www.radio-israel.org" class="mdc-typography--caption"&gt;&lt;img class="website-links" src="https://cdn.mytuner.mobi/static/ctr/images/country/il.png" data-src="https://cdn.mytuner.mobi/static/ctr/images/country/il.png" alt="Radio Israel" title="radio Israel website" width="64" height="64"&gt;&lt;/a&gt;</t>
   </si>
   <si>
+    <t>https://www.radios-venezuela.com</t>
+  </si>
+  <si>
+    <t>ve</t>
+  </si>
+  <si>
+    <t>venezuela</t>
+  </si>
+  <si>
+    <t>https://www.radio-south-africa.co.za,za,south africa,11</t>
+  </si>
+  <si>
     <t xml:space="preserve">            &lt;a href="https://www.radioarabic.org" class="mdc-typography--caption"&gt;&lt;img class="website-links" src="https://cdn.mytuner.mobi/static/ctr/images/country/arab.png" data-src="https://cdn.mytuner.mobi/static/ctr/images/country/arab.png" alt="Radio Arabic" title="radio Arabic website" width="64" height="64"&gt;&lt;/a&gt;</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t>canada</t>
-  </si>
-  <si>
-    <t>https://www.radio-osterreich.at</t>
-  </si>
-  <si>
-    <t>at</t>
-  </si>
-  <si>
-    <t>österreich</t>
-  </si>
-  <si>
-    <t>https://www.radio-belgie.be</t>
-  </si>
-  <si>
-    <t>be</t>
-  </si>
-  <si>
-    <t>belgie</t>
-  </si>
-  <si>
-    <t>https://www.radio-danmark.dk</t>
-  </si>
-  <si>
-    <t>dk</t>
-  </si>
-  <si>
-    <t>danmark</t>
-  </si>
-  <si>
-    <t>https://www.radio-suomi.com</t>
-  </si>
-  <si>
-    <t>fi</t>
-  </si>
-  <si>
-    <t>finland</t>
-  </si>
-  <si>
-    <t>https://www.radio-en-ligne.fr</t>
-  </si>
-  <si>
-    <t>fr</t>
-  </si>
-  <si>
-    <t>france</t>
-  </si>
-  <si>
-    <t>https://www.internetradio-horen.de</t>
-  </si>
-  <si>
-    <t>de</t>
-  </si>
-  <si>
-    <t>deutschland</t>
-  </si>
-  <si>
-    <t>https://www.radio-italiane.it</t>
-  </si>
-  <si>
-    <t>it</t>
-  </si>
-  <si>
-    <t>italia</t>
-  </si>
-  <si>
-    <t>https://www.radio-nederland.nl</t>
-  </si>
-  <si>
-    <t>nl</t>
-  </si>
-  <si>
-    <t>nederland</t>
-  </si>
-  <si>
-    <t>https://www.radio-norge.org</t>
-  </si>
-  <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>norge</t>
-  </si>
-  <si>
-    <t>https://www.radio-espana.es</t>
-  </si>
-  <si>
-    <t>es</t>
-  </si>
-  <si>
-    <t>españa</t>
-  </si>
-  <si>
-    <t>https://www.radio-sveriges.se</t>
-  </si>
-  <si>
-    <t>se</t>
-  </si>
-  <si>
-    <t>sverige</t>
-  </si>
-  <si>
-    <t>https://www.internetradio-schweiz.ch</t>
-  </si>
-  <si>
-    <t>ch</t>
-  </si>
-  <si>
-    <t>schweiz</t>
-  </si>
-  <si>
-    <t>https://www.radio-uk.co.uk</t>
-  </si>
-  <si>
-    <t>gb</t>
-  </si>
-  <si>
-    <t>uk</t>
-  </si>
-  <si>
-    <t>https://www.radio-polska.pl</t>
-  </si>
-  <si>
-    <t>pl</t>
-  </si>
-  <si>
-    <t>polska</t>
-  </si>
-  <si>
-    <t>https://www.radios-online.pt</t>
-  </si>
-  <si>
-    <t>pt</t>
-  </si>
-  <si>
-    <t>portugal</t>
-  </si>
-  <si>
-    <t>https://www.radio-hrvatska.com</t>
-  </si>
-  <si>
-    <t>hr</t>
-  </si>
-  <si>
-    <t>croatia</t>
-  </si>
-  <si>
-    <t>https://www.radio-ua.com</t>
-  </si>
-  <si>
-    <t>ua</t>
-  </si>
-  <si>
-    <t>ukraine</t>
-  </si>
-  <si>
-    <t>https://www.radio-romania.com</t>
-  </si>
-  <si>
-    <t>ro</t>
-  </si>
-  <si>
-    <t>romania</t>
-  </si>
-  <si>
-    <t>https://www.radio-ireland.com</t>
-  </si>
-  <si>
-    <t>ie</t>
-  </si>
-  <si>
-    <t>ireland</t>
-  </si>
-  <si>
-    <t>https://www.onlineradio-bg.com</t>
-  </si>
-  <si>
-    <t>bg</t>
-  </si>
-  <si>
-    <t>bulgaria</t>
-  </si>
-  <si>
-    <t>https://www.radiaonline.org</t>
-  </si>
-  <si>
-    <t>cz</t>
-  </si>
-  <si>
-    <t>czech</t>
-  </si>
-  <si>
-    <t>https://www.radiosrbija.org</t>
-  </si>
-  <si>
-    <t>rs</t>
-  </si>
-  <si>
-    <t>srbija</t>
-  </si>
-  <si>
-    <t>https://www.onlineradiok.org</t>
-  </si>
-  <si>
-    <t>hu</t>
-  </si>
-  <si>
-    <t>magyarorszag</t>
-  </si>
-  <si>
-    <t>https://www.radijskepostaje.com</t>
-  </si>
-  <si>
-    <t>si</t>
-  </si>
-  <si>
-    <t>slovenija</t>
-  </si>
-  <si>
-    <t>https://www.greek-radio.org</t>
-  </si>
-  <si>
-    <t>gr</t>
-  </si>
-  <si>
-    <t>greece</t>
-  </si>
-  <si>
-    <t>https://www.canadaradiostations.com</t>
-  </si>
-  <si>
-    <t>ca</t>
-  </si>
-  <si>
-    <t>https://www.radio-en-vivo.mx</t>
-  </si>
-  <si>
-    <t>mx</t>
-  </si>
-  <si>
-    <t>mexico</t>
-  </si>
-  <si>
-    <t>https://www.fmradiofree.com</t>
-  </si>
-  <si>
-    <t>us</t>
-  </si>
-  <si>
-    <t>https://www.radio-trinidad.com</t>
-  </si>
-  <si>
-    <t>tt</t>
-  </si>
-  <si>
-    <t>trinidad</t>
-  </si>
-  <si>
-    <t>https://www.radio-jamaica.com</t>
-  </si>
-  <si>
-    <t>jm</t>
-  </si>
-  <si>
-    <t>jamaica</t>
-  </si>
-  <si>
-    <t>https://www.radiosdenicaragua.org</t>
-  </si>
-  <si>
-    <t>ni</t>
-  </si>
-  <si>
-    <t>nicaragua</t>
-  </si>
-  <si>
-    <t>https://www.radioselsalvador.org</t>
-  </si>
-  <si>
-    <t>sv</t>
-  </si>
-  <si>
-    <t>salvador</t>
-  </si>
-  <si>
-    <t>https://www.emisoras-de-honduras.com</t>
-  </si>
-  <si>
-    <t>hn</t>
-  </si>
-  <si>
-    <t>honduras</t>
-  </si>
-  <si>
-    <t>https://www.radios-argentinas.org</t>
-  </si>
-  <si>
-    <t>ar</t>
-  </si>
-  <si>
-    <t>argentina</t>
-  </si>
-  <si>
-    <t>https://www.radio-ao-vivo.com</t>
-  </si>
-  <si>
-    <t>br</t>
-  </si>
-  <si>
-    <t>brasil</t>
-  </si>
-  <si>
-    <t>https://www.radios-chilenas.com</t>
-  </si>
-  <si>
-    <t>cl</t>
-  </si>
-  <si>
-    <t>chile</t>
-  </si>
-  <si>
-    <t>https://www.emisorascolombianas.co</t>
-  </si>
-  <si>
-    <t>co</t>
-  </si>
-  <si>
-    <t>colombia</t>
-  </si>
-  <si>
-    <t>https://www.radiosdelperu.com.pe</t>
-  </si>
-  <si>
-    <t>pe</t>
-  </si>
-  <si>
-    <t>peru</t>
-  </si>
-  <si>
-    <t>https://www.radio-ecuador.org</t>
-  </si>
-  <si>
-    <t>ec</t>
-  </si>
-  <si>
-    <t>ecuador</t>
-  </si>
-  <si>
-    <t>https://www.radios-uruguay.com</t>
-  </si>
-  <si>
-    <t>uy</t>
-  </si>
-  <si>
-    <t>uruguay</t>
-  </si>
-  <si>
-    <t>https://www.radios-guatemala.com</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>guatemala</t>
-  </si>
-  <si>
-    <t>https://www.radios-venezuela.com</t>
-  </si>
-  <si>
-    <t>ve</t>
-  </si>
-  <si>
-    <t>venezuela</t>
-  </si>
-  <si>
-    <t>https://www.emisoras-puertorico.com</t>
-  </si>
-  <si>
-    <t>pr</t>
-  </si>
-  <si>
-    <t>puerto rico</t>
-  </si>
-  <si>
-    <t>https://www.radio-dominicana.com</t>
-  </si>
-  <si>
-    <t>do</t>
-  </si>
-  <si>
-    <t>domican republic</t>
-  </si>
-  <si>
-    <t>https://www.radios-bolivia.com</t>
-  </si>
-  <si>
-    <t>bo</t>
-  </si>
-  <si>
-    <t>bolivia</t>
-  </si>
-  <si>
-    <t>https://www.radioscostarica.org</t>
-  </si>
-  <si>
-    <t>cr</t>
-  </si>
-  <si>
-    <t>costa rica</t>
-  </si>
-  <si>
-    <t>https://www.radio-australia.org</t>
-  </si>
-  <si>
-    <t>au</t>
-  </si>
-  <si>
-    <t>australia</t>
-  </si>
-  <si>
-    <t>https://www.radio-stations.co.nz</t>
-  </si>
-  <si>
-    <t>nz</t>
-  </si>
-  <si>
-    <t>new zealand</t>
-  </si>
-  <si>
-    <t>https://www.canli-radyo-dinle.com</t>
-  </si>
-  <si>
-    <t>tr</t>
-  </si>
-  <si>
-    <t>turkey</t>
-  </si>
-  <si>
-    <t>https://www.radioindia.in</t>
-  </si>
-  <si>
-    <t>in</t>
-  </si>
-  <si>
-    <t>india</t>
-  </si>
-  <si>
-    <t>https://www.radio-hk.com</t>
-  </si>
-  <si>
-    <t>hk</t>
-  </si>
-  <si>
-    <t>https://www.radioindonesia.org</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>indonesia</t>
-  </si>
-  <si>
-    <t>https://www.radiojapan.org</t>
-  </si>
-  <si>
-    <t>jp</t>
-  </si>
-  <si>
-    <t>japan</t>
-  </si>
-  <si>
-    <t>https://www.radio-philippines.com</t>
-  </si>
-  <si>
-    <t>ph</t>
-  </si>
-  <si>
-    <t>philippines</t>
-  </si>
-  <si>
-    <t>https://www.radio-singapore.com</t>
-  </si>
-  <si>
-    <t>sg</t>
-  </si>
-  <si>
-    <t>singapore</t>
-  </si>
-  <si>
-    <t>https://www.radio-thai.com</t>
-  </si>
-  <si>
-    <t>th</t>
-  </si>
-  <si>
-    <t>thailand</t>
-  </si>
-  <si>
-    <t>https://www.radio-korea.com</t>
-  </si>
-  <si>
-    <t>kr</t>
-  </si>
-  <si>
-    <t>south korea</t>
-  </si>
-  <si>
-    <t>https://www.radiotaiwan.tw</t>
-  </si>
-  <si>
-    <t>tw</t>
-  </si>
-  <si>
-    <t>taiwan</t>
-  </si>
-  <si>
-    <t>https://www.radiomalaysia.org</t>
-  </si>
-  <si>
-    <t>my</t>
-  </si>
-  <si>
-    <t>malaysia</t>
-  </si>
-  <si>
     <t>https://www.radio-south-africa.co.za</t>
   </si>
   <si>
@@ -777,275 +1038,14 @@
     <t>south africa</t>
   </si>
   <si>
-    <t>https://www.radio-maroc.org</t>
-  </si>
-  <si>
-    <t>ma</t>
-  </si>
-  <si>
-    <t>morocco</t>
-  </si>
-  <si>
-    <t>https://www.radio-senegal.com</t>
-  </si>
-  <si>
-    <t>sn</t>
-  </si>
-  <si>
-    <t>senegal</t>
-  </si>
-  <si>
-    <t>https://www.radio-ghana.org</t>
-  </si>
-  <si>
-    <t>gh</t>
-  </si>
-  <si>
-    <t>ghana</t>
-  </si>
-  <si>
-    <t>https://www.radio-kenya.com</t>
-  </si>
-  <si>
-    <t>ke</t>
-  </si>
-  <si>
-    <t>kenya</t>
-  </si>
-  <si>
-    <t>https://www.radio-nigeria.com</t>
-  </si>
-  <si>
-    <t>ng</t>
-  </si>
-  <si>
-    <t>Nigeria</t>
-  </si>
-  <si>
-    <t>https://www.radio-israel.org</t>
-  </si>
-  <si>
-    <t>il</t>
-  </si>
-  <si>
-    <t>Israel</t>
-  </si>
-  <si>
-    <t>https://www.radioarabic.org</t>
-  </si>
-  <si>
-    <t>ab</t>
-  </si>
-  <si>
-    <t>Arabic</t>
-  </si>
-  <si>
-    <t>https://www.radioarabic.org,ab,Arabic,31</t>
-  </si>
-  <si>
-    <t>https://www.radios-argentinas.org,ar,argentina,30</t>
-  </si>
-  <si>
-    <t>https://www.radio-osterreich.at,at,österreich,6</t>
-  </si>
-  <si>
-    <t>https://www.radio-australia.org,au,australia,16</t>
-  </si>
-  <si>
-    <t>https://www.radio-belgie.be,be,belgie,13</t>
-  </si>
-  <si>
-    <t>https://www.onlineradio-bg.com,bg,bulgaria,3</t>
-  </si>
-  <si>
-    <t>https://www.radios-bolivia.com,bo,bolivia,6</t>
-  </si>
-  <si>
-    <t>https://www.radio-ao-vivo.com,br,brasil,99</t>
-  </si>
-  <si>
-    <t>https://www.canadaradiostations.com,ca,canada,35</t>
-  </si>
-  <si>
-    <t>https://www.internetradio-schweiz.ch,ch,schweiz,10</t>
-  </si>
-  <si>
-    <t>https://www.radios-chilenas.com,cl,chile,27</t>
-  </si>
-  <si>
-    <t>https://www.emisorascolombianas.co,co,colombia,37</t>
-  </si>
-  <si>
-    <t>https://www.radioscostarica.org,cr,costa rica,6</t>
-  </si>
-  <si>
-    <t>https://www.radiaonline.org,cz,czech,4</t>
-  </si>
-  <si>
-    <t>https://www.internetradio-horen.de,de,deutschland,59</t>
-  </si>
-  <si>
-    <t>https://www.radio-danmark.dk,dk,danmark,5</t>
-  </si>
-  <si>
-    <t>https://www.radio-dominicana.com,do,domican republic,13</t>
-  </si>
-  <si>
-    <t>https://www.radio-ecuador.org,ec,ecuador,17</t>
-  </si>
-  <si>
-    <t>https://www.radio-espana.es,es,españa,44</t>
-  </si>
-  <si>
-    <t>https://www.radio-suomi.com,fi,finland,3</t>
-  </si>
-  <si>
-    <t>https://www.radio-en-ligne.fr,fr,france,62</t>
-  </si>
-  <si>
-    <t>https://www.radio-uk.co.uk,gb,uk,61</t>
-  </si>
-  <si>
-    <t>https://www.radio-ghana.org,gh,ghana,9</t>
-  </si>
-  <si>
-    <t>https://www.greek-radio.org,gr,greece,19</t>
-  </si>
-  <si>
-    <t>https://www.radios-guatemala.com,gt,guatemala,18</t>
-  </si>
-  <si>
-    <t>https://www.radio-hk.com,hk,hk,1</t>
-  </si>
-  <si>
-    <t>https://www.emisoras-de-honduras.com,hn,honduras,6</t>
-  </si>
-  <si>
-    <t>https://www.radio-hrvatska.com,hr,croatia,4</t>
-  </si>
-  <si>
-    <t>https://www.onlineradiok.org,hu,magyarorszag,8</t>
-  </si>
-  <si>
-    <t>https://www.radioindonesia.org,id,indonesia,11</t>
-  </si>
-  <si>
-    <t>https://www.radio-ireland.com,ie,ireland,5</t>
-  </si>
-  <si>
-    <t>https://www.radio-israel.org,il,Israel,4</t>
-  </si>
-  <si>
-    <t>https://www.radioindia.in,in,india,17</t>
-  </si>
-  <si>
-    <t>https://www.radio-italiane.it,it,italia,40</t>
-  </si>
-  <si>
-    <t>https://www.radio-jamaica.com,jm,jamaica,2</t>
-  </si>
-  <si>
-    <t>https://www.radiojapan.org,jp,japan,6</t>
-  </si>
-  <si>
-    <t>https://www.radio-kenya.com,ke,kenya,3</t>
-  </si>
-  <si>
-    <t>https://www.radio-korea.com,kr,south korea,3</t>
-  </si>
-  <si>
-    <t>https://www.radio-maroc.org,ma,morocco,2</t>
-  </si>
-  <si>
-    <t>https://www.radio-en-vivo.mx,mx,mexico,40</t>
-  </si>
-  <si>
-    <t>https://www.radiomalaysia.org,my,malaysia,2</t>
-  </si>
-  <si>
-    <t>https://www.radio-nigeria.com,ng,Nigeria,6</t>
-  </si>
-  <si>
-    <t>https://www.radiosdenicaragua.org,ni,nicaragua,4</t>
-  </si>
-  <si>
-    <t>https://www.radio-nederland.nl,nl,nederland,28</t>
-  </si>
-  <si>
-    <t>https://www.radio-norge.org,no,norge,4</t>
-  </si>
-  <si>
-    <t>https://www.radio-stations.co.nz,nz,new zealand,5</t>
-  </si>
-  <si>
-    <t>https://www.radiosdelperu.com.pe,pe,peru,23</t>
-  </si>
-  <si>
-    <t>https://www.radio-philippines.com,ph,philippines,18</t>
-  </si>
-  <si>
-    <t>https://www.radio-polska.pl,pl,polska,12</t>
-  </si>
-  <si>
-    <t>https://www.emisoras-puertorico.com,pr,puerto rico,4</t>
-  </si>
-  <si>
-    <t>https://www.radios-online.pt,pt,portugal,10</t>
-  </si>
-  <si>
-    <t>https://www.radio-romania.com,ro,romania,11</t>
-  </si>
-  <si>
-    <t>https://www.radiosrbija.org,rs,srbija,5</t>
-  </si>
-  <si>
-    <t>https://www.radio-sveriges.se,se,sverige,6</t>
-  </si>
-  <si>
-    <t>https://www.radio-singapore.com,sg,singapore,2</t>
-  </si>
-  <si>
-    <t>https://www.radijskepostaje.com,si,slovenija,2</t>
-  </si>
-  <si>
-    <t>https://www.radio-senegal.com,sn,senegal,2</t>
-  </si>
-  <si>
-    <t>https://www.radioselsalvador.org,sv,salvador,6</t>
-  </si>
-  <si>
-    <t>https://www.radio-thai.com,th,thailand,7</t>
-  </si>
-  <si>
-    <t>https://www.canli-radyo-dinle.com,tr,turkey,17</t>
-  </si>
-  <si>
-    <t>https://www.radio-trinidad.com,tt,trinidad,2</t>
-  </si>
-  <si>
-    <t>https://www.radiotaiwan.tw,tw,taiwan,3</t>
-  </si>
-  <si>
-    <t>https://www.radio-ua.com,ua,ukraine,5</t>
-  </si>
-  <si>
     <t>https://www.fmradiofree.com,us,us,356</t>
-  </si>
-  <si>
-    <t>https://www.radios-uruguay.com,uy,uruguay,7</t>
-  </si>
-  <si>
-    <t>https://www.radios-venezuela.com,ve,venezuela,12</t>
-  </si>
-  <si>
-    <t>https://www.radio-south-africa.co.za,za,south africa,11</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1106,10 +1106,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1429,13 +1425,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{313B95B2-875D-4F85-9AAB-6AE2CC36F57D}">
-  <dimension ref="C1:AD72"/>
+  <dimension ref="C1:AD70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O34" workbookViewId="0">
-      <selection activeCell="Z47" sqref="Z47"/>
+    <sheetView tabSelected="1" topLeftCell="V30" workbookViewId="0">
+      <selection activeCell="AA70" sqref="AA70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
     <col min="3" max="3" width="22.28515625" customWidth="1"/>
     <col min="4" max="4" width="3.5703125" style="1" customWidth="1"/>
@@ -1458,7 +1454,7 @@
     <col min="26" max="26" width="56" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="1" spans="3:30">
       <c r="D1"/>
       <c r="F1"/>
       <c r="X1">
@@ -1466,14 +1462,14 @@
         <v>81300</v>
       </c>
     </row>
-    <row r="2" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:30">
       <c r="D2"/>
       <c r="E2" s="1" t="str">
         <f>SUBSTITUTE(C2," ","")</f>
         <v/>
       </c>
       <c r="F2" s="1" t="s">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="G2" t="e">
         <f>+MID($E2,9,+FIND("class",$E2,1)-10)</f>
@@ -1519,19 +1515,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:30">
       <c r="C3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="E3" s="1" t="str">
         <f>SUBSTITUTE(C3," ","")</f>
         <v>&lt;ahref="https://www.radio-osterreich.at"class="mdc-typography--caption"&gt;&lt;imgclass="website-links"src="https://cdn.mytuner.mobi/static/ctr/images/country/at.png"data-src="https://cdn.mytuner.mobi/static/ctr/images/country/at.png"alt="InternetradioÖsterreich"title="radioösterreichwebsite"width="64"height="64"&gt;&lt;/a&gt;</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="G3" t="str">
         <f>+MID($E3,9,+FIND("class",$E3,1)-10)</f>
@@ -1574,19 +1570,19 @@
         <v>6</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>264</v>
+        <v>2</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>265</v>
+        <v>3</v>
       </c>
       <c r="W3" s="2" t="s">
-        <v>266</v>
+        <v>4</v>
       </c>
       <c r="X3" s="2">
         <v>31</v>
       </c>
       <c r="Z3" t="s">
-        <v>267</v>
+        <v>5</v>
       </c>
       <c r="AA3">
         <v>1805</v>
@@ -1604,19 +1600,19 @@
         <v>4.9999999999999289</v>
       </c>
     </row>
-    <row r="4" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:30">
       <c r="C4" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="E4" s="1" t="str">
         <f t="shared" ref="E4:E67" si="0">SUBSTITUTE(C4," ","")</f>
         <v>&lt;ahref="https://www.radio-belgie.be"class="mdc-typography--caption"&gt;&lt;imgclass="website-links"src="https://cdn.mytuner.mobi/static/ctr/images/country/be.png"data-src="https://cdn.mytuner.mobi/static/ctr/images/country/be.png"alt="RadioBelgië"title="radiobelgiewebsite"width="64"height="64"&gt;&lt;/a&gt;</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="G4" t="str">
         <f t="shared" ref="G4:G67" si="1">+MID($E4,9,+FIND("class",$E4,1)-10)</f>
@@ -1659,19 +1655,19 @@
         <v>13</v>
       </c>
       <c r="U4" s="2" t="s">
-        <v>166</v>
+        <v>7</v>
       </c>
       <c r="V4" s="2" t="s">
-        <v>167</v>
+        <v>8</v>
       </c>
       <c r="W4" s="2" t="s">
-        <v>168</v>
+        <v>9</v>
       </c>
       <c r="X4" s="2">
         <v>30</v>
       </c>
       <c r="Z4" t="s">
-        <v>268</v>
+        <v>10</v>
       </c>
       <c r="AA4">
         <v>3548</v>
@@ -1689,19 +1685,19 @@
         <v>3.0000000000000426</v>
       </c>
     </row>
-    <row r="5" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:30">
       <c r="C5" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="E5" s="1" t="str">
         <f t="shared" si="0"/>
         <v>&lt;ahref="https://www.radio-danmark.dk"class="mdc-typography--caption"&gt;&lt;imgclass="website-links"src="https://cdn.mytuner.mobi/static/ctr/images/country/dk.png"data-src="https://cdn.mytuner.mobi/static/ctr/images/country/dk.png"alt="NetradioDanmark"title="radiodanmarkwebsite"width="64"height="64"&gt;&lt;/a&gt;</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="G5" t="str">
         <f t="shared" si="1"/>
@@ -1744,19 +1740,19 @@
         <v>5</v>
       </c>
       <c r="U5" s="2" t="s">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="V5" s="2" t="s">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="W5" s="2" t="s">
-        <v>71</v>
+        <v>14</v>
       </c>
       <c r="X5" s="2">
         <v>6</v>
       </c>
       <c r="Z5" t="s">
-        <v>269</v>
+        <v>15</v>
       </c>
       <c r="AA5">
         <v>3906</v>
@@ -1774,19 +1770,19 @@
         <v>58.000000000000007</v>
       </c>
     </row>
-    <row r="6" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:30">
       <c r="C6" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="E6" s="1" t="str">
         <f t="shared" si="0"/>
         <v>&lt;ahref="https://www.radio-suomi.com"class="mdc-typography--caption"&gt;&lt;imgclass="website-links"src="https://cdn.mytuner.mobi/static/ctr/images/country/fi.png"data-src="https://cdn.mytuner.mobi/static/ctr/images/country/fi.png"alt="NettiradioSuomi"title="radiofinlandwebsite"width="64"height="64"&gt;&lt;/a&gt;</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="G6" t="str">
         <f t="shared" si="1"/>
@@ -1829,19 +1825,19 @@
         <v>3</v>
       </c>
       <c r="U6" s="2" t="s">
-        <v>205</v>
+        <v>17</v>
       </c>
       <c r="V6" s="2" t="s">
-        <v>206</v>
+        <v>18</v>
       </c>
       <c r="W6" s="2" t="s">
-        <v>207</v>
+        <v>19</v>
       </c>
       <c r="X6" s="2">
         <v>16</v>
       </c>
       <c r="Z6" t="s">
-        <v>270</v>
+        <v>20</v>
       </c>
       <c r="AA6">
         <v>4826</v>
@@ -1859,19 +1855,19 @@
         <v>20.000000000000036</v>
       </c>
     </row>
-    <row r="7" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:30">
       <c r="C7" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="E7" s="1" t="str">
         <f t="shared" si="0"/>
         <v>&lt;ahref="https://www.radio-en-ligne.fr"class="mdc-typography--caption"&gt;&lt;imgclass="website-links"src="https://cdn.mytuner.mobi/static/ctr/images/country/fr.png"data-src="https://cdn.mytuner.mobi/static/ctr/images/country/fr.png"alt="RadioFrance"title="radiofrancewebsite"width="64"height="64"&gt;&lt;/a&gt;</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="G7" t="str">
         <f t="shared" si="1"/>
@@ -1914,19 +1910,19 @@
         <v>62</v>
       </c>
       <c r="U7" s="2" t="s">
-        <v>72</v>
+        <v>22</v>
       </c>
       <c r="V7" s="2" t="s">
-        <v>73</v>
+        <v>23</v>
       </c>
       <c r="W7" s="2" t="s">
-        <v>74</v>
+        <v>24</v>
       </c>
       <c r="X7" s="2">
         <v>13</v>
       </c>
       <c r="Z7" t="s">
-        <v>271</v>
+        <v>25</v>
       </c>
       <c r="AA7">
         <v>5587</v>
@@ -1944,19 +1940,19 @@
         <v>41.000000000000014</v>
       </c>
     </row>
-    <row r="8" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:30">
       <c r="C8" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="E8" s="1" t="str">
         <f t="shared" si="0"/>
         <v>&lt;ahref="https://www.internetradio-horen.de"class="mdc-typography--caption"&gt;&lt;imgclass="website-links"src="https://cdn.mytuner.mobi/static/ctr/images/country/de.png"data-src="https://cdn.mytuner.mobi/static/ctr/images/country/de.png"alt="InternetradioDeutschland"title="radiodeutschlandwebsite"width="64"height="64"&gt;&lt;/a&gt;</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="G8" t="str">
         <f t="shared" si="1"/>
@@ -1999,19 +1995,19 @@
         <v>59</v>
       </c>
       <c r="U8" s="2" t="s">
-        <v>126</v>
+        <v>27</v>
       </c>
       <c r="V8" s="2" t="s">
-        <v>127</v>
+        <v>28</v>
       </c>
       <c r="W8" s="2" t="s">
-        <v>128</v>
+        <v>29</v>
       </c>
       <c r="X8" s="2">
         <v>3</v>
       </c>
       <c r="Z8" t="s">
-        <v>272</v>
+        <v>30</v>
       </c>
       <c r="AA8">
         <v>5736</v>
@@ -2029,19 +2025,19 @@
         <v>29.000000000000004</v>
       </c>
     </row>
-    <row r="9" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:30">
       <c r="C9" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="E9" s="1" t="str">
         <f t="shared" si="0"/>
         <v>&lt;ahref="https://www.radio-italiane.it"class="mdc-typography--caption"&gt;&lt;imgclass="website-links"src="https://cdn.mytuner.mobi/static/ctr/images/country/it.png"data-src="https://cdn.mytuner.mobi/static/ctr/images/country/it.png"alt="RadioItalia"title="radioitaliawebsite"width="64"height="64"&gt;&lt;/a&gt;</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="G9" t="str">
         <f t="shared" si="1"/>
@@ -2084,19 +2080,19 @@
         <v>40</v>
       </c>
       <c r="U9" s="2" t="s">
-        <v>199</v>
+        <v>32</v>
       </c>
       <c r="V9" s="2" t="s">
-        <v>200</v>
+        <v>33</v>
       </c>
       <c r="W9" s="2" t="s">
-        <v>201</v>
+        <v>34</v>
       </c>
       <c r="X9" s="2">
         <v>6</v>
       </c>
       <c r="Z9" t="s">
-        <v>273</v>
+        <v>35</v>
       </c>
       <c r="AA9">
         <v>6082</v>
@@ -2114,19 +2110,19 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:30">
       <c r="C10" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="E10" s="1" t="str">
         <f t="shared" si="0"/>
         <v>&lt;ahref="https://www.radio-nederland.nl"class="mdc-typography--caption"&gt;&lt;imgclass="website-links"src="https://cdn.mytuner.mobi/static/ctr/images/country/nl.png"data-src="https://cdn.mytuner.mobi/static/ctr/images/country/nl.png"alt="RadioNederland"title="radionederlandwebsite"width="64"height="64"&gt;&lt;/a&gt;</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="G10" t="str">
         <f t="shared" si="1"/>
@@ -2169,19 +2165,19 @@
         <v>28</v>
       </c>
       <c r="U10" s="2" t="s">
-        <v>169</v>
+        <v>37</v>
       </c>
       <c r="V10" s="2" t="s">
-        <v>170</v>
+        <v>38</v>
       </c>
       <c r="W10" s="2" t="s">
-        <v>171</v>
+        <v>39</v>
       </c>
       <c r="X10" s="2">
         <v>99</v>
       </c>
       <c r="Z10" t="s">
-        <v>274</v>
+        <v>40</v>
       </c>
       <c r="AA10">
         <v>11985</v>
@@ -2199,19 +2195,19 @@
         <v>23.000000000000398</v>
       </c>
     </row>
-    <row r="11" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:30">
       <c r="C11" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="E11" s="1" t="str">
         <f t="shared" si="0"/>
         <v>&lt;ahref="https://www.radio-norge.org"class="mdc-typography--caption"&gt;&lt;imgclass="website-links"src="https://cdn.mytuner.mobi/static/ctr/images/country/no.png"data-src="https://cdn.mytuner.mobi/static/ctr/images/country/no.png"alt="NettradioNorge"title="radionorgewebsite"width="64"height="64"&gt;&lt;/a&gt;</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="G11" t="str">
         <f t="shared" si="1"/>
@@ -2254,19 +2250,19 @@
         <v>4</v>
       </c>
       <c r="U11" s="2" t="s">
-        <v>144</v>
+        <v>42</v>
       </c>
       <c r="V11" s="2" t="s">
-        <v>145</v>
+        <v>43</v>
       </c>
       <c r="W11" s="3" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="X11" s="2">
         <v>35</v>
       </c>
       <c r="Z11" t="s">
-        <v>275</v>
+        <v>45</v>
       </c>
       <c r="AA11">
         <v>14031</v>
@@ -2284,19 +2280,19 @@
         <v>6.0000000000000853</v>
       </c>
     </row>
-    <row r="12" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:30">
       <c r="C12" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="E12" s="1" t="str">
         <f t="shared" si="0"/>
         <v>&lt;ahref="https://www.radio-espana.es"class="mdc-typography--caption"&gt;&lt;imgclass="website-links"src="https://cdn.mytuner.mobi/static/ctr/images/country/es.png"data-src="https://cdn.mytuner.mobi/static/ctr/images/country/es.png"alt="RadioEspaña"title="radioespañawebsite"width="64"height="64"&gt;&lt;/a&gt;</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="G12" t="str">
         <f t="shared" si="1"/>
@@ -2339,19 +2335,19 @@
         <v>44</v>
       </c>
       <c r="U12" s="2" t="s">
-        <v>102</v>
+        <v>47</v>
       </c>
       <c r="V12" s="2" t="s">
-        <v>103</v>
+        <v>48</v>
       </c>
       <c r="W12" s="2" t="s">
-        <v>104</v>
+        <v>49</v>
       </c>
       <c r="X12" s="2">
         <v>10</v>
       </c>
       <c r="Z12" t="s">
-        <v>276</v>
+        <v>50</v>
       </c>
       <c r="AA12">
         <v>14576</v>
@@ -2369,19 +2365,19 @@
         <v>5.0000000000000355</v>
       </c>
     </row>
-    <row r="13" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:30">
       <c r="C13" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="E13" s="1" t="str">
         <f t="shared" si="0"/>
         <v>&lt;ahref="https://www.radio-sveriges.se"class="mdc-typography--caption"&gt;&lt;imgclass="website-links"src="https://cdn.mytuner.mobi/static/ctr/images/country/se.png"data-src="https://cdn.mytuner.mobi/static/ctr/images/country/se.png"alt="RadioSveriges"title="radiosverigewebsite"width="64"height="64"&gt;&lt;/a&gt;</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="G13" t="str">
         <f t="shared" si="1"/>
@@ -2424,19 +2420,19 @@
         <v>6</v>
       </c>
       <c r="U13" s="2" t="s">
-        <v>172</v>
+        <v>52</v>
       </c>
       <c r="V13" s="2" t="s">
-        <v>173</v>
+        <v>53</v>
       </c>
       <c r="W13" s="2" t="s">
-        <v>174</v>
+        <v>54</v>
       </c>
       <c r="X13" s="2">
         <v>27</v>
       </c>
       <c r="Z13" t="s">
-        <v>277</v>
+        <v>55</v>
       </c>
       <c r="AA13">
         <v>16153</v>
@@ -2454,19 +2450,19 @@
         <v>17.000000000000099</v>
       </c>
     </row>
-    <row r="14" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:30">
       <c r="C14" t="s">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="E14" s="1" t="str">
         <f t="shared" si="0"/>
         <v>&lt;ahref="https://www.internetradio-schweiz.ch"class="mdc-typography--caption"&gt;&lt;imgclass="website-links"src="https://cdn.mytuner.mobi/static/ctr/images/country/ch.png"data-src="https://cdn.mytuner.mobi/static/ctr/images/country/ch.png"alt="InternetradioSchweiz"title="radioschweizwebsite"width="64"height="64"&gt;&lt;/a&gt;</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="G14" t="str">
         <f t="shared" si="1"/>
@@ -2509,19 +2505,19 @@
         <v>10</v>
       </c>
       <c r="U14" s="2" t="s">
-        <v>175</v>
+        <v>57</v>
       </c>
       <c r="V14" s="2" t="s">
-        <v>176</v>
+        <v>58</v>
       </c>
       <c r="W14" s="2" t="s">
-        <v>177</v>
+        <v>59</v>
       </c>
       <c r="X14" s="2">
         <v>37</v>
       </c>
       <c r="Z14" t="s">
-        <v>278</v>
+        <v>60</v>
       </c>
       <c r="AA14">
         <v>18341</v>
@@ -2539,19 +2535,19 @@
         <v>28.000000000000114</v>
       </c>
     </row>
-    <row r="15" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:30">
       <c r="C15" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="E15" s="1" t="str">
         <f t="shared" si="0"/>
         <v>&lt;ahref="https://www.radio-uk.co.uk"class="mdc-typography--caption"&gt;&lt;imgclass="website-links"src="https://cdn.mytuner.mobi/static/ctr/images/country/gb.png"data-src="https://cdn.mytuner.mobi/static/ctr/images/country/gb.png"alt="RadioUK"title="radioukwebsite"width="64"height="64"&gt;&lt;/a&gt;</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="G15" t="str">
         <f t="shared" si="1"/>
@@ -2594,19 +2590,19 @@
         <v>61</v>
       </c>
       <c r="U15" s="2" t="s">
-        <v>202</v>
+        <v>62</v>
       </c>
       <c r="V15" s="2" t="s">
-        <v>203</v>
+        <v>63</v>
       </c>
       <c r="W15" s="2" t="s">
-        <v>204</v>
+        <v>64</v>
       </c>
       <c r="X15" s="2">
         <v>6</v>
       </c>
       <c r="Z15" t="s">
-        <v>279</v>
+        <v>65</v>
       </c>
       <c r="AA15">
         <v>18681</v>
@@ -2624,19 +2620,19 @@
         <v>40.000000000000014</v>
       </c>
     </row>
-    <row r="16" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:30">
       <c r="C16" t="s">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="E16" s="1" t="str">
         <f t="shared" si="0"/>
         <v>&lt;ahref="https://www.radio-polska.pl/"class="mdc-typography--caption"&gt;&lt;imgclass="website-links"src="https://cdn.mytuner.mobi/static/ctr/images/country/pl.png"data-src="https://cdn.mytuner.mobi/static/ctr/images/country/pl.png"alt="RadioPolska"title="radiopolskawebsite"width="64"height="64"&gt;&lt;/a&gt;</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="G16" t="str">
         <f t="shared" si="1"/>
@@ -2679,19 +2675,19 @@
         <v>12</v>
       </c>
       <c r="U16" s="2" t="s">
-        <v>129</v>
+        <v>67</v>
       </c>
       <c r="V16" s="2" t="s">
-        <v>130</v>
+        <v>68</v>
       </c>
       <c r="W16" s="2" t="s">
-        <v>131</v>
+        <v>69</v>
       </c>
       <c r="X16" s="2">
         <v>4</v>
       </c>
       <c r="Z16" t="s">
-        <v>280</v>
+        <v>70</v>
       </c>
       <c r="AA16">
         <v>18881</v>
@@ -2709,19 +2705,19 @@
         <v>20.000000000000007</v>
       </c>
     </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:30">
       <c r="C17" t="s">
-        <v>14</v>
+        <v>71</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="E17" s="1" t="str">
         <f t="shared" si="0"/>
         <v>&lt;ahref="https://www.radios-online.pt/"class="mdc-typography--caption"&gt;&lt;imgclass="website-links"src="https://cdn.mytuner.mobi/static/ctr/images/country/pt.png"data-src="https://cdn.mytuner.mobi/static/ctr/images/country/pt.png"alt="RadioPortugal"title="radioportugalwebsite"width="64"height="64"&gt;&lt;/a&gt;</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="G17" t="str">
         <f t="shared" si="1"/>
@@ -2764,19 +2760,19 @@
         <v>10</v>
       </c>
       <c r="U17" s="2" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="V17" s="2" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="W17" s="2" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="X17" s="2">
         <v>59</v>
       </c>
       <c r="Z17" t="s">
-        <v>281</v>
+        <v>75</v>
       </c>
       <c r="AA17">
         <v>22390</v>
@@ -2794,19 +2790,19 @@
         <v>29.000000000000057</v>
       </c>
     </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:30">
       <c r="C18" t="s">
-        <v>15</v>
+        <v>76</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="E18" s="1" t="str">
         <f t="shared" si="0"/>
         <v>&lt;ahref="https://www.radio-hrvatska.com"class="mdc-typography--caption"&gt;&lt;imgclass="website-links"src="https://cdn.mytuner.mobi/static/ctr/images/country/hr.png"data-src="https://cdn.mytuner.mobi/static/ctr/images/country/hr.png"alt="RadioCroatia"title="radiocroatiawebsite"width="64"height="64"&gt;&lt;/a&gt;</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="G18" t="str">
         <f t="shared" si="1"/>
@@ -2849,19 +2845,19 @@
         <v>4</v>
       </c>
       <c r="U18" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="V18" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="W18" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="X18" s="2">
         <v>5</v>
       </c>
       <c r="Z18" t="s">
-        <v>282</v>
+        <v>80</v>
       </c>
       <c r="AA18">
         <v>22633</v>
@@ -2879,19 +2875,19 @@
         <v>2.9999999999999893</v>
       </c>
     </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:30">
       <c r="C19" t="s">
-        <v>16</v>
+        <v>81</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="E19" s="1" t="str">
         <f t="shared" si="0"/>
         <v>&lt;ahref="https://www.radio-ua.com"class="mdc-typography--caption"&gt;&lt;imgclass="website-links"src="https://cdn.mytuner.mobi/static/ctr/images/country/ua.png"data-src="https://cdn.mytuner.mobi/static/ctr/images/country/ua.png"alt="RadioUkraine"title="radioukrainewebsite"width="64"height="64"&gt;&lt;/a&gt;</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="G19" t="str">
         <f t="shared" si="1"/>
@@ -2934,19 +2930,19 @@
         <v>5</v>
       </c>
       <c r="U19" s="2" t="s">
-        <v>196</v>
+        <v>82</v>
       </c>
       <c r="V19" s="2" t="s">
-        <v>197</v>
+        <v>83</v>
       </c>
       <c r="W19" s="2" t="s">
-        <v>198</v>
+        <v>84</v>
       </c>
       <c r="X19" s="2">
         <v>13</v>
       </c>
       <c r="Z19" t="s">
-        <v>283</v>
+        <v>85</v>
       </c>
       <c r="AA19">
         <v>23395</v>
@@ -2964,19 +2960,19 @@
         <v>41.999999999999957</v>
       </c>
     </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:30">
       <c r="C20" t="s">
-        <v>17</v>
+        <v>86</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="E20" s="1" t="str">
         <f t="shared" si="0"/>
         <v>&lt;ahref="https://www.radio-romania.com"class="mdc-typography--caption"&gt;&lt;imgclass="website-links"src="https://cdn.mytuner.mobi/static/ctr/images/country/ro.png"data-src="https://cdn.mytuner.mobi/static/ctr/images/country/ro.png"alt="RadioRomânia"title="radioromaniawebsite"width="64"height="64"&gt;&lt;/a&gt;</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="G20" t="str">
         <f t="shared" si="1"/>
@@ -3019,19 +3015,19 @@
         <v>11</v>
       </c>
       <c r="U20" s="2" t="s">
-        <v>181</v>
+        <v>87</v>
       </c>
       <c r="V20" s="2" t="s">
-        <v>182</v>
+        <v>88</v>
       </c>
       <c r="W20" s="2" t="s">
-        <v>183</v>
+        <v>89</v>
       </c>
       <c r="X20" s="2">
         <v>17</v>
       </c>
       <c r="Z20" t="s">
-        <v>284</v>
+        <v>90</v>
       </c>
       <c r="AA20">
         <v>24381</v>
@@ -3049,19 +3045,19 @@
         <v>26.000000000000014</v>
       </c>
     </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:30">
       <c r="C21" t="s">
-        <v>18</v>
+        <v>91</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="E21" s="1" t="str">
         <f t="shared" si="0"/>
         <v>&lt;ahref="https://www.radio-ireland.com"class="mdc-typography--caption"&gt;&lt;imgclass="website-links"src="https://cdn.mytuner.mobi/static/ctr/images/country/ie.png"data-src="https://cdn.mytuner.mobi/static/ctr/images/country/ie.png"alt="RadioIreland"title="radioirelandwebsite"width="64"height="64"&gt;&lt;/a&gt;</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="G21" t="str">
         <f t="shared" si="1"/>
@@ -3104,19 +3100,19 @@
         <v>5</v>
       </c>
       <c r="U21" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="V21" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="W21" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="X21" s="2">
         <v>44</v>
       </c>
       <c r="Z21" t="s">
-        <v>285</v>
+        <v>95</v>
       </c>
       <c r="AA21">
         <v>26974</v>
@@ -3134,19 +3130,19 @@
         <v>13.000000000000114</v>
       </c>
     </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:30">
       <c r="C22" t="s">
-        <v>19</v>
+        <v>96</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="E22" s="1" t="str">
         <f t="shared" si="0"/>
         <v>&lt;ahref="https://www.onlineradio-bg.com"class="mdc-typography--caption"&gt;&lt;imgclass="website-links"src="https://cdn.mytuner.mobi/static/ctr/images/country/bg.png"data-src="https://cdn.mytuner.mobi/static/ctr/images/country/bg.png"alt="RadioBulgaria"title="radiobulgariawebsite"width="64"height="64"&gt;&lt;/a&gt;</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="G22" t="str">
         <f t="shared" si="1"/>
@@ -3189,19 +3185,19 @@
         <v>3</v>
       </c>
       <c r="U22" s="2" t="s">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="V22" s="2" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="W22" s="2" t="s">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="X22" s="2">
         <v>3</v>
       </c>
       <c r="Z22" t="s">
-        <v>286</v>
+        <v>100</v>
       </c>
       <c r="AA22">
         <v>27101</v>
@@ -3219,19 +3215,19 @@
         <v>7.0000000000000018</v>
       </c>
     </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:30">
       <c r="C23" t="s">
-        <v>20</v>
+        <v>101</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="E23" s="1" t="str">
         <f t="shared" si="0"/>
         <v>&lt;ahref="https://www.radiaonline.org"class="mdc-typography--caption"&gt;&lt;imgclass="website-links"src="https://cdn.mytuner.mobi/static/ctr/images/country/cz.png"data-src="https://cdn.mytuner.mobi/static/ctr/images/country/cz.png"alt="RadioCzech"title="radioczechwebsite"width="64"height="64"&gt;&lt;/a&gt;</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="G23" t="str">
         <f t="shared" si="1"/>
@@ -3274,19 +3270,19 @@
         <v>4</v>
       </c>
       <c r="U23" s="2" t="s">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="V23" s="2" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="W23" s="2" t="s">
-        <v>83</v>
+        <v>104</v>
       </c>
       <c r="X23" s="2">
         <v>62</v>
       </c>
       <c r="Z23" t="s">
-        <v>287</v>
+        <v>105</v>
       </c>
       <c r="AA23">
         <v>30772</v>
@@ -3304,19 +3300,19 @@
         <v>10.999999999999801</v>
       </c>
     </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:30">
       <c r="C24" t="s">
-        <v>21</v>
+        <v>106</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="E24" s="1" t="str">
         <f t="shared" si="0"/>
         <v>&lt;ahref="https://www.radiosrbija.org"class="mdc-typography--caption"&gt;&lt;imgclass="website-links"src="https://cdn.mytuner.mobi/static/ctr/images/country/rs.png"data-src="https://cdn.mytuner.mobi/static/ctr/images/country/rs.png"alt="RadioSrbija"title="radiosrbijawebsite"width="64"height="64"&gt;&lt;/a&gt;</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="G24" t="str">
         <f t="shared" si="1"/>
@@ -3359,19 +3355,19 @@
         <v>5</v>
       </c>
       <c r="U24" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="V24" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="W24" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="X24" s="2">
         <v>61</v>
       </c>
       <c r="Z24" t="s">
-        <v>288</v>
+        <v>110</v>
       </c>
       <c r="AA24">
         <v>34393</v>
@@ -3389,19 +3385,19 @@
         <v>21.000000000000085</v>
       </c>
     </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:30">
       <c r="C25" t="s">
-        <v>22</v>
+        <v>111</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="E25" s="1" t="str">
         <f t="shared" si="0"/>
         <v>&lt;ahref="https://www.onlineradiok.org"class="mdc-typography--caption"&gt;&lt;imgclass="website-links"src="https://cdn.mytuner.mobi/static/ctr/images/country/hu.png"data-src="https://cdn.mytuner.mobi/static/ctr/images/country/hu.png"alt="RadioMagyarország"title="radiomagyarorszagwebsite"width="64"height="64"&gt;&lt;/a&gt;</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="G25" t="str">
         <f t="shared" si="1"/>
@@ -3444,19 +3440,19 @@
         <v>8</v>
       </c>
       <c r="U25" s="2" t="s">
-        <v>252</v>
+        <v>112</v>
       </c>
       <c r="V25" s="2" t="s">
-        <v>253</v>
+        <v>113</v>
       </c>
       <c r="W25" s="2" t="s">
-        <v>254</v>
+        <v>114</v>
       </c>
       <c r="X25" s="2">
         <v>9</v>
       </c>
       <c r="Z25" t="s">
-        <v>289</v>
+        <v>115</v>
       </c>
       <c r="AA25">
         <v>34926</v>
@@ -3474,19 +3470,19 @@
         <v>52.999999999999972</v>
       </c>
     </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:30">
       <c r="C26" t="s">
-        <v>23</v>
+        <v>116</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="E26" s="1" t="str">
         <f t="shared" si="0"/>
         <v>&lt;ahref="https://www.radijskepostaje.com"class="mdc-typography--caption"&gt;&lt;imgclass="website-links"src="https://cdn.mytuner.mobi/static/ctr/images/country/si.png"data-src="https://cdn.mytuner.mobi/static/ctr/images/country/si.png"alt="RadioSlovenija"title="radioslovenijawebsite"width="64"height="64"&gt;&lt;/a&gt;</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="G26" t="str">
         <f t="shared" si="1"/>
@@ -3529,19 +3525,19 @@
         <v>2</v>
       </c>
       <c r="U26" s="2" t="s">
-        <v>141</v>
+        <v>117</v>
       </c>
       <c r="V26" s="2" t="s">
-        <v>142</v>
+        <v>118</v>
       </c>
       <c r="W26" s="2" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="X26" s="2">
         <v>19</v>
       </c>
       <c r="Z26" t="s">
-        <v>290</v>
+        <v>120</v>
       </c>
       <c r="AA26">
         <v>36024</v>
@@ -3559,19 +3555,19 @@
         <v>18.000000000000043</v>
       </c>
     </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:30">
       <c r="C27" t="s">
-        <v>24</v>
+        <v>121</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="E27" s="1" t="str">
         <f t="shared" si="0"/>
         <v>&lt;ahref="https://www.greek-radio.org"class="mdc-typography--caption"&gt;&lt;imgclass="website-links"src="https://cdn.mytuner.mobi/static/ctr/images/country/gr.png"data-src="https://cdn.mytuner.mobi/static/ctr/images/country/gr.png"alt="RadioGreece"title="radiogreecewebsite"width="64"height="64"&gt;&lt;/a&gt;</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="G27" t="str">
         <f t="shared" si="1"/>
@@ -3614,19 +3610,19 @@
         <v>19</v>
       </c>
       <c r="U27" s="2" t="s">
-        <v>187</v>
+        <v>122</v>
       </c>
       <c r="V27" s="2" t="s">
-        <v>188</v>
+        <v>123</v>
       </c>
       <c r="W27" s="2" t="s">
-        <v>189</v>
+        <v>124</v>
       </c>
       <c r="X27" s="2">
         <v>18</v>
       </c>
       <c r="Z27" t="s">
-        <v>291</v>
+        <v>125</v>
       </c>
       <c r="AA27">
         <v>37074</v>
@@ -3644,19 +3640,19 @@
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:30">
       <c r="C28" t="s">
-        <v>25</v>
+        <v>126</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="E28" s="1" t="str">
         <f t="shared" si="0"/>
         <v>&lt;ahref="https://www.canadaradiostations.com"class="mdc-typography--caption"&gt;&lt;imgclass="website-links"src="https://cdn.mytuner.mobi/static/ctr/images/country/ca.png"data-src="https://cdn.mytuner.mobi/static/ctr/images/country/ca.png"alt="CanadaRadioStations"title="canadaradiostationswebsite"width="64"height="64"&gt;&lt;/a&gt;</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="G28" t="str">
         <f t="shared" si="1"/>
@@ -3692,25 +3688,25 @@
       </c>
       <c r="P28" s="2"/>
       <c r="Q28" s="3" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="R28" s="2">
         <v>35</v>
       </c>
       <c r="U28" s="2" t="s">
-        <v>217</v>
+        <v>127</v>
       </c>
       <c r="V28" s="2" t="s">
-        <v>218</v>
+        <v>128</v>
       </c>
       <c r="W28" s="2" t="s">
-        <v>218</v>
+        <v>128</v>
       </c>
       <c r="X28" s="2">
         <v>1</v>
       </c>
       <c r="Z28" t="s">
-        <v>292</v>
+        <v>129</v>
       </c>
       <c r="AA28">
         <v>37114</v>
@@ -3728,19 +3724,19 @@
         <v>40</v>
       </c>
     </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:30">
       <c r="C29" t="s">
-        <v>26</v>
+        <v>130</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="E29" s="1" t="str">
         <f t="shared" si="0"/>
         <v>&lt;ahref="https://www.radio-en-vivo.mx"class="mdc-typography--caption"&gt;&lt;imgclass="website-links"src="https://cdn.mytuner.mobi/static/ctr/images/country/mx.png"data-src="https://cdn.mytuner.mobi/static/ctr/images/country/mx.png"alt="RadioenVivoMéxico"title="radiomexicowebsite"width="64"height="64"&gt;&lt;/a&gt;</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="G29" t="str">
         <f t="shared" si="1"/>
@@ -3783,19 +3779,19 @@
         <v>40</v>
       </c>
       <c r="U29" s="2" t="s">
-        <v>163</v>
+        <v>131</v>
       </c>
       <c r="V29" s="2" t="s">
-        <v>164</v>
+        <v>132</v>
       </c>
       <c r="W29" s="2" t="s">
-        <v>165</v>
+        <v>133</v>
       </c>
       <c r="X29" s="2">
         <v>6</v>
       </c>
       <c r="Z29" t="s">
-        <v>293</v>
+        <v>134</v>
       </c>
       <c r="AA29">
         <v>37429</v>
@@ -3813,19 +3809,19 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:30">
       <c r="C30" t="s">
-        <v>27</v>
+        <v>135</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="E30" s="1" t="str">
         <f t="shared" si="0"/>
         <v>&lt;ahref="https://www.fmradiofree.com"class="mdc-typography--caption"&gt;&lt;imgclass="website-links"src="https://cdn.mytuner.mobi/static/ctr/images/country/us.png"data-src="https://cdn.mytuner.mobi/static/ctr/images/country/us.png"alt="RadioUS"title="radiouswebsite"width="64"height="64"&gt;&lt;/a&gt;</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="G30" t="str">
         <f t="shared" si="1"/>
@@ -3868,19 +3864,19 @@
         <v>357</v>
       </c>
       <c r="U30" s="2" t="s">
-        <v>114</v>
+        <v>136</v>
       </c>
       <c r="V30" s="2" t="s">
-        <v>115</v>
+        <v>137</v>
       </c>
       <c r="W30" s="2" t="s">
-        <v>116</v>
+        <v>138</v>
       </c>
       <c r="X30" s="2">
         <v>4</v>
       </c>
       <c r="Z30" t="s">
-        <v>294</v>
+        <v>139</v>
       </c>
       <c r="AA30">
         <v>37662</v>
@@ -3898,19 +3894,19 @@
         <v>53</v>
       </c>
     </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:30">
       <c r="C31" t="s">
-        <v>28</v>
+        <v>140</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="E31" s="1" t="str">
         <f t="shared" si="0"/>
         <v>&lt;ahref="https://www.radio-trinidad.com"class="mdc-typography--caption"&gt;&lt;imgclass="website-links"src="https://cdn.mytuner.mobi/static/ctr/images/country/tt.png"data-src="https://cdn.mytuner.mobi/static/ctr/images/country/tt.png"alt="RadioTrinidadyTobago"title="radiotrinidadwebsite"width="64"height="64"&gt;&lt;/a&gt;</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="G31" t="str">
         <f t="shared" si="1"/>
@@ -3953,19 +3949,19 @@
         <v>2</v>
       </c>
       <c r="U31" s="2" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="V31" s="2" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="W31" s="2" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="X31" s="2">
         <v>8</v>
       </c>
       <c r="Z31" t="s">
-        <v>295</v>
+        <v>144</v>
       </c>
       <c r="AA31">
         <v>38091</v>
@@ -3983,19 +3979,19 @@
         <v>9.0000000000000213</v>
       </c>
     </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:30">
       <c r="C32" t="s">
-        <v>29</v>
+        <v>145</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="E32" s="1" t="str">
         <f t="shared" si="0"/>
         <v>&lt;ahref="https://www.radio-jamaica.com"class="mdc-typography--caption"&gt;&lt;imgclass="website-links"src="https://cdn.mytuner.mobi/static/ctr/images/country/jm.png"data-src="https://cdn.mytuner.mobi/static/ctr/images/country/jm.png"alt="RadioJamaica"title="radiojamaicawebsite"width="64"height="64"&gt;&lt;/a&gt;</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="G32" t="str">
         <f t="shared" si="1"/>
@@ -4038,19 +4034,19 @@
         <v>2</v>
       </c>
       <c r="U32" s="2" t="s">
-        <v>219</v>
+        <v>146</v>
       </c>
       <c r="V32" s="2" t="s">
-        <v>220</v>
+        <v>147</v>
       </c>
       <c r="W32" s="2" t="s">
-        <v>221</v>
+        <v>148</v>
       </c>
       <c r="X32" s="2">
         <v>11</v>
       </c>
       <c r="Z32" t="s">
-        <v>296</v>
+        <v>149</v>
       </c>
       <c r="AA32">
         <v>38730</v>
@@ -4068,19 +4064,19 @@
         <v>39.000000000000021</v>
       </c>
     </row>
-    <row r="33" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:30">
       <c r="C33" t="s">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="E33" s="1" t="str">
         <f t="shared" si="0"/>
         <v>&lt;ahref="https://www.radiosdenicaragua.org"class="mdc-typography--caption"&gt;&lt;imgclass="website-links"src="https://cdn.mytuner.mobi/static/ctr/images/country/ni.png"data-src="https://cdn.mytuner.mobi/static/ctr/images/country/ni.png"alt="RadiosNicaragua"title="radionicaraguawebsite"width="64"height="64"&gt;&lt;/a&gt;</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="G33" t="str">
         <f t="shared" si="1"/>
@@ -4123,19 +4119,19 @@
         <v>4</v>
       </c>
       <c r="U33" s="2" t="s">
-        <v>123</v>
+        <v>151</v>
       </c>
       <c r="V33" s="2" t="s">
-        <v>124</v>
+        <v>152</v>
       </c>
       <c r="W33" s="2" t="s">
-        <v>125</v>
+        <v>153</v>
       </c>
       <c r="X33" s="2">
         <v>5</v>
       </c>
       <c r="Z33" t="s">
-        <v>297</v>
+        <v>154</v>
       </c>
       <c r="AA33">
         <v>39022</v>
@@ -4153,19 +4149,19 @@
         <v>51.999999999999972</v>
       </c>
     </row>
-    <row r="34" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:30">
       <c r="C34" t="s">
-        <v>31</v>
+        <v>155</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="E34" s="1" t="str">
         <f t="shared" si="0"/>
         <v>&lt;ahref="https://www.radioselsalvador.org"class="mdc-typography--caption"&gt;&lt;imgclass="website-links"src="https://cdn.mytuner.mobi/static/ctr/images/country/sv.png"data-src="https://cdn.mytuner.mobi/static/ctr/images/country/sv.png"alt="RadiosElSalvador"title="radiosalvadorwebsite"width="64"height="64"&gt;&lt;/a&gt;</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="G34" t="str">
         <f t="shared" si="1"/>
@@ -4208,19 +4204,19 @@
         <v>6</v>
       </c>
       <c r="U34" s="2" t="s">
-        <v>261</v>
+        <v>156</v>
       </c>
       <c r="V34" s="2" t="s">
-        <v>262</v>
+        <v>157</v>
       </c>
       <c r="W34" s="2" t="s">
-        <v>263</v>
+        <v>158</v>
       </c>
       <c r="X34" s="2">
         <v>4</v>
       </c>
       <c r="Z34" t="s">
-        <v>298</v>
+        <v>159</v>
       </c>
       <c r="AA34">
         <v>39254</v>
@@ -4238,19 +4234,19 @@
         <v>52</v>
       </c>
     </row>
-    <row r="35" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:30">
       <c r="C35" t="s">
-        <v>32</v>
+        <v>160</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="E35" s="1" t="str">
         <f t="shared" si="0"/>
         <v>&lt;ahref="https://www.emisoras-de-honduras.com"class="mdc-typography--caption"&gt;&lt;imgclass="website-links"src="https://cdn.mytuner.mobi/static/ctr/images/country/hn.png"data-src="https://cdn.mytuner.mobi/static/ctr/images/country/hn.png"alt="RadiosHonduras"title="radiohonduraswebsite"width="64"height="64"&gt;&lt;/a&gt;</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="G35" t="str">
         <f t="shared" si="1"/>
@@ -4293,19 +4289,19 @@
         <v>6</v>
       </c>
       <c r="U35" s="2" t="s">
-        <v>214</v>
+        <v>161</v>
       </c>
       <c r="V35" s="2" t="s">
-        <v>215</v>
+        <v>162</v>
       </c>
       <c r="W35" s="2" t="s">
-        <v>216</v>
+        <v>163</v>
       </c>
       <c r="X35" s="2">
         <v>17</v>
       </c>
       <c r="Z35" t="s">
-        <v>299</v>
+        <v>164</v>
       </c>
       <c r="AA35">
         <v>40244</v>
@@ -4323,19 +4319,19 @@
         <v>30</v>
       </c>
     </row>
-    <row r="36" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:30">
       <c r="C36" t="s">
-        <v>33</v>
+        <v>165</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="E36" s="1" t="str">
         <f t="shared" si="0"/>
         <v>&lt;ahref="https://www.radios-argentinas.org"class="mdc-typography--caption"&gt;&lt;imgclass="website-links"src="https://cdn.mytuner.mobi/static/ctr/images/country/ar.png"data-src="https://cdn.mytuner.mobi/static/ctr/images/country/ar.png"alt="RadiosArgentinas"title="radioargentinawebsite"width="64"height="64"&gt;&lt;/a&gt;</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="G36" t="str">
         <f t="shared" si="1"/>
@@ -4378,19 +4374,19 @@
         <v>30</v>
       </c>
       <c r="U36" s="2" t="s">
-        <v>87</v>
+        <v>166</v>
       </c>
       <c r="V36" s="2" t="s">
-        <v>88</v>
+        <v>167</v>
       </c>
       <c r="W36" s="2" t="s">
-        <v>89</v>
+        <v>168</v>
       </c>
       <c r="X36" s="2">
         <v>40</v>
       </c>
       <c r="Z36" t="s">
-        <v>300</v>
+        <v>169</v>
       </c>
       <c r="AA36">
         <v>42607</v>
@@ -4408,19 +4404,19 @@
         <v>22.999999999999972</v>
       </c>
     </row>
-    <row r="37" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:30">
       <c r="C37" t="s">
-        <v>34</v>
+        <v>170</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="E37" s="1" t="str">
         <f t="shared" si="0"/>
         <v>&lt;ahref="https://www.radio-ao-vivo.com/"class="mdc-typography--caption"&gt;&lt;imgclass="website-links"src="https://cdn.mytuner.mobi/static/ctr/images/country/br.png"data-src="https://cdn.mytuner.mobi/static/ctr/images/country/br.png"alt="RádioBrasil"title="radiobrasilwebsite"width="64"height="64"&gt;&lt;/a&gt;</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="G37" t="str">
         <f t="shared" si="1"/>
@@ -4463,19 +4459,19 @@
         <v>99</v>
       </c>
       <c r="U37" s="2" t="s">
-        <v>154</v>
+        <v>171</v>
       </c>
       <c r="V37" s="2" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
       <c r="W37" s="2" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
       <c r="X37" s="2">
         <v>2</v>
       </c>
       <c r="Z37" t="s">
-        <v>301</v>
+        <v>174</v>
       </c>
       <c r="AA37">
         <v>42670</v>
@@ -4493,19 +4489,19 @@
         <v>3.0000000000000027</v>
       </c>
     </row>
-    <row r="38" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:30">
       <c r="C38" t="s">
-        <v>35</v>
+        <v>175</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="E38" s="1" t="str">
         <f t="shared" si="0"/>
         <v>&lt;ahref="https://www.radios-chilenas.com"class="mdc-typography--caption"&gt;&lt;imgclass="website-links"src="https://cdn.mytuner.mobi/static/ctr/images/country/cl.png"data-src="https://cdn.mytuner.mobi/static/ctr/images/country/cl.png"alt="RadiosChile"title="radiochilewebsite"width="64"height="64"&gt;&lt;/a&gt;</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="G38" t="str">
         <f t="shared" si="1"/>
@@ -4548,19 +4544,19 @@
         <v>27</v>
       </c>
       <c r="U38" s="2" t="s">
-        <v>222</v>
+        <v>176</v>
       </c>
       <c r="V38" s="2" t="s">
-        <v>223</v>
+        <v>177</v>
       </c>
       <c r="W38" s="2" t="s">
-        <v>224</v>
+        <v>178</v>
       </c>
       <c r="X38" s="2">
         <v>6</v>
       </c>
       <c r="Z38" t="s">
-        <v>302</v>
+        <v>179</v>
       </c>
       <c r="AA38">
         <v>43012</v>
@@ -4578,19 +4574,19 @@
         <v>42.000000000000014</v>
       </c>
     </row>
-    <row r="39" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:30">
       <c r="C39" t="s">
-        <v>36</v>
+        <v>180</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="E39" s="1" t="str">
         <f t="shared" si="0"/>
         <v>&lt;ahref="https://www.emisorascolombianas.co"class="mdc-typography--caption"&gt;&lt;imgclass="website-links"src="https://cdn.mytuner.mobi/static/ctr/images/country/co.png"data-src="https://cdn.mytuner.mobi/static/ctr/images/country/co.png"alt="EmisorasColombianas"title="radiocolombiawebsite"width="64"height="64"&gt;&lt;/a&gt;</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="G39" t="str">
         <f t="shared" si="1"/>
@@ -4633,19 +4629,19 @@
         <v>37</v>
       </c>
       <c r="U39" s="2" t="s">
-        <v>255</v>
+        <v>181</v>
       </c>
       <c r="V39" s="2" t="s">
-        <v>256</v>
+        <v>182</v>
       </c>
       <c r="W39" s="2" t="s">
-        <v>257</v>
+        <v>183</v>
       </c>
       <c r="X39" s="2">
         <v>3</v>
       </c>
       <c r="Z39" t="s">
-        <v>303</v>
+        <v>184</v>
       </c>
       <c r="AA39">
         <v>43189</v>
@@ -4663,19 +4659,19 @@
         <v>57.000000000000014</v>
       </c>
     </row>
-    <row r="40" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:30">
       <c r="C40" t="s">
-        <v>37</v>
+        <v>185</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="E40" s="1" t="str">
         <f t="shared" si="0"/>
         <v>&lt;ahref="https://www.radiosdelperu.com.pe"class="mdc-typography--caption"&gt;&lt;imgclass="website-links"src="https://cdn.mytuner.mobi/static/ctr/images/country/pe.png"data-src="https://cdn.mytuner.mobi/static/ctr/images/country/pe.png"alt="RadiosPeru"title="radioperuwebsite"width="64"height="64"&gt;&lt;/a&gt;</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="G40" t="str">
         <f t="shared" si="1"/>
@@ -4716,19 +4712,19 @@
       </c>
       <c r="R40" s="2"/>
       <c r="U40" s="2" t="s">
-        <v>234</v>
+        <v>186</v>
       </c>
       <c r="V40" s="2" t="s">
-        <v>235</v>
+        <v>187</v>
       </c>
       <c r="W40" s="2" t="s">
-        <v>236</v>
+        <v>188</v>
       </c>
       <c r="X40" s="2">
         <v>3</v>
       </c>
       <c r="Z40" t="s">
-        <v>304</v>
+        <v>189</v>
       </c>
       <c r="AA40">
         <v>43345</v>
@@ -4746,19 +4742,19 @@
         <v>36.000000000000007</v>
       </c>
     </row>
-    <row r="41" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:30">
       <c r="C41" t="s">
-        <v>38</v>
+        <v>190</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="E41" s="1" t="str">
         <f t="shared" si="0"/>
         <v>&lt;ahref="https://www.radio-ecuador.org/"class="mdc-typography--caption"&gt;&lt;imgclass="website-links"src="https://cdn.mytuner.mobi/static/ctr/images/country/ec.png"data-src="https://cdn.mytuner.mobi/static/ctr/images/country/ec.png"alt="RadiosEcuador"title="radioecuadorwebsite"width="64"height="64"&gt;&lt;/a&gt;</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="G41" t="str">
         <f t="shared" si="1"/>
@@ -4799,19 +4795,19 @@
       </c>
       <c r="R41" s="2"/>
       <c r="U41" s="2" t="s">
-        <v>246</v>
+        <v>191</v>
       </c>
       <c r="V41" s="2" t="s">
-        <v>247</v>
+        <v>192</v>
       </c>
       <c r="W41" s="2" t="s">
-        <v>248</v>
+        <v>193</v>
       </c>
       <c r="X41" s="2">
         <v>2</v>
       </c>
       <c r="Z41" t="s">
-        <v>305</v>
+        <v>194</v>
       </c>
       <c r="AA41">
         <v>43443</v>
@@ -4829,19 +4825,19 @@
         <v>38</v>
       </c>
     </row>
-    <row r="42" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:30">
       <c r="C42" t="s">
-        <v>39</v>
+        <v>195</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="E42" s="1" t="str">
         <f t="shared" si="0"/>
         <v>&lt;ahref="https://www.radios-uruguay.com/"class="mdc-typography--caption"&gt;&lt;imgclass="website-links"src="https://cdn.mytuner.mobi/static/ctr/images/country/uy.png"data-src="https://cdn.mytuner.mobi/static/ctr/images/country/uy.png"alt="RadiosUruguay"title="radiouruguaywebsite"width="64"height="64"&gt;&lt;/a&gt;</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="G42" t="str">
         <f t="shared" si="1"/>
@@ -4882,19 +4878,19 @@
       </c>
       <c r="R42" s="2"/>
       <c r="U42" s="2" t="s">
-        <v>146</v>
+        <v>196</v>
       </c>
       <c r="V42" s="2" t="s">
-        <v>147</v>
+        <v>197</v>
       </c>
       <c r="W42" s="2" t="s">
-        <v>148</v>
+        <v>198</v>
       </c>
       <c r="X42" s="2">
         <v>40</v>
       </c>
       <c r="Z42" t="s">
-        <v>306</v>
+        <v>199</v>
       </c>
       <c r="AA42">
         <v>45801</v>
@@ -4912,19 +4908,19 @@
         <v>17.999999999999829</v>
       </c>
     </row>
-    <row r="43" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:30">
       <c r="C43" t="s">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="E43" s="1" t="str">
         <f t="shared" si="0"/>
         <v>&lt;ahref="https://www.radios-guatemala.com/"class="mdc-typography--caption"&gt;&lt;imgclass="website-links"src="https://cdn.mytuner.mobi/static/ctr/images/country/gt.png"data-src="https://cdn.mytuner.mobi/static/ctr/images/country/gt.png"alt="RadiosGuatemala"title="radioguatemalawebsite"width="64"height="64"&gt;&lt;/a&gt;</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="G43" t="str">
         <f t="shared" si="1"/>
@@ -4965,19 +4961,19 @@
       </c>
       <c r="R43" s="2"/>
       <c r="U43" s="2" t="s">
-        <v>240</v>
+        <v>201</v>
       </c>
       <c r="V43" s="2" t="s">
-        <v>241</v>
+        <v>202</v>
       </c>
       <c r="W43" s="2" t="s">
-        <v>242</v>
+        <v>203</v>
       </c>
       <c r="X43" s="2">
         <v>2</v>
       </c>
       <c r="Z43" t="s">
-        <v>307</v>
+        <v>204</v>
       </c>
       <c r="AA43">
         <v>45911</v>
@@ -4995,19 +4991,19 @@
         <v>49.999999999999993</v>
       </c>
     </row>
-    <row r="44" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:30">
       <c r="C44" t="s">
-        <v>41</v>
+        <v>205</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="E44" s="1" t="str">
         <f t="shared" si="0"/>
         <v>&lt;ahref="https://www.radios-venezuela.com/"class="mdc-typography--caption"&gt;&lt;imgclass="website-links"src="https://cdn.mytuner.mobi/static/ctr/images/country/ve.png"data-src="https://cdn.mytuner.mobi/static/ctr/images/country/ve.png"alt="RadiosVenezuela"title="radiovenezuelawebsite"width="64"height="64"&gt;&lt;/a&gt;</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="G44" t="str">
         <f t="shared" si="1"/>
@@ -5048,19 +5044,19 @@
       </c>
       <c r="R44" s="2"/>
       <c r="U44" s="2" t="s">
-        <v>258</v>
+        <v>206</v>
       </c>
       <c r="V44" s="2" t="s">
-        <v>259</v>
+        <v>207</v>
       </c>
       <c r="W44" s="2" t="s">
-        <v>260</v>
+        <v>208</v>
       </c>
       <c r="X44" s="2">
         <v>6</v>
       </c>
       <c r="Z44" t="s">
-        <v>308</v>
+        <v>209</v>
       </c>
       <c r="AA44">
         <v>46243</v>
@@ -5078,19 +5074,19 @@
         <v>31.999999999999993</v>
       </c>
     </row>
-    <row r="45" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:30">
       <c r="C45" t="s">
-        <v>42</v>
+        <v>210</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="E45" s="1" t="str">
         <f t="shared" si="0"/>
         <v>&lt;ahref="https://www.emisoras-puertorico.com/"class="mdc-typography--caption"&gt;&lt;imgclass="website-links"src="https://cdn.mytuner.mobi/static/ctr/images/country/pr.png"data-src="https://cdn.mytuner.mobi/static/ctr/images/country/pr.png"alt="RadiosPuertoRico"title="radiopuertoricowebsite"width="64"height="64"&gt;&lt;/a&gt;</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="G45" t="str">
         <f t="shared" si="1"/>
@@ -5131,19 +5127,19 @@
       </c>
       <c r="R45" s="2"/>
       <c r="U45" s="2" t="s">
-        <v>157</v>
+        <v>211</v>
       </c>
       <c r="V45" s="2" t="s">
-        <v>158</v>
+        <v>212</v>
       </c>
       <c r="W45" s="2" t="s">
-        <v>159</v>
+        <v>213</v>
       </c>
       <c r="X45" s="2">
         <v>4</v>
       </c>
       <c r="Z45" t="s">
-        <v>309</v>
+        <v>214</v>
       </c>
       <c r="AA45">
         <v>46441</v>
@@ -5161,19 +5157,19 @@
         <v>17.999999999999989</v>
       </c>
     </row>
-    <row r="46" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:30">
       <c r="C46" t="s">
-        <v>43</v>
+        <v>215</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="E46" s="1" t="str">
         <f t="shared" si="0"/>
         <v>&lt;ahref="https://www.radio-dominicana.com/"class="mdc-typography--caption"&gt;&lt;imgclass="website-links"src="https://cdn.mytuner.mobi/static/ctr/images/country/do.png"data-src="https://cdn.mytuner.mobi/static/ctr/images/country/do.png"alt="RadiosDominicanRepublic"title="radiodomicanrepublicwebsite"width="64"height="64"&gt;&lt;/a&gt;</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="G46" t="str">
         <f t="shared" si="1"/>
@@ -5214,19 +5210,19 @@
       </c>
       <c r="R46" s="2"/>
       <c r="U46" s="2" t="s">
-        <v>90</v>
+        <v>216</v>
       </c>
       <c r="V46" s="2" t="s">
-        <v>91</v>
+        <v>217</v>
       </c>
       <c r="W46" s="2" t="s">
-        <v>92</v>
+        <v>218</v>
       </c>
       <c r="X46" s="2">
         <v>28</v>
       </c>
       <c r="Z46" t="s">
-        <v>310</v>
+        <v>219</v>
       </c>
       <c r="AA46">
         <v>48084</v>
@@ -5244,19 +5240,19 @@
         <v>22.999999999999972</v>
       </c>
     </row>
-    <row r="47" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:30">
       <c r="C47" t="s">
-        <v>44</v>
+        <v>220</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="E47" s="1" t="str">
         <f t="shared" si="0"/>
         <v>&lt;ahref="https://www.radios-bolivia.com/"class="mdc-typography--caption"&gt;&lt;imgclass="website-links"src="https://cdn.mytuner.mobi/static/ctr/images/country/bo.png"data-src="https://cdn.mytuner.mobi/static/ctr/images/country/bo.png"alt="RadiosBolivia"title="radioboliviawebsite"width="64"height="64"&gt;&lt;/a&gt;</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="G47" t="str">
         <f t="shared" si="1"/>
@@ -5297,19 +5293,19 @@
       </c>
       <c r="R47" s="2"/>
       <c r="U47" s="2" t="s">
-        <v>93</v>
+        <v>221</v>
       </c>
       <c r="V47" s="2" t="s">
-        <v>94</v>
+        <v>222</v>
       </c>
       <c r="W47" s="2" t="s">
-        <v>95</v>
+        <v>223</v>
       </c>
       <c r="X47" s="2">
         <v>4</v>
       </c>
       <c r="Z47" t="s">
-        <v>311</v>
+        <v>224</v>
       </c>
       <c r="AA47">
         <v>48294</v>
@@ -5327,19 +5323,19 @@
         <v>30</v>
       </c>
     </row>
-    <row r="48" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:30">
       <c r="C48" t="s">
-        <v>45</v>
+        <v>225</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="E48" s="1" t="str">
         <f t="shared" si="0"/>
         <v>&lt;ahref="https://www.radioscostarica.org/"class="mdc-typography--caption"&gt;&lt;imgclass="website-links"src="https://cdn.mytuner.mobi/static/ctr/images/country/cr.png"data-src="https://cdn.mytuner.mobi/static/ctr/images/country/cr.png"alt="RadiosCostaRica"title="radiocostaricawebsite"width="64"height="64"&gt;&lt;/a&gt;</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="G48" t="str">
         <f t="shared" si="1"/>
@@ -5380,19 +5376,19 @@
       </c>
       <c r="R48" s="2"/>
       <c r="U48" s="2" t="s">
-        <v>208</v>
+        <v>226</v>
       </c>
       <c r="V48" s="2" t="s">
-        <v>209</v>
+        <v>227</v>
       </c>
       <c r="W48" s="2" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="X48" s="2">
         <v>5</v>
       </c>
       <c r="Z48" t="s">
-        <v>312</v>
+        <v>229</v>
       </c>
       <c r="AA48">
         <v>48581</v>
@@ -5410,19 +5406,19 @@
         <v>46.999999999999993</v>
       </c>
     </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:30">
       <c r="C49" t="s">
-        <v>46</v>
+        <v>230</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="E49" s="1" t="str">
         <f t="shared" si="0"/>
         <v>&lt;ahref="https://www.radio-australia.org"class="mdc-typography--caption"&gt;&lt;imgclass="website-links"src="https://cdn.mytuner.mobi/static/ctr/images/country/au.png"data-src="https://cdn.mytuner.mobi/static/ctr/images/country/au.png"alt="RadioAustralia"title="radioaustraliawebsite"width="64"height="64"&gt;&lt;/a&gt;</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="G49" t="str">
         <f t="shared" si="1"/>
@@ -5463,19 +5459,19 @@
       </c>
       <c r="R49" s="2"/>
       <c r="U49" s="2" t="s">
-        <v>178</v>
+        <v>231</v>
       </c>
       <c r="V49" s="2" t="s">
-        <v>179</v>
+        <v>232</v>
       </c>
       <c r="W49" s="2" t="s">
-        <v>180</v>
+        <v>233</v>
       </c>
       <c r="X49" s="2">
         <v>23</v>
       </c>
       <c r="Z49" t="s">
-        <v>313</v>
+        <v>234</v>
       </c>
       <c r="AA49">
         <v>49917</v>
@@ -5493,19 +5489,19 @@
         <v>15.999999999999943</v>
       </c>
     </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:30">
       <c r="C50" t="s">
-        <v>47</v>
+        <v>235</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="E50" s="1" t="str">
         <f t="shared" si="0"/>
         <v>&lt;ahref="https://www.radio-stations.co.nz/"class="mdc-typography--caption"&gt;&lt;imgclass="website-links"src="https://cdn.mytuner.mobi/static/ctr/images/country/nz.png"data-src="https://cdn.mytuner.mobi/static/ctr/images/country/nz.png"alt="RadioNewZealand"title="radionewzealandwebsite"width="64"height="64"&gt;&lt;/a&gt;</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="G50" t="str">
         <f t="shared" si="1"/>
@@ -5546,19 +5542,19 @@
       </c>
       <c r="R50" s="2"/>
       <c r="U50" s="2" t="s">
-        <v>225</v>
+        <v>236</v>
       </c>
       <c r="V50" s="2" t="s">
-        <v>226</v>
+        <v>237</v>
       </c>
       <c r="W50" s="2" t="s">
-        <v>227</v>
+        <v>238</v>
       </c>
       <c r="X50" s="2">
         <v>18</v>
       </c>
       <c r="Z50" t="s">
-        <v>314</v>
+        <v>239</v>
       </c>
       <c r="AA50">
         <v>50975</v>
@@ -5576,19 +5572,19 @@
         <v>37.999999999999972</v>
       </c>
     </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:30">
       <c r="C51" t="s">
-        <v>48</v>
+        <v>240</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="E51" s="1" t="str">
         <f t="shared" si="0"/>
         <v>&lt;ahref="https://www.canli-radyo-dinle.com/"class="mdc-typography--caption"&gt;&lt;imgclass="website-links"src="https://cdn.mytuner.mobi/static/ctr/images/country/tr.png"data-src="https://cdn.mytuner.mobi/static/ctr/images/country/tr.png"alt="RadyoTürkiye"title="radioturkeywebsite"width="64"height="64"&gt;&lt;/a&gt;</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="G51" t="str">
         <f t="shared" si="1"/>
@@ -5629,19 +5625,19 @@
       </c>
       <c r="R51" s="2"/>
       <c r="U51" s="2" t="s">
-        <v>108</v>
+        <v>241</v>
       </c>
       <c r="V51" s="2" t="s">
-        <v>109</v>
+        <v>242</v>
       </c>
       <c r="W51" s="2" t="s">
-        <v>110</v>
+        <v>243</v>
       </c>
       <c r="X51" s="2">
         <v>12</v>
       </c>
       <c r="Z51" t="s">
-        <v>315</v>
+        <v>244</v>
       </c>
       <c r="AA51">
         <v>51645</v>
@@ -5659,19 +5655,19 @@
         <v>9.9999999999999645</v>
       </c>
     </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:30">
       <c r="C52" t="s">
-        <v>49</v>
+        <v>245</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="E52" s="1" t="str">
         <f t="shared" si="0"/>
         <v>&lt;ahref="https://www.radioindia.in/"class="mdc-typography--caption"&gt;&lt;imgclass="website-links"src="https://cdn.mytuner.mobi/static/ctr/images/country/in.png"data-src="https://cdn.mytuner.mobi/static/ctr/images/country/in.png"alt="FMRadioIndia"title="radioindiawebsite"width="64"height="64"&gt;&lt;/a&gt;</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="G52" t="str">
         <f t="shared" si="1"/>
@@ -5712,19 +5708,19 @@
       </c>
       <c r="R52" s="2"/>
       <c r="U52" s="2" t="s">
-        <v>193</v>
+        <v>246</v>
       </c>
       <c r="V52" s="2" t="s">
-        <v>194</v>
+        <v>247</v>
       </c>
       <c r="W52" s="2" t="s">
-        <v>195</v>
+        <v>248</v>
       </c>
       <c r="X52" s="2">
         <v>4</v>
       </c>
       <c r="Z52" t="s">
-        <v>316</v>
+        <v>249</v>
       </c>
       <c r="AA52">
         <v>51875</v>
@@ -5742,19 +5738,19 @@
         <v>50.000000000000007</v>
       </c>
     </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:30">
       <c r="C53" t="s">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="E53" s="1" t="str">
         <f t="shared" si="0"/>
         <v>&lt;ahref="https://www.radio-hk.com"class="mdc-typography--caption"&gt;&lt;imgclass="website-links"src="https://cdn.mytuner.mobi/static/ctr/images/country/hk.png"data-src="https://cdn.mytuner.mobi/static/ctr/images/country/hk.png"alt="香港收音機"title="radiohkwebsite"width="64"height="64"&gt;&lt;/a&gt;</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="G53" t="str">
         <f t="shared" si="1"/>
@@ -5795,19 +5791,19 @@
       </c>
       <c r="R53" s="2"/>
       <c r="U53" s="2" t="s">
-        <v>111</v>
+        <v>251</v>
       </c>
       <c r="V53" s="2" t="s">
-        <v>112</v>
+        <v>252</v>
       </c>
       <c r="W53" s="2" t="s">
-        <v>113</v>
+        <v>253</v>
       </c>
       <c r="X53" s="2">
         <v>10</v>
       </c>
       <c r="Z53" t="s">
-        <v>317</v>
+        <v>254</v>
       </c>
       <c r="AA53">
         <v>52466</v>
@@ -5825,19 +5821,19 @@
         <v>50.999999999999979</v>
       </c>
     </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:30">
       <c r="C54" t="s">
-        <v>51</v>
+        <v>255</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="E54" s="1" t="str">
         <f t="shared" si="0"/>
         <v>&lt;ahref="https://www.radioindonesia.org"class="mdc-typography--caption"&gt;&lt;imgclass="website-links"src="https://cdn.mytuner.mobi/static/ctr/images/country/id.png"data-src="https://cdn.mytuner.mobi/static/ctr/images/country/id.png"alt="RadioOnlineIndonesia"title="radioindonesiawebsite"width="64"height="64"&gt;&lt;/a&gt;</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="G54" t="str">
         <f t="shared" si="1"/>
@@ -5878,19 +5874,19 @@
       </c>
       <c r="R54" s="2"/>
       <c r="U54" s="2" t="s">
-        <v>120</v>
+        <v>256</v>
       </c>
       <c r="V54" s="2" t="s">
-        <v>121</v>
+        <v>257</v>
       </c>
       <c r="W54" s="2" t="s">
-        <v>122</v>
+        <v>258</v>
       </c>
       <c r="X54" s="2">
         <v>11</v>
       </c>
       <c r="Z54" t="s">
-        <v>318</v>
+        <v>259</v>
       </c>
       <c r="AA54">
         <v>53125</v>
@@ -5908,19 +5904,19 @@
         <v>58.99999999999995</v>
       </c>
     </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:30">
       <c r="C55" t="s">
-        <v>52</v>
+        <v>260</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="E55" s="1" t="str">
         <f t="shared" si="0"/>
         <v>&lt;ahref="https://www.radiojapan.org"class="mdc-typography--caption"&gt;&lt;imgclass="website-links"src="https://cdn.mytuner.mobi/static/ctr/images/country/jp.png"data-src="https://cdn.mytuner.mobi/static/ctr/images/country/jp.png"alt="ラジオ日本"title="radiojapanwebsite"width="64"height="64"&gt;&lt;/a&gt;</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="G55" t="str">
         <f t="shared" si="1"/>
@@ -5961,19 +5957,19 @@
       </c>
       <c r="R55" s="2"/>
       <c r="U55" s="2" t="s">
-        <v>132</v>
+        <v>261</v>
       </c>
       <c r="V55" s="2" t="s">
-        <v>133</v>
+        <v>262</v>
       </c>
       <c r="W55" s="2" t="s">
-        <v>134</v>
+        <v>263</v>
       </c>
       <c r="X55" s="2">
         <v>5</v>
       </c>
       <c r="Z55" t="s">
-        <v>319</v>
+        <v>264</v>
       </c>
       <c r="AA55">
         <v>53386</v>
@@ -5991,19 +5987,19 @@
         <v>20.999999999999979</v>
       </c>
     </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:30">
       <c r="C56" t="s">
-        <v>53</v>
+        <v>265</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="E56" s="1" t="str">
         <f t="shared" si="0"/>
         <v>&lt;ahref="https://www.radio-philippines.com"class="mdc-typography--caption"&gt;&lt;imgclass="website-links"src="https://cdn.mytuner.mobi/static/ctr/images/country/ph.png"data-src="https://cdn.mytuner.mobi/static/ctr/images/country/ph.png"alt="FMRadioPhilippines"title="radiophilippineswebsite"width="64"height="64"&gt;&lt;/a&gt;</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="G56" t="str">
         <f t="shared" si="1"/>
@@ -6044,19 +6040,19 @@
       </c>
       <c r="R56" s="2"/>
       <c r="U56" s="2" t="s">
-        <v>99</v>
+        <v>266</v>
       </c>
       <c r="V56" s="2" t="s">
-        <v>100</v>
+        <v>267</v>
       </c>
       <c r="W56" s="2" t="s">
-        <v>101</v>
+        <v>268</v>
       </c>
       <c r="X56" s="2">
         <v>6</v>
       </c>
       <c r="Z56" t="s">
-        <v>320</v>
+        <v>269</v>
       </c>
       <c r="AA56">
         <v>53696</v>
@@ -6074,19 +6070,19 @@
         <v>10.000000000000018</v>
       </c>
     </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:30">
       <c r="C57" t="s">
-        <v>54</v>
+        <v>270</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="E57" s="1" t="str">
         <f t="shared" si="0"/>
         <v>&lt;ahref="https://www.radio-singapore.com"class="mdc-typography--caption"&gt;&lt;imgclass="website-links"src="https://cdn.mytuner.mobi/static/ctr/images/country/sg.png"data-src="https://cdn.mytuner.mobi/static/ctr/images/country/sg.png"alt="RadioSingapore"title="radiosingaporewebsite"width="64"height="64"&gt;&lt;/a&gt;</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="G57" t="str">
         <f t="shared" si="1"/>
@@ -6127,19 +6123,19 @@
       </c>
       <c r="R57" s="2"/>
       <c r="U57" s="2" t="s">
-        <v>228</v>
+        <v>271</v>
       </c>
       <c r="V57" s="2" t="s">
-        <v>229</v>
+        <v>272</v>
       </c>
       <c r="W57" s="2" t="s">
-        <v>230</v>
+        <v>273</v>
       </c>
       <c r="X57" s="2">
         <v>2</v>
       </c>
       <c r="Z57" t="s">
-        <v>321</v>
+        <v>274</v>
       </c>
       <c r="AA57">
         <v>53761</v>
@@ -6157,19 +6153,19 @@
         <v>4.9999999999999956</v>
       </c>
     </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:30">
       <c r="C58" t="s">
-        <v>55</v>
+        <v>275</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="E58" s="1" t="str">
         <f t="shared" si="0"/>
         <v>&lt;ahref="https://www.radio-thai.com"class="mdc-typography--caption"&gt;&lt;imgclass="website-links"src="https://cdn.mytuner.mobi/static/ctr/images/country/th.png"data-src="https://cdn.mytuner.mobi/static/ctr/images/country/th.png"alt="RadioThailand"title="radiothailandwebsite"width="64"height="64"&gt;&lt;/a&gt;</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="G58" t="str">
         <f t="shared" si="1"/>
@@ -6210,19 +6206,19 @@
       </c>
       <c r="R58" s="2"/>
       <c r="U58" s="2" t="s">
-        <v>138</v>
+        <v>276</v>
       </c>
       <c r="V58" s="2" t="s">
-        <v>139</v>
+        <v>277</v>
       </c>
       <c r="W58" s="2" t="s">
-        <v>140</v>
+        <v>278</v>
       </c>
       <c r="X58" s="2">
         <v>2</v>
       </c>
       <c r="Z58" t="s">
-        <v>322</v>
+        <v>279</v>
       </c>
       <c r="AA58">
         <v>53874</v>
@@ -6240,19 +6236,19 @@
         <v>53</v>
       </c>
     </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:30">
       <c r="C59" t="s">
-        <v>56</v>
+        <v>280</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="E59" s="1" t="str">
         <f t="shared" si="0"/>
         <v>&lt;ahref="https://www.radio-korea.com"class="mdc-typography--caption"&gt;&lt;imgclass="website-links"src="https://cdn.mytuner.mobi/static/ctr/images/country/kr.png"data-src="https://cdn.mytuner.mobi/static/ctr/images/country/kr.png"alt="RadioSouthKorea"title="radiosouthkoreawebsite"width="64"height="64"&gt;&lt;/a&gt;</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="G59" t="str">
         <f t="shared" si="1"/>
@@ -6293,19 +6289,19 @@
       </c>
       <c r="R59" s="2"/>
       <c r="U59" s="2" t="s">
-        <v>249</v>
+        <v>281</v>
       </c>
       <c r="V59" s="2" t="s">
-        <v>250</v>
+        <v>282</v>
       </c>
       <c r="W59" s="2" t="s">
-        <v>251</v>
+        <v>283</v>
       </c>
       <c r="X59" s="2">
         <v>2</v>
       </c>
       <c r="Z59" t="s">
-        <v>323</v>
+        <v>284</v>
       </c>
       <c r="AA59">
         <v>53962</v>
@@ -6323,19 +6319,19 @@
         <v>27.999999999999993</v>
       </c>
     </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:30">
       <c r="C60" t="s">
-        <v>57</v>
+        <v>285</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="E60" s="1" t="str">
         <f t="shared" si="0"/>
         <v>&lt;ahref="https://www.radiotaiwan.tw"class="mdc-typography--caption"&gt;&lt;imgclass="website-links"src="https://cdn.mytuner.mobi/static/ctr/images/country/tw.png"data-src="https://cdn.mytuner.mobi/static/ctr/images/country/tw.png"alt="台灣收音機"title="radiotaiwanwebsite"width="64"height="64"&gt;&lt;/a&gt;</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="G60" t="str">
         <f t="shared" si="1"/>
@@ -6376,19 +6372,19 @@
       </c>
       <c r="R60" s="2"/>
       <c r="U60" s="2" t="s">
-        <v>160</v>
+        <v>286</v>
       </c>
       <c r="V60" s="2" t="s">
-        <v>161</v>
+        <v>287</v>
       </c>
       <c r="W60" s="2" t="s">
-        <v>162</v>
+        <v>288</v>
       </c>
       <c r="X60" s="2">
         <v>6</v>
       </c>
       <c r="Z60" t="s">
-        <v>324</v>
+        <v>289</v>
       </c>
       <c r="AA60">
         <v>54289</v>
@@ -6406,19 +6402,19 @@
         <v>27.000000000000011</v>
       </c>
     </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:30">
       <c r="C61" t="s">
-        <v>58</v>
+        <v>290</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="E61" s="1" t="str">
         <f t="shared" si="0"/>
         <v>&lt;ahref="https://www.radiomalaysia.org"class="mdc-typography--caption"&gt;&lt;imgclass="website-links"src="https://cdn.mytuner.mobi/static/ctr/images/country/my.png"data-src="https://cdn.mytuner.mobi/static/ctr/images/country/my.png"alt="RadioMalaysia"title="radiomalaysiawebsite"width="64"height="64"&gt;&lt;/a&gt;</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="G61" t="str">
         <f t="shared" si="1"/>
@@ -6459,19 +6455,19 @@
       </c>
       <c r="R61" s="2"/>
       <c r="U61" s="2" t="s">
-        <v>231</v>
+        <v>291</v>
       </c>
       <c r="V61" s="2" t="s">
-        <v>232</v>
+        <v>292</v>
       </c>
       <c r="W61" s="2" t="s">
-        <v>233</v>
+        <v>293</v>
       </c>
       <c r="X61" s="2">
         <v>7</v>
       </c>
       <c r="Z61" t="s">
-        <v>325</v>
+        <v>294</v>
       </c>
       <c r="AA61">
         <v>54679</v>
@@ -6489,19 +6485,19 @@
         <v>30</v>
       </c>
     </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:30">
       <c r="C62" t="s">
-        <v>59</v>
+        <v>295</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="E62" s="1" t="str">
         <f t="shared" si="0"/>
         <v>&lt;ahref="https://www.radio-south-africa.co.za"class="mdc-typography--caption"&gt;&lt;imgclass="website-links"src="https://cdn.mytuner.mobi/static/ctr/images/country/za.png"data-src="https://cdn.mytuner.mobi/static/ctr/images/country/za.png"alt="RadioSouthAfrica"title="radiosouthafricawebsite"width="64"height="64"&gt;&lt;/a&gt;</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="G62" t="str">
         <f t="shared" si="1"/>
@@ -6542,19 +6538,19 @@
       </c>
       <c r="R62" s="2"/>
       <c r="U62" s="2" t="s">
-        <v>211</v>
+        <v>296</v>
       </c>
       <c r="V62" s="2" t="s">
-        <v>212</v>
+        <v>297</v>
       </c>
       <c r="W62" s="2" t="s">
-        <v>213</v>
+        <v>298</v>
       </c>
       <c r="X62" s="2">
         <v>17</v>
       </c>
       <c r="Z62" t="s">
-        <v>326</v>
+        <v>299</v>
       </c>
       <c r="AA62">
         <v>55657</v>
@@ -6572,19 +6568,19 @@
         <v>18.000000000000043</v>
       </c>
     </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:30">
       <c r="C63" t="s">
-        <v>60</v>
+        <v>300</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="E63" s="1" t="str">
         <f t="shared" si="0"/>
         <v>&lt;ahref="https://www.radio-maroc.org/"class="mdc-typography--caption"&gt;&lt;imgclass="website-links"src="https://cdn.mytuner.mobi/static/ctr/images/country/ma.png"data-src="https://cdn.mytuner.mobi/static/ctr/images/country/ma.png"alt="RadioMorocco"title="radiomoroccowebsite"width="64"height="64"&gt;&lt;/a&gt;</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="G63" t="str">
         <f t="shared" si="1"/>
@@ -6625,19 +6621,19 @@
       </c>
       <c r="R63" s="2"/>
       <c r="U63" s="2" t="s">
-        <v>151</v>
+        <v>301</v>
       </c>
       <c r="V63" s="2" t="s">
-        <v>152</v>
+        <v>302</v>
       </c>
       <c r="W63" s="2" t="s">
-        <v>153</v>
+        <v>303</v>
       </c>
       <c r="X63" s="2">
         <v>2</v>
       </c>
       <c r="Z63" t="s">
-        <v>327</v>
+        <v>304</v>
       </c>
       <c r="AA63">
         <v>55724</v>
@@ -6655,19 +6651,19 @@
         <v>7.0000000000000018</v>
       </c>
     </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:30">
       <c r="C64" t="s">
-        <v>61</v>
+        <v>305</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="E64" s="1" t="str">
         <f t="shared" si="0"/>
         <v>&lt;ahref="https://www.radio-senegal.com"class="mdc-typography--caption"&gt;&lt;imgclass="website-links"src="https://cdn.mytuner.mobi/static/ctr/images/country/sn.png"data-src="https://cdn.mytuner.mobi/static/ctr/images/country/sn.png"alt="RadioSenegal"title="radiosenegalwebsite"width="64"height="64"&gt;&lt;/a&gt;</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="G64" t="str">
         <f t="shared" si="1"/>
@@ -6708,19 +6704,19 @@
       </c>
       <c r="R64" s="2"/>
       <c r="U64" s="2" t="s">
-        <v>237</v>
+        <v>306</v>
       </c>
       <c r="V64" s="2" t="s">
-        <v>238</v>
+        <v>307</v>
       </c>
       <c r="W64" s="2" t="s">
-        <v>239</v>
+        <v>308</v>
       </c>
       <c r="X64" s="2">
         <v>3</v>
       </c>
       <c r="Z64" t="s">
-        <v>328</v>
+        <v>309</v>
       </c>
       <c r="AA64">
         <v>55852</v>
@@ -6738,19 +6734,19 @@
         <v>7.9999999999999982</v>
       </c>
     </row>
-    <row r="65" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:30">
       <c r="C65" t="s">
-        <v>62</v>
+        <v>310</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="E65" s="1" t="str">
         <f t="shared" si="0"/>
         <v>&lt;ahref="https://www.radio-ghana.org"class="mdc-typography--caption"&gt;&lt;imgclass="website-links"src="https://cdn.mytuner.mobi/static/ctr/images/country/gh.png"data-src="https://cdn.mytuner.mobi/static/ctr/images/country/gh.png"alt="RadioGhana"title="radioghanawebsite"width="64"height="64"&gt;&lt;/a&gt;</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="G65" t="str">
         <f t="shared" si="1"/>
@@ -6791,19 +6787,19 @@
       </c>
       <c r="R65" s="2"/>
       <c r="U65" s="2" t="s">
-        <v>117</v>
+        <v>311</v>
       </c>
       <c r="V65" s="2" t="s">
-        <v>118</v>
+        <v>312</v>
       </c>
       <c r="W65" s="2" t="s">
-        <v>119</v>
+        <v>313</v>
       </c>
       <c r="X65" s="2">
         <v>5</v>
       </c>
       <c r="Z65" t="s">
-        <v>329</v>
+        <v>314</v>
       </c>
       <c r="AA65">
         <v>56119</v>
@@ -6821,19 +6817,19 @@
         <v>27.000000000000011</v>
       </c>
     </row>
-    <row r="66" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:30">
       <c r="C66" t="s">
-        <v>63</v>
+        <v>315</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="E66" s="1" t="str">
         <f t="shared" si="0"/>
         <v>&lt;ahref="https://www.radio-kenya.com"class="mdc-typography--caption"&gt;&lt;imgclass="website-links"src="https://cdn.mytuner.mobi/static/ctr/images/country/ke.png"data-src="https://cdn.mytuner.mobi/static/ctr/images/country/ke.png"alt="RadioKenya"title="radiokenyawebsite"width="64"height="64"&gt;&lt;/a&gt;</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="G66" t="str">
         <f t="shared" si="1"/>
@@ -6874,19 +6870,19 @@
       </c>
       <c r="R66" s="2"/>
       <c r="U66" s="2" t="s">
-        <v>149</v>
+        <v>316</v>
       </c>
       <c r="V66" s="2" t="s">
-        <v>150</v>
+        <v>317</v>
       </c>
       <c r="W66" s="2" t="s">
-        <v>150</v>
+        <v>317</v>
       </c>
       <c r="X66" s="2">
         <v>356</v>
       </c>
       <c r="Z66" t="s">
-        <v>331</v>
+        <v>318</v>
       </c>
       <c r="AA66">
         <f>+$AA$65+371</f>
@@ -6905,19 +6901,19 @@
         <v>11.000000000000014</v>
       </c>
     </row>
-    <row r="67" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:30">
       <c r="C67" t="s">
-        <v>64</v>
+        <v>319</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="E67" s="1" t="str">
         <f t="shared" si="0"/>
         <v>&lt;ahref="https://www.radio-nigeria.com"class="mdc-typography--caption"&gt;&lt;imgclass="website-links"src="https://cdn.mytuner.mobi/static/ctr/images/country/ng.png"data-src="https://cdn.mytuner.mobi/static/ctr/images/country/ng.png"alt="RadioNigeria"title="radioNigeriawebsite"width="64"height="64"&gt;&lt;/a&gt;</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="G67" t="str">
         <f t="shared" si="1"/>
@@ -6958,19 +6954,19 @@
       </c>
       <c r="R67" s="2"/>
       <c r="U67" s="2" t="s">
-        <v>184</v>
+        <v>320</v>
       </c>
       <c r="V67" s="2" t="s">
-        <v>185</v>
+        <v>321</v>
       </c>
       <c r="W67" s="2" t="s">
-        <v>186</v>
+        <v>322</v>
       </c>
       <c r="X67" s="2">
         <v>7</v>
       </c>
       <c r="Z67" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="AA67">
         <f>+$AA$65+1061</f>
@@ -6989,19 +6985,19 @@
         <v>30</v>
       </c>
     </row>
-    <row r="68" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="68" spans="3:30">
       <c r="C68" t="s">
-        <v>65</v>
+        <v>324</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="E68" s="1" t="str">
         <f t="shared" ref="E68:E69" si="17">SUBSTITUTE(C68," ","")</f>
         <v>&lt;ahref="https://www.radio-israel.org"class="mdc-typography--caption"&gt;&lt;imgclass="website-links"src="https://cdn.mytuner.mobi/static/ctr/images/country/il.png"data-src="https://cdn.mytuner.mobi/static/ctr/images/country/il.png"alt="RadioIsrael"title="radioIsraelwebsite"width="64"height="64"&gt;&lt;/a&gt;</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="G68" t="str">
         <f t="shared" ref="G68:G69" si="18">+MID($E68,9,+FIND("class",$E68,1)-10)</f>
@@ -7042,19 +7038,19 @@
       </c>
       <c r="R68" s="2"/>
       <c r="U68" s="2" t="s">
-        <v>190</v>
+        <v>325</v>
       </c>
       <c r="V68" s="2" t="s">
-        <v>191</v>
+        <v>326</v>
       </c>
       <c r="W68" s="2" t="s">
-        <v>192</v>
+        <v>327</v>
       </c>
       <c r="X68" s="2">
         <v>12</v>
       </c>
       <c r="Z68" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="AA68">
         <f>+$AA$65+1673</f>
@@ -7073,19 +7069,19 @@
         <v>11.999999999999957</v>
       </c>
     </row>
-    <row r="69" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="69" spans="3:30">
       <c r="C69" t="s">
-        <v>66</v>
+        <v>329</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="E69" s="1" t="str">
         <f t="shared" si="17"/>
         <v>&lt;ahref="https://www.radioarabic.org"class="mdc-typography--caption"&gt;&lt;imgclass="website-links"src="https://cdn.mytuner.mobi/static/ctr/images/country/arab.png"data-src="https://cdn.mytuner.mobi/static/ctr/images/country/arab.png"alt="RadioArabic"title="radioArabicwebsite"width="64"height="64"&gt;&lt;/a&gt;</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="G69" t="str">
         <f t="shared" si="18"/>
@@ -7126,43 +7122,41 @@
       </c>
       <c r="R69" s="2"/>
       <c r="U69" s="2" t="s">
-        <v>243</v>
+        <v>330</v>
       </c>
       <c r="V69" s="2" t="s">
-        <v>244</v>
+        <v>331</v>
       </c>
       <c r="W69" s="2" t="s">
-        <v>245</v>
+        <v>332</v>
       </c>
       <c r="X69" s="2">
         <v>11</v>
       </c>
       <c r="Z69" t="s">
-        <v>330</v>
+        <v>333</v>
+      </c>
+      <c r="AA69">
+        <f>+AA68+21342</f>
+        <v>79134</v>
       </c>
       <c r="AB69">
         <f t="shared" si="27"/>
-        <v>-963.2</v>
+        <v>355.7</v>
       </c>
       <c r="AC69">
         <f t="shared" si="28"/>
-        <v>-964</v>
+        <v>355</v>
       </c>
       <c r="AD69">
         <f t="shared" si="16"/>
-        <v>47.999999999997272</v>
-      </c>
-    </row>
-    <row r="72" spans="3:30" x14ac:dyDescent="0.25">
-      <c r="AB72">
-        <v>0</v>
-      </c>
-      <c r="AC72">
-        <v>0</v>
-      </c>
-      <c r="AD72">
-        <f t="shared" ref="AD72" si="29">+(AB72-AC72)*60</f>
-        <v>0</v>
+        <v>41.999999999999318</v>
+      </c>
+    </row>
+    <row r="70" spans="3:30">
+      <c r="AA70">
+        <f>+AA69+132</f>
+        <v>79266</v>
       </c>
     </row>
   </sheetData>
@@ -7181,341 +7175,341 @@
       <selection activeCell="H56" sqref="H56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
       <c r="A32" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
       <c r="A40" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
       <c r="A42" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
       <c r="A44" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
       <c r="A45" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
       <c r="A46" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
       <c r="A47" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
       <c r="A48" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
       <c r="A49" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
       <c r="A50" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
       <c r="A51" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
       <c r="A52" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
       <c r="A53" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
       <c r="A54" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
       <c r="A55" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
       <c r="A56" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
       <c r="A57" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
       <c r="A58" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
       <c r="A59" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
       <c r="A60" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
       <c r="A61" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
       <c r="A62" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
       <c r="A63" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
       <c r="A64" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
       <c r="A65" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
       <c r="A66" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
       <c r="A67" t="s">
-        <v>66</v>
+        <v>329</v>
       </c>
     </row>
   </sheetData>

--- a/Hardware/AllRadio.xlsx
+++ b/Hardware/AllRadio.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ED5D551B811378B0/GitRepos/TkRadio/Hardware/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ed5d551b811378b0/GitRepos/TkRadio/Hardware/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="54" documentId="8_{3E2B63D6-EBC3-4CBD-991C-BE0FCE1149EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F1755969-DF95-4B66-A5AF-BEABF45B7121}"/>
+  <xr:revisionPtr revIDLastSave="173" documentId="8_{3E2B63D6-EBC3-4CBD-991C-BE0FCE1149EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8DE6A734-FDE8-44B0-8877-40CF55F96129}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{6890E1AA-A5F3-4B94-A4A7-FBFFCD23E2B5}"/>
+    <workbookView xWindow="-32700" yWindow="750" windowWidth="19245" windowHeight="20940" xr2:uid="{6890E1AA-A5F3-4B94-A4A7-FBFFCD23E2B5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="269">
   <si>
     <t/>
   </si>
@@ -54,9 +54,6 @@
     <t>Arabic</t>
   </si>
   <si>
-    <t>https://www.radioarabic.org,ab,Arabic,31</t>
-  </si>
-  <si>
     <t xml:space="preserve">            &lt;a href="https://www.radio-belgie.be" class="mdc-typography--caption"&gt;&lt;img class="website-links" src="https://cdn.mytuner.mobi/static/ctr/images/country/be.png" data-src="https://cdn.mytuner.mobi/static/ctr/images/country/be.png" alt="Radio België" title="radio belgie website" width="64" height="64"&gt;&lt;/a&gt;</t>
   </si>
   <si>
@@ -69,9 +66,6 @@
     <t>argentina</t>
   </si>
   <si>
-    <t>https://www.radios-argentinas.org,ar,argentina,30</t>
-  </si>
-  <si>
     <t xml:space="preserve">            &lt;a href="https://www.radio-danmark.dk" class="mdc-typography--caption"&gt;&lt;img class="website-links" src="https://cdn.mytuner.mobi/static/ctr/images/country/dk.png" data-src="https://cdn.mytuner.mobi/static/ctr/images/country/dk.png" alt="Netradio Danmark" title="radio danmark website" width="64" height="64"&gt;&lt;/a&gt;</t>
   </si>
   <si>
@@ -84,9 +78,6 @@
     <t>österreich</t>
   </si>
   <si>
-    <t>https://www.radio-osterreich.at,at,österreich,6</t>
-  </si>
-  <si>
     <t xml:space="preserve">            &lt;a href="https://www.radio-suomi.com" class="mdc-typography--caption"&gt;&lt;img class="website-links" src="https://cdn.mytuner.mobi/static/ctr/images/country/fi.png" data-src="https://cdn.mytuner.mobi/static/ctr/images/country/fi.png" alt="Nettiradio Suomi" title="radio finland website" width="64" height="64"&gt;&lt;/a&gt;</t>
   </si>
   <si>
@@ -99,9 +90,6 @@
     <t>australia</t>
   </si>
   <si>
-    <t>https://www.radio-australia.org,au,australia,16</t>
-  </si>
-  <si>
     <t xml:space="preserve">            &lt;a href="https://www.radio-en-ligne.fr" class="mdc-typography--caption"&gt;&lt;img class="website-links" src="https://cdn.mytuner.mobi/static/ctr/images/country/fr.png" data-src="https://cdn.mytuner.mobi/static/ctr/images/country/fr.png" alt="Radio France" title="radio france website" width="64" height="64"&gt;&lt;/a&gt;</t>
   </si>
   <si>
@@ -114,9 +102,6 @@
     <t>belgie</t>
   </si>
   <si>
-    <t>https://www.radio-belgie.be,be,belgie,13</t>
-  </si>
-  <si>
     <t xml:space="preserve">            &lt;a href="https://www.internetradio-horen.de" class="mdc-typography--caption"&gt;&lt;img class="website-links" src="https://cdn.mytuner.mobi/static/ctr/images/country/de.png" data-src="https://cdn.mytuner.mobi/static/ctr/images/country/de.png" alt="Internetradio Deutschland" title="radio deutschland website" width="64" height="64"&gt;&lt;/a&gt;</t>
   </si>
   <si>
@@ -129,9 +114,6 @@
     <t>bulgaria</t>
   </si>
   <si>
-    <t>https://www.onlineradio-bg.com,bg,bulgaria,3</t>
-  </si>
-  <si>
     <t xml:space="preserve">            &lt;a href="https://www.radio-italiane.it" class="mdc-typography--caption"&gt;&lt;img class="website-links" src="https://cdn.mytuner.mobi/static/ctr/images/country/it.png" data-src="https://cdn.mytuner.mobi/static/ctr/images/country/it.png" alt="Radio Italia" title="radio italia website" width="64" height="64"&gt;&lt;/a&gt;</t>
   </si>
   <si>
@@ -144,9 +126,6 @@
     <t>bolivia</t>
   </si>
   <si>
-    <t>https://www.radios-bolivia.com,bo,bolivia,6</t>
-  </si>
-  <si>
     <t xml:space="preserve">            &lt;a href="https://www.radio-nederland.nl" class="mdc-typography--caption"&gt;&lt;img class="website-links" src="https://cdn.mytuner.mobi/static/ctr/images/country/nl.png" data-src="https://cdn.mytuner.mobi/static/ctr/images/country/nl.png" alt="Radio Nederland" title="radio nederland website" width="64" height="64"&gt;&lt;/a&gt;</t>
   </si>
   <si>
@@ -159,9 +138,6 @@
     <t>brasil</t>
   </si>
   <si>
-    <t>https://www.radio-ao-vivo.com,br,brasil,99</t>
-  </si>
-  <si>
     <t xml:space="preserve">            &lt;a href="https://www.radio-norge.org" class="mdc-typography--caption"&gt;&lt;img class="website-links" src="https://cdn.mytuner.mobi/static/ctr/images/country/no.png" data-src="https://cdn.mytuner.mobi/static/ctr/images/country/no.png" alt="Nettradio Norge" title="radio norge website" width="64" height="64"&gt;&lt;/a&gt;</t>
   </si>
   <si>
@@ -174,9 +150,6 @@
     <t>canada</t>
   </si>
   <si>
-    <t>https://www.canadaradiostations.com,ca,canada,35</t>
-  </si>
-  <si>
     <t xml:space="preserve">            &lt;a href="https://www.radio-espana.es" class="mdc-typography--caption"&gt;&lt;img class="website-links" src="https://cdn.mytuner.mobi/static/ctr/images/country/es.png" data-src="https://cdn.mytuner.mobi/static/ctr/images/country/es.png" alt="Radio España" title="radio españa website" width="64" height="64"&gt;&lt;/a&gt;</t>
   </si>
   <si>
@@ -189,9 +162,6 @@
     <t>schweiz</t>
   </si>
   <si>
-    <t>https://www.internetradio-schweiz.ch,ch,schweiz,10</t>
-  </si>
-  <si>
     <t xml:space="preserve">            &lt;a href="https://www.radio-sveriges.se" class="mdc-typography--caption"&gt;&lt;img class="website-links" src="https://cdn.mytuner.mobi/static/ctr/images/country/se.png" data-src="https://cdn.mytuner.mobi/static/ctr/images/country/se.png" alt="Radio Sveriges" title="radio sverige website" width="64" height="64"&gt;&lt;/a&gt;</t>
   </si>
   <si>
@@ -204,9 +174,6 @@
     <t>chile</t>
   </si>
   <si>
-    <t>https://www.radios-chilenas.com,cl,chile,27</t>
-  </si>
-  <si>
     <t xml:space="preserve">            &lt;a href="https://www.internetradio-schweiz.ch" class="mdc-typography--caption"&gt;&lt;img class="website-links" src="https://cdn.mytuner.mobi/static/ctr/images/country/ch.png" data-src="https://cdn.mytuner.mobi/static/ctr/images/country/ch.png" alt="Internetradio Schweiz" title="radio schweiz website" width="64" height="64"&gt;&lt;/a&gt;</t>
   </si>
   <si>
@@ -219,9 +186,6 @@
     <t>colombia</t>
   </si>
   <si>
-    <t>https://www.emisorascolombianas.co,co,colombia,37</t>
-  </si>
-  <si>
     <t xml:space="preserve">            &lt;a href="https://www.radio-uk.co.uk" class="mdc-typography--caption"&gt;&lt;img class="website-links" src="https://cdn.mytuner.mobi/static/ctr/images/country/gb.png" data-src="https://cdn.mytuner.mobi/static/ctr/images/country/gb.png" alt="Radio UK" title="radio uk website" width="64" height="64"&gt;&lt;/a&gt;</t>
   </si>
   <si>
@@ -234,9 +198,6 @@
     <t>costa rica</t>
   </si>
   <si>
-    <t>https://www.radioscostarica.org,cr,costa rica,6</t>
-  </si>
-  <si>
     <t xml:space="preserve">            &lt;a href="https://www.radio-polska.pl/" class="mdc-typography--caption"&gt;&lt;img class="website-links" src="https://cdn.mytuner.mobi/static/ctr/images/country/pl.png" data-src="https://cdn.mytuner.mobi/static/ctr/images/country/pl.png" alt="Radio Polska" title="radio polska website" width="64" height="64"&gt;&lt;/a&gt;</t>
   </si>
   <si>
@@ -249,9 +210,6 @@
     <t>czech</t>
   </si>
   <si>
-    <t>https://www.radiaonline.org,cz,czech,4</t>
-  </si>
-  <si>
     <t xml:space="preserve">            &lt;a href="https://www.radios-online.pt/" class="mdc-typography--caption"&gt;&lt;img class="website-links" src="https://cdn.mytuner.mobi/static/ctr/images/country/pt.png" data-src="https://cdn.mytuner.mobi/static/ctr/images/country/pt.png" alt="Radio Portugal" title="radio portugal website" width="64" height="64"&gt;&lt;/a&gt;</t>
   </si>
   <si>
@@ -264,9 +222,6 @@
     <t>deutschland</t>
   </si>
   <si>
-    <t>https://www.internetradio-horen.de,de,deutschland,59</t>
-  </si>
-  <si>
     <t xml:space="preserve">            &lt;a href="https://www.radio-hrvatska.com" class="mdc-typography--caption"&gt;&lt;img class="website-links" src="https://cdn.mytuner.mobi/static/ctr/images/country/hr.png" data-src="https://cdn.mytuner.mobi/static/ctr/images/country/hr.png" alt="Radio Croatia" title="radio croatia website" width="64" height="64"&gt;&lt;/a&gt;</t>
   </si>
   <si>
@@ -279,9 +234,6 @@
     <t>danmark</t>
   </si>
   <si>
-    <t>https://www.radio-danmark.dk,dk,danmark,5</t>
-  </si>
-  <si>
     <t xml:space="preserve">            &lt;a href="https://www.radio-ua.com" class="mdc-typography--caption"&gt;&lt;img class="website-links" src="https://cdn.mytuner.mobi/static/ctr/images/country/ua.png" data-src="https://cdn.mytuner.mobi/static/ctr/images/country/ua.png" alt="Radio Ukraine" title="radio ukraine website" width="64" height="64"&gt;&lt;/a&gt;</t>
   </si>
   <si>
@@ -294,9 +246,6 @@
     <t>domican republic</t>
   </si>
   <si>
-    <t>https://www.radio-dominicana.com,do,domican republic,13</t>
-  </si>
-  <si>
     <t xml:space="preserve">            &lt;a href="https://www.radio-romania.com" class="mdc-typography--caption"&gt;&lt;img class="website-links" src="https://cdn.mytuner.mobi/static/ctr/images/country/ro.png" data-src="https://cdn.mytuner.mobi/static/ctr/images/country/ro.png" alt="Radio România" title="radio romania website" width="64" height="64"&gt;&lt;/a&gt;</t>
   </si>
   <si>
@@ -309,9 +258,6 @@
     <t>ecuador</t>
   </si>
   <si>
-    <t>https://www.radio-ecuador.org,ec,ecuador,17</t>
-  </si>
-  <si>
     <t xml:space="preserve">            &lt;a href="https://www.radio-ireland.com" class="mdc-typography--caption"&gt;&lt;img class="website-links" src="https://cdn.mytuner.mobi/static/ctr/images/country/ie.png" data-src="https://cdn.mytuner.mobi/static/ctr/images/country/ie.png" alt="Radio Ireland" title="radio ireland website" width="64" height="64"&gt;&lt;/a&gt;</t>
   </si>
   <si>
@@ -324,9 +270,6 @@
     <t>españa</t>
   </si>
   <si>
-    <t>https://www.radio-espana.es,es,españa,44</t>
-  </si>
-  <si>
     <t xml:space="preserve">            &lt;a href="https://www.onlineradio-bg.com" class="mdc-typography--caption"&gt;&lt;img class="website-links" src="https://cdn.mytuner.mobi/static/ctr/images/country/bg.png" data-src="https://cdn.mytuner.mobi/static/ctr/images/country/bg.png" alt="Radio Bulgaria" title="radio bulgaria website" width="64" height="64"&gt;&lt;/a&gt;</t>
   </si>
   <si>
@@ -339,9 +282,6 @@
     <t>finland</t>
   </si>
   <si>
-    <t>https://www.radio-suomi.com,fi,finland,3</t>
-  </si>
-  <si>
     <t xml:space="preserve">            &lt;a href="https://www.radiaonline.org" class="mdc-typography--caption"&gt;&lt;img class="website-links" src="https://cdn.mytuner.mobi/static/ctr/images/country/cz.png" data-src="https://cdn.mytuner.mobi/static/ctr/images/country/cz.png" alt="Radio Czech" title="radio czech website" width="64" height="64"&gt;&lt;/a&gt;</t>
   </si>
   <si>
@@ -354,9 +294,6 @@
     <t>france</t>
   </si>
   <si>
-    <t>https://www.radio-en-ligne.fr,fr,france,62</t>
-  </si>
-  <si>
     <t xml:space="preserve">            &lt;a href="https://www.radiosrbija.org" class="mdc-typography--caption"&gt;&lt;img class="website-links" src="https://cdn.mytuner.mobi/static/ctr/images/country/rs.png" data-src="https://cdn.mytuner.mobi/static/ctr/images/country/rs.png" alt="Radio Srbija" title="radio srbija website" width="64" height="64"&gt;&lt;/a&gt;</t>
   </si>
   <si>
@@ -369,9 +306,6 @@
     <t>uk</t>
   </si>
   <si>
-    <t>https://www.radio-uk.co.uk,gb,uk,61</t>
-  </si>
-  <si>
     <t xml:space="preserve">            &lt;a href="https://www.onlineradiok.org" class="mdc-typography--caption"&gt;&lt;img class="website-links" src="https://cdn.mytuner.mobi/static/ctr/images/country/hu.png" data-src="https://cdn.mytuner.mobi/static/ctr/images/country/hu.png" alt="Radio Magyarország" title="radio magyarorszag website" width="64" height="64"&gt;&lt;/a&gt;</t>
   </si>
   <si>
@@ -384,9 +318,6 @@
     <t>ghana</t>
   </si>
   <si>
-    <t>https://www.radio-ghana.org,gh,ghana,9</t>
-  </si>
-  <si>
     <t xml:space="preserve">            &lt;a href="https://www.radijskepostaje.com" class="mdc-typography--caption"&gt;&lt;img class="website-links" src="https://cdn.mytuner.mobi/static/ctr/images/country/si.png" data-src="https://cdn.mytuner.mobi/static/ctr/images/country/si.png" alt="Radio Slovenija" title="radio slovenija website" width="64" height="64"&gt;&lt;/a&gt;</t>
   </si>
   <si>
@@ -399,9 +330,6 @@
     <t>greece</t>
   </si>
   <si>
-    <t>https://www.greek-radio.org,gr,greece,19</t>
-  </si>
-  <si>
     <t xml:space="preserve">            &lt;a href="https://www.greek-radio.org" class="mdc-typography--caption"&gt;&lt;img class="website-links" src="https://cdn.mytuner.mobi/static/ctr/images/country/gr.png" data-src="https://cdn.mytuner.mobi/static/ctr/images/country/gr.png" alt="Radio Greece" title="radio greece website" width="64" height="64"&gt;&lt;/a&gt;</t>
   </si>
   <si>
@@ -414,9 +342,6 @@
     <t>guatemala</t>
   </si>
   <si>
-    <t>https://www.radios-guatemala.com,gt,guatemala,18</t>
-  </si>
-  <si>
     <t xml:space="preserve">            &lt;a href="https://www.canadaradiostations.com" class="mdc-typography--caption"&gt;&lt;img class="website-links" src="https://cdn.mytuner.mobi/static/ctr/images/country/ca.png" data-src="https://cdn.mytuner.mobi/static/ctr/images/country/ca.png" alt="Canada Radio Stations" title="canada radio stations website" width="64" height="64"&gt;&lt;/a&gt;</t>
   </si>
   <si>
@@ -426,9 +351,6 @@
     <t>hk</t>
   </si>
   <si>
-    <t>https://www.radio-hk.com,hk,hk,1</t>
-  </si>
-  <si>
     <t xml:space="preserve">            &lt;a href="https://www.radio-en-vivo.mx" class="mdc-typography--caption"&gt;&lt;img class="website-links" src="https://cdn.mytuner.mobi/static/ctr/images/country/mx.png" data-src="https://cdn.mytuner.mobi/static/ctr/images/country/mx.png" alt="Radio en Vivo México" title="radio mexico website" width="64" height="64"&gt;&lt;/a&gt;</t>
   </si>
   <si>
@@ -441,9 +363,6 @@
     <t>honduras</t>
   </si>
   <si>
-    <t>https://www.emisoras-de-honduras.com,hn,honduras,6</t>
-  </si>
-  <si>
     <t xml:space="preserve">            &lt;a href="https://www.fmradiofree.com" class="mdc-typography--caption"&gt;&lt;img class="website-links" src="https://cdn.mytuner.mobi/static/ctr/images/country/us.png" data-src="https://cdn.mytuner.mobi/static/ctr/images/country/us.png" alt="Radio US" title="radio us website" width="64" height="64"&gt;&lt;/a&gt;</t>
   </si>
   <si>
@@ -456,9 +375,6 @@
     <t>croatia</t>
   </si>
   <si>
-    <t>https://www.radio-hrvatska.com,hr,croatia,4</t>
-  </si>
-  <si>
     <t xml:space="preserve">            &lt;a href="https://www.radio-trinidad.com" class="mdc-typography--caption"&gt;&lt;img class="website-links" src="https://cdn.mytuner.mobi/static/ctr/images/country/tt.png" data-src="https://cdn.mytuner.mobi/static/ctr/images/country/tt.png" alt="Radio Trinidad y Tobago" title="radio trinidad website" width="64" height="64"&gt;&lt;/a&gt;</t>
   </si>
   <si>
@@ -471,9 +387,6 @@
     <t>magyarorszag</t>
   </si>
   <si>
-    <t>https://www.onlineradiok.org,hu,magyarorszag,8</t>
-  </si>
-  <si>
     <t xml:space="preserve">            &lt;a href="https://www.radio-jamaica.com" class="mdc-typography--caption"&gt;&lt;img class="website-links" src="https://cdn.mytuner.mobi/static/ctr/images/country/jm.png" data-src="https://cdn.mytuner.mobi/static/ctr/images/country/jm.png" alt="Radio Jamaica" title="radio jamaica website" width="64" height="64"&gt;&lt;/a&gt;</t>
   </si>
   <si>
@@ -486,9 +399,6 @@
     <t>indonesia</t>
   </si>
   <si>
-    <t>https://www.radioindonesia.org,id,indonesia,11</t>
-  </si>
-  <si>
     <t xml:space="preserve">            &lt;a href="https://www.radiosdenicaragua.org" class="mdc-typography--caption"&gt;&lt;img class="website-links" src="https://cdn.mytuner.mobi/static/ctr/images/country/ni.png" data-src="https://cdn.mytuner.mobi/static/ctr/images/country/ni.png" alt="Radios Nicaragua" title="radio nicaragua website" width="64" height="64"&gt;&lt;/a&gt;</t>
   </si>
   <si>
@@ -501,9 +411,6 @@
     <t>ireland</t>
   </si>
   <si>
-    <t>https://www.radio-ireland.com,ie,ireland,5</t>
-  </si>
-  <si>
     <t xml:space="preserve">            &lt;a href="https://www.radioselsalvador.org" class="mdc-typography--caption"&gt;&lt;img class="website-links" src="https://cdn.mytuner.mobi/static/ctr/images/country/sv.png" data-src="https://cdn.mytuner.mobi/static/ctr/images/country/sv.png" alt="Radios El Salvador" title="radio salvador website" width="64" height="64"&gt;&lt;/a&gt;</t>
   </si>
   <si>
@@ -516,9 +423,6 @@
     <t>Israel</t>
   </si>
   <si>
-    <t>https://www.radio-israel.org,il,Israel,4</t>
-  </si>
-  <si>
     <t xml:space="preserve">            &lt;a href="https://www.emisoras-de-honduras.com" class="mdc-typography--caption"&gt;&lt;img class="website-links" src="https://cdn.mytuner.mobi/static/ctr/images/country/hn.png" data-src="https://cdn.mytuner.mobi/static/ctr/images/country/hn.png" alt="Radios Honduras" title="radio honduras website" width="64" height="64"&gt;&lt;/a&gt;</t>
   </si>
   <si>
@@ -531,9 +435,6 @@
     <t>india</t>
   </si>
   <si>
-    <t>https://www.radioindia.in,in,india,17</t>
-  </si>
-  <si>
     <t xml:space="preserve">            &lt;a href="https://www.radios-argentinas.org" class="mdc-typography--caption"&gt;&lt;img class="website-links" src="https://cdn.mytuner.mobi/static/ctr/images/country/ar.png" data-src="https://cdn.mytuner.mobi/static/ctr/images/country/ar.png" alt="Radios Argentinas" title="radio argentina website" width="64" height="64"&gt;&lt;/a&gt;</t>
   </si>
   <si>
@@ -546,9 +447,6 @@
     <t>italia</t>
   </si>
   <si>
-    <t>https://www.radio-italiane.it,it,italia,40</t>
-  </si>
-  <si>
     <t xml:space="preserve">            &lt;a href="https://www.radio-ao-vivo.com/" class="mdc-typography--caption"&gt;&lt;img class="website-links" src="https://cdn.mytuner.mobi/static/ctr/images/country/br.png" data-src="https://cdn.mytuner.mobi/static/ctr/images/country/br.png" alt="Rádio Brasil" title="radio brasil website" width="64" height="64"&gt;&lt;/a&gt;</t>
   </si>
   <si>
@@ -561,9 +459,6 @@
     <t>jamaica</t>
   </si>
   <si>
-    <t>https://www.radio-jamaica.com,jm,jamaica,2</t>
-  </si>
-  <si>
     <t xml:space="preserve">            &lt;a href="https://www.radios-chilenas.com" class="mdc-typography--caption"&gt;&lt;img class="website-links" src="https://cdn.mytuner.mobi/static/ctr/images/country/cl.png" data-src="https://cdn.mytuner.mobi/static/ctr/images/country/cl.png" alt="Radios Chile" title="radio chile website" width="64" height="64"&gt;&lt;/a&gt;</t>
   </si>
   <si>
@@ -576,9 +471,6 @@
     <t>japan</t>
   </si>
   <si>
-    <t>https://www.radiojapan.org,jp,japan,6</t>
-  </si>
-  <si>
     <t xml:space="preserve">            &lt;a href="https://www.emisorascolombianas.co" class="mdc-typography--caption"&gt;&lt;img class="website-links" src="https://cdn.mytuner.mobi/static/ctr/images/country/co.png" data-src="https://cdn.mytuner.mobi/static/ctr/images/country/co.png" alt="Emisoras Colombianas" title="radio colombia website" width="64" height="64"&gt;&lt;/a&gt;</t>
   </si>
   <si>
@@ -591,9 +483,6 @@
     <t>kenya</t>
   </si>
   <si>
-    <t>https://www.radio-kenya.com,ke,kenya,3</t>
-  </si>
-  <si>
     <t xml:space="preserve">            &lt;a href="https://www.radiosdelperu.com.pe" class="mdc-typography--caption"&gt;&lt;img class="website-links" src="https://cdn.mytuner.mobi/static/ctr/images/country/pe.png" data-src="https://cdn.mytuner.mobi/static/ctr/images/country/pe.png" alt="Radios Peru" title="radio peru website" width="64" height="64"&gt;&lt;/a&gt;</t>
   </si>
   <si>
@@ -606,9 +495,6 @@
     <t>south korea</t>
   </si>
   <si>
-    <t>https://www.radio-korea.com,kr,south korea,3</t>
-  </si>
-  <si>
     <t xml:space="preserve">            &lt;a href="https://www.radio-ecuador.org/" class="mdc-typography--caption"&gt;&lt;img class="website-links" src="https://cdn.mytuner.mobi/static/ctr/images/country/ec.png" data-src="https://cdn.mytuner.mobi/static/ctr/images/country/ec.png" alt="Radios Ecuador" title="radio ecuador website" width="64" height="64"&gt;&lt;/a&gt;</t>
   </si>
   <si>
@@ -621,9 +507,6 @@
     <t>morocco</t>
   </si>
   <si>
-    <t>https://www.radio-maroc.org,ma,morocco,2</t>
-  </si>
-  <si>
     <t xml:space="preserve">            &lt;a href="https://www.radios-uruguay.com/" class="mdc-typography--caption"&gt;&lt;img class="website-links" src="https://cdn.mytuner.mobi/static/ctr/images/country/uy.png" data-src="https://cdn.mytuner.mobi/static/ctr/images/country/uy.png" alt="Radios Uruguay" title="radio uruguay website" width="64" height="64"&gt;&lt;/a&gt;</t>
   </si>
   <si>
@@ -636,9 +519,6 @@
     <t>mexico</t>
   </si>
   <si>
-    <t>https://www.radio-en-vivo.mx,mx,mexico,40</t>
-  </si>
-  <si>
     <t xml:space="preserve">            &lt;a href="https://www.radios-guatemala.com/" class="mdc-typography--caption"&gt;&lt;img class="website-links" src="https://cdn.mytuner.mobi/static/ctr/images/country/gt.png" data-src="https://cdn.mytuner.mobi/static/ctr/images/country/gt.png" alt="Radios Guatemala" title="radio guatemala website" width="64" height="64"&gt;&lt;/a&gt;</t>
   </si>
   <si>
@@ -651,9 +531,6 @@
     <t>malaysia</t>
   </si>
   <si>
-    <t>https://www.radiomalaysia.org,my,malaysia,2</t>
-  </si>
-  <si>
     <t xml:space="preserve">            &lt;a href="https://www.radios-venezuela.com/" class="mdc-typography--caption"&gt;&lt;img class="website-links" src="https://cdn.mytuner.mobi/static/ctr/images/country/ve.png" data-src="https://cdn.mytuner.mobi/static/ctr/images/country/ve.png" alt="Radios Venezuela" title="radio venezuela website" width="64" height="64"&gt;&lt;/a&gt;</t>
   </si>
   <si>
@@ -666,9 +543,6 @@
     <t>Nigeria</t>
   </si>
   <si>
-    <t>https://www.radio-nigeria.com,ng,Nigeria,6</t>
-  </si>
-  <si>
     <t xml:space="preserve">            &lt;a href="https://www.emisoras-puertorico.com/" class="mdc-typography--caption"&gt;&lt;img class="website-links" src="https://cdn.mytuner.mobi/static/ctr/images/country/pr.png" data-src="https://cdn.mytuner.mobi/static/ctr/images/country/pr.png" alt="Radios Puerto Rico" title="radio puerto rico website" width="64" height="64"&gt;&lt;/a&gt;</t>
   </si>
   <si>
@@ -681,9 +555,6 @@
     <t>nicaragua</t>
   </si>
   <si>
-    <t>https://www.radiosdenicaragua.org,ni,nicaragua,4</t>
-  </si>
-  <si>
     <t xml:space="preserve">            &lt;a href="https://www.radio-dominicana.com/" class="mdc-typography--caption"&gt;&lt;img class="website-links" src="https://cdn.mytuner.mobi/static/ctr/images/country/do.png" data-src="https://cdn.mytuner.mobi/static/ctr/images/country/do.png" alt="Radios Dominican Republic" title="radio domican republic website" width="64" height="64"&gt;&lt;/a&gt;</t>
   </si>
   <si>
@@ -696,9 +567,6 @@
     <t>nederland</t>
   </si>
   <si>
-    <t>https://www.radio-nederland.nl,nl,nederland,28</t>
-  </si>
-  <si>
     <t xml:space="preserve">            &lt;a href="https://www.radios-bolivia.com/" class="mdc-typography--caption"&gt;&lt;img class="website-links" src="https://cdn.mytuner.mobi/static/ctr/images/country/bo.png" data-src="https://cdn.mytuner.mobi/static/ctr/images/country/bo.png" alt="Radios Bolivia" title="radio bolivia website" width="64" height="64"&gt;&lt;/a&gt;</t>
   </si>
   <si>
@@ -711,9 +579,6 @@
     <t>norge</t>
   </si>
   <si>
-    <t>https://www.radio-norge.org,no,norge,4</t>
-  </si>
-  <si>
     <t xml:space="preserve">            &lt;a href="https://www.radioscostarica.org/" class="mdc-typography--caption"&gt;&lt;img class="website-links" src="https://cdn.mytuner.mobi/static/ctr/images/country/cr.png" data-src="https://cdn.mytuner.mobi/static/ctr/images/country/cr.png" alt="Radios Costa Rica" title="radio costa rica website" width="64" height="64"&gt;&lt;/a&gt;</t>
   </si>
   <si>
@@ -726,9 +591,6 @@
     <t>new zealand</t>
   </si>
   <si>
-    <t>https://www.radio-stations.co.nz,nz,new zealand,5</t>
-  </si>
-  <si>
     <t xml:space="preserve">            &lt;a href="https://www.radio-australia.org" class="mdc-typography--caption"&gt;&lt;img class="website-links" src="https://cdn.mytuner.mobi/static/ctr/images/country/au.png" data-src="https://cdn.mytuner.mobi/static/ctr/images/country/au.png" alt="Radio Australia" title="radio australia website" width="64" height="64"&gt;&lt;/a&gt;</t>
   </si>
   <si>
@@ -741,9 +603,6 @@
     <t>peru</t>
   </si>
   <si>
-    <t>https://www.radiosdelperu.com.pe,pe,peru,23</t>
-  </si>
-  <si>
     <t xml:space="preserve">            &lt;a href="https://www.radio-stations.co.nz/" class="mdc-typography--caption"&gt;&lt;img class="website-links" src="https://cdn.mytuner.mobi/static/ctr/images/country/nz.png" data-src="https://cdn.mytuner.mobi/static/ctr/images/country/nz.png" alt="Radio New Zealand" title="radio new zealand website" width="64" height="64"&gt;&lt;/a&gt;</t>
   </si>
   <si>
@@ -756,9 +615,6 @@
     <t>philippines</t>
   </si>
   <si>
-    <t>https://www.radio-philippines.com,ph,philippines,18</t>
-  </si>
-  <si>
     <t xml:space="preserve">            &lt;a href="https://www.canli-radyo-dinle.com/" class="mdc-typography--caption"&gt;&lt;img class="website-links" src="https://cdn.mytuner.mobi/static/ctr/images/country/tr.png" data-src="https://cdn.mytuner.mobi/static/ctr/images/country/tr.png" alt="Radyo Türkiye" title="radio turkey website" width="64" height="64"&gt;&lt;/a&gt;</t>
   </si>
   <si>
@@ -771,9 +627,6 @@
     <t>polska</t>
   </si>
   <si>
-    <t>https://www.radio-polska.pl,pl,polska,12</t>
-  </si>
-  <si>
     <t xml:space="preserve">            &lt;a href="https://www.radioindia.in/" class="mdc-typography--caption"&gt;&lt;img class="website-links" src="https://cdn.mytuner.mobi/static/ctr/images/country/in.png" data-src="https://cdn.mytuner.mobi/static/ctr/images/country/in.png" alt="FM Radio India" title="radio india website" width="64" height="64"&gt;&lt;/a&gt;</t>
   </si>
   <si>
@@ -786,9 +639,6 @@
     <t>puerto rico</t>
   </si>
   <si>
-    <t>https://www.emisoras-puertorico.com,pr,puerto rico,4</t>
-  </si>
-  <si>
     <t xml:space="preserve">            &lt;a href="https://www.radio-hk.com" class="mdc-typography--caption"&gt;&lt;img class="website-links" src="https://cdn.mytuner.mobi/static/ctr/images/country/hk.png" data-src="https://cdn.mytuner.mobi/static/ctr/images/country/hk.png" alt="香港 收音機" title="radio hk website" width="64" height="64"&gt;&lt;/a&gt;</t>
   </si>
   <si>
@@ -801,9 +651,6 @@
     <t>portugal</t>
   </si>
   <si>
-    <t>https://www.radios-online.pt,pt,portugal,10</t>
-  </si>
-  <si>
     <t xml:space="preserve">            &lt;a href="https://www.radioindonesia.org" class="mdc-typography--caption"&gt;&lt;img class="website-links" src="https://cdn.mytuner.mobi/static/ctr/images/country/id.png" data-src="https://cdn.mytuner.mobi/static/ctr/images/country/id.png" alt="Radio Online Indonesia" title="radio indonesia website" width="64" height="64"&gt;&lt;/a&gt;</t>
   </si>
   <si>
@@ -816,9 +663,6 @@
     <t>romania</t>
   </si>
   <si>
-    <t>https://www.radio-romania.com,ro,romania,11</t>
-  </si>
-  <si>
     <t xml:space="preserve">            &lt;a href="https://www.radiojapan.org" class="mdc-typography--caption"&gt;&lt;img class="website-links" src="https://cdn.mytuner.mobi/static/ctr/images/country/jp.png" data-src="https://cdn.mytuner.mobi/static/ctr/images/country/jp.png" alt="ラジオ 日本" title="radio japan website" width="64" height="64"&gt;&lt;/a&gt;</t>
   </si>
   <si>
@@ -831,9 +675,6 @@
     <t>srbija</t>
   </si>
   <si>
-    <t>https://www.radiosrbija.org,rs,srbija,5</t>
-  </si>
-  <si>
     <t xml:space="preserve">            &lt;a href="https://www.radio-philippines.com" class="mdc-typography--caption"&gt;&lt;img class="website-links" src="https://cdn.mytuner.mobi/static/ctr/images/country/ph.png" data-src="https://cdn.mytuner.mobi/static/ctr/images/country/ph.png" alt="FM Radio Philippines" title="radio philippines website" width="64" height="64"&gt;&lt;/a&gt;</t>
   </si>
   <si>
@@ -846,9 +687,6 @@
     <t>sverige</t>
   </si>
   <si>
-    <t>https://www.radio-sveriges.se,se,sverige,6</t>
-  </si>
-  <si>
     <t xml:space="preserve">            &lt;a href="https://www.radio-singapore.com" class="mdc-typography--caption"&gt;&lt;img class="website-links" src="https://cdn.mytuner.mobi/static/ctr/images/country/sg.png" data-src="https://cdn.mytuner.mobi/static/ctr/images/country/sg.png" alt="Radio Singapore" title="radio singapore website" width="64" height="64"&gt;&lt;/a&gt;</t>
   </si>
   <si>
@@ -861,9 +699,6 @@
     <t>singapore</t>
   </si>
   <si>
-    <t>https://www.radio-singapore.com,sg,singapore,2</t>
-  </si>
-  <si>
     <t xml:space="preserve">            &lt;a href="https://www.radio-thai.com" class="mdc-typography--caption"&gt;&lt;img class="website-links" src="https://cdn.mytuner.mobi/static/ctr/images/country/th.png" data-src="https://cdn.mytuner.mobi/static/ctr/images/country/th.png" alt="Radio Thailand" title="radio thailand website" width="64" height="64"&gt;&lt;/a&gt;</t>
   </si>
   <si>
@@ -876,9 +711,6 @@
     <t>slovenija</t>
   </si>
   <si>
-    <t>https://www.radijskepostaje.com,si,slovenija,2</t>
-  </si>
-  <si>
     <t xml:space="preserve">            &lt;a href="https://www.radio-korea.com" class="mdc-typography--caption"&gt;&lt;img class="website-links" src="https://cdn.mytuner.mobi/static/ctr/images/country/kr.png" data-src="https://cdn.mytuner.mobi/static/ctr/images/country/kr.png" alt="Radio South Korea" title="radio south korea website" width="64" height="64"&gt;&lt;/a&gt;</t>
   </si>
   <si>
@@ -891,9 +723,6 @@
     <t>senegal</t>
   </si>
   <si>
-    <t>https://www.radio-senegal.com,sn,senegal,2</t>
-  </si>
-  <si>
     <t xml:space="preserve">            &lt;a href="https://www.radiotaiwan.tw" class="mdc-typography--caption"&gt;&lt;img class="website-links" src="https://cdn.mytuner.mobi/static/ctr/images/country/tw.png" data-src="https://cdn.mytuner.mobi/static/ctr/images/country/tw.png" alt="台灣 收音機" title="radio taiwan website" width="64" height="64"&gt;&lt;/a&gt;</t>
   </si>
   <si>
@@ -906,9 +735,6 @@
     <t>salvador</t>
   </si>
   <si>
-    <t>https://www.radioselsalvador.org,sv,salvador,6</t>
-  </si>
-  <si>
     <t xml:space="preserve">            &lt;a href="https://www.radiomalaysia.org" class="mdc-typography--caption"&gt;&lt;img class="website-links" src="https://cdn.mytuner.mobi/static/ctr/images/country/my.png" data-src="https://cdn.mytuner.mobi/static/ctr/images/country/my.png" alt="Radio Malaysia" title="radio malaysia website" width="64" height="64"&gt;&lt;/a&gt;</t>
   </si>
   <si>
@@ -921,9 +747,6 @@
     <t>thailand</t>
   </si>
   <si>
-    <t>https://www.radio-thai.com,th,thailand,7</t>
-  </si>
-  <si>
     <t xml:space="preserve">            &lt;a href="https://www.radio-south-africa.co.za" class="mdc-typography--caption"&gt;&lt;img class="website-links" src="https://cdn.mytuner.mobi/static/ctr/images/country/za.png" data-src="https://cdn.mytuner.mobi/static/ctr/images/country/za.png" alt="Radio South Africa" title="radio south africa website" width="64" height="64"&gt;&lt;/a&gt;</t>
   </si>
   <si>
@@ -936,9 +759,6 @@
     <t>turkey</t>
   </si>
   <si>
-    <t>https://www.canli-radyo-dinle.com,tr,turkey,17</t>
-  </si>
-  <si>
     <t xml:space="preserve">            &lt;a href="https://www.radio-maroc.org/" class="mdc-typography--caption"&gt;&lt;img class="website-links" src="https://cdn.mytuner.mobi/static/ctr/images/country/ma.png" data-src="https://cdn.mytuner.mobi/static/ctr/images/country/ma.png" alt="Radio Morocco" title="radio morocco website" width="64" height="64"&gt;&lt;/a&gt;</t>
   </si>
   <si>
@@ -951,9 +771,6 @@
     <t>trinidad</t>
   </si>
   <si>
-    <t>https://www.radio-trinidad.com,tt,trinidad,2</t>
-  </si>
-  <si>
     <t xml:space="preserve">            &lt;a href="https://www.radio-senegal.com" class="mdc-typography--caption"&gt;&lt;img class="website-links" src="https://cdn.mytuner.mobi/static/ctr/images/country/sn.png" data-src="https://cdn.mytuner.mobi/static/ctr/images/country/sn.png" alt="Radio Senegal" title="radio senegal website" width="64" height="64"&gt;&lt;/a&gt;</t>
   </si>
   <si>
@@ -966,9 +783,6 @@
     <t>taiwan</t>
   </si>
   <si>
-    <t>https://www.radiotaiwan.tw,tw,taiwan,3</t>
-  </si>
-  <si>
     <t xml:space="preserve">            &lt;a href="https://www.radio-ghana.org" class="mdc-typography--caption"&gt;&lt;img class="website-links" src="https://cdn.mytuner.mobi/static/ctr/images/country/gh.png" data-src="https://cdn.mytuner.mobi/static/ctr/images/country/gh.png" alt="Radio Ghana" title="radio ghana website" width="64" height="64"&gt;&lt;/a&gt;</t>
   </si>
   <si>
@@ -981,9 +795,6 @@
     <t>ukraine</t>
   </si>
   <si>
-    <t>https://www.radio-ua.com,ua,ukraine,5</t>
-  </si>
-  <si>
     <t xml:space="preserve">            &lt;a href="https://www.radio-kenya.com" class="mdc-typography--caption"&gt;&lt;img class="website-links" src="https://cdn.mytuner.mobi/static/ctr/images/country/ke.png" data-src="https://cdn.mytuner.mobi/static/ctr/images/country/ke.png" alt="Radio Kenya" title="radio kenya website" width="64" height="64"&gt;&lt;/a&gt;</t>
   </si>
   <si>
@@ -993,9 +804,6 @@
     <t>us</t>
   </si>
   <si>
-    <t>https://www.radios-uruguay.com,uy,uruguay,7</t>
-  </si>
-  <si>
     <t xml:space="preserve">            &lt;a href="https://www.radio-nigeria.com" class="mdc-typography--caption"&gt;&lt;img class="website-links" src="https://cdn.mytuner.mobi/static/ctr/images/country/ng.png" data-src="https://cdn.mytuner.mobi/static/ctr/images/country/ng.png" alt="Radio Nigeria" title="radio Nigeria website" width="64" height="64"&gt;&lt;/a&gt;</t>
   </si>
   <si>
@@ -1008,9 +816,6 @@
     <t>uruguay</t>
   </si>
   <si>
-    <t>https://www.radios-venezuela.com,ve,venezuela,12</t>
-  </si>
-  <si>
     <t xml:space="preserve">            &lt;a href="https://www.radio-israel.org" class="mdc-typography--caption"&gt;&lt;img class="website-links" src="https://cdn.mytuner.mobi/static/ctr/images/country/il.png" data-src="https://cdn.mytuner.mobi/static/ctr/images/country/il.png" alt="Radio Israel" title="radio Israel website" width="64" height="64"&gt;&lt;/a&gt;</t>
   </si>
   <si>
@@ -1023,9 +828,6 @@
     <t>venezuela</t>
   </si>
   <si>
-    <t>https://www.radio-south-africa.co.za,za,south africa,11</t>
-  </si>
-  <si>
     <t xml:space="preserve">            &lt;a href="https://www.radioarabic.org" class="mdc-typography--caption"&gt;&lt;img class="website-links" src="https://cdn.mytuner.mobi/static/ctr/images/country/arab.png" data-src="https://cdn.mytuner.mobi/static/ctr/images/country/arab.png" alt="Radio Arabic" title="radio Arabic website" width="64" height="64"&gt;&lt;/a&gt;</t>
   </si>
   <si>
@@ -1038,14 +840,17 @@
     <t>south africa</t>
   </si>
   <si>
-    <t>https://www.fmradiofree.com,us,us,356</t>
+    <t>end file 1</t>
+  </si>
+  <si>
+    <t>end file 2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1106,6 +911,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1425,13 +1234,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{313B95B2-875D-4F85-9AAB-6AE2CC36F57D}">
-  <dimension ref="C1:AD70"/>
+  <dimension ref="C1:AA69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V30" workbookViewId="0">
-      <selection activeCell="AA70" sqref="AA70"/>
+    <sheetView tabSelected="1" topLeftCell="S19" workbookViewId="0">
+      <selection activeCell="X69" sqref="X69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="22.28515625" customWidth="1"/>
     <col min="4" max="4" width="3.5703125" style="1" customWidth="1"/>
@@ -1446,23 +1255,23 @@
     <col min="15" max="15" width="3.140625" customWidth="1"/>
     <col min="16" max="16" width="2.85546875" customWidth="1"/>
     <col min="17" max="17" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="4.42578125" customWidth="1"/>
-    <col min="21" max="21" width="38.140625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="3.85546875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="56" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.140625" customWidth="1"/>
+    <col min="19" max="19" width="38.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="3.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="6" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="56" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:30">
+    <row r="1" spans="3:27" x14ac:dyDescent="0.25">
       <c r="D1"/>
       <c r="F1"/>
-      <c r="X1">
-        <f>+X2*60</f>
-        <v>81300</v>
-      </c>
-    </row>
-    <row r="2" spans="3:30">
+      <c r="V1">
+        <f>+V2*60</f>
+        <v>81360</v>
+      </c>
+    </row>
+    <row r="2" spans="3:27" x14ac:dyDescent="0.25">
       <c r="D2"/>
       <c r="E2" s="1" t="str">
         <f>SUBSTITUTE(C2," ","")</f>
@@ -1503,19 +1312,16 @@
         <f>+L2</f>
         <v>#VALUE!</v>
       </c>
-      <c r="X2">
-        <f>+SUM(X3:X69)</f>
-        <v>1355</v>
-      </c>
-      <c r="Z2" t="str">
-        <f>+U2&amp;","&amp;V2&amp;","&amp;W2&amp;","&amp;TEXT(X2,0)</f>
-        <v>,,,1355</v>
-      </c>
-      <c r="AA2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="3:30">
+      <c r="V2">
+        <f>+SUM(V3:V69)</f>
+        <v>1356</v>
+      </c>
+      <c r="AA2" t="str">
+        <f>+S2&amp;","&amp;T2&amp;","&amp;U2&amp;","&amp;TEXT(V2,0)</f>
+        <v>,,,1356</v>
+      </c>
+    </row>
+    <row r="3" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>1</v>
       </c>
@@ -1566,43 +1372,33 @@
         <f>+L3</f>
         <v>österreich</v>
       </c>
-      <c r="R3" s="2">
+      <c r="S3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="V3" s="2">
+        <v>31</v>
+      </c>
+      <c r="W3">
         <v>6</v>
       </c>
-      <c r="U3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="V3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="W3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="X3" s="2">
-        <v>31</v>
-      </c>
-      <c r="Z3" t="s">
+      <c r="X3">
+        <f>+(V3-1)*60++W3+X2</f>
+        <v>1806</v>
+      </c>
+      <c r="AA3" t="str">
+        <f>+S3&amp;","&amp;T3&amp;","&amp;U3&amp;","&amp;TEXT(V3,0)</f>
+        <v>https://www.radioarabic.org,ab,Arabic,31</v>
+      </c>
+    </row>
+    <row r="4" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
         <v>5</v>
-      </c>
-      <c r="AA3">
-        <v>1805</v>
-      </c>
-      <c r="AB3">
-        <f>(+AA3-AA2)/60</f>
-        <v>30.083333333333332</v>
-      </c>
-      <c r="AC3">
-        <f>+INT(AB3)</f>
-        <v>30</v>
-      </c>
-      <c r="AD3">
-        <f>+(AB3-AC3)*60</f>
-        <v>4.9999999999999289</v>
-      </c>
-    </row>
-    <row r="4" spans="3:30">
-      <c r="C4" t="s">
-        <v>6</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>0</v>
@@ -1651,43 +1447,33 @@
         <f t="shared" ref="Q4:Q67" si="9">+L4</f>
         <v>belgie</v>
       </c>
-      <c r="R4" s="2">
-        <v>13</v>
+      <c r="S4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="U4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="V4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="W4" s="2" t="s">
+      <c r="V4" s="2">
+        <v>29</v>
+      </c>
+      <c r="W4">
+        <v>60</v>
+      </c>
+      <c r="X4">
+        <f>+(V4-1)*60++W4+X3</f>
+        <v>3546</v>
+      </c>
+      <c r="AA4" t="str">
+        <f t="shared" ref="AA4:AA67" si="10">+S4&amp;","&amp;T4&amp;","&amp;U4&amp;","&amp;TEXT(V4,0)</f>
+        <v>https://www.radios-argentinas.org,ar,argentina,29</v>
+      </c>
+    </row>
+    <row r="5" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
         <v>9</v>
-      </c>
-      <c r="X4" s="2">
-        <v>30</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>10</v>
-      </c>
-      <c r="AA4">
-        <v>3548</v>
-      </c>
-      <c r="AB4">
-        <f t="shared" ref="AB4:AB67" si="10">(+AA4-AA3)/60</f>
-        <v>29.05</v>
-      </c>
-      <c r="AC4">
-        <f t="shared" ref="AC4:AC67" si="11">+INT(AB4)</f>
-        <v>29</v>
-      </c>
-      <c r="AD4">
-        <f t="shared" ref="AD4:AD14" si="12">+(AB4-AC4)*60</f>
-        <v>3.0000000000000426</v>
-      </c>
-    </row>
-    <row r="5" spans="3:30">
-      <c r="C5" t="s">
-        <v>11</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>0</v>
@@ -1736,43 +1522,33 @@
         <f t="shared" si="9"/>
         <v>danmark</v>
       </c>
-      <c r="R5" s="2">
-        <v>5</v>
+      <c r="S5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="T5" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="U5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="V5" s="2" t="s">
+      <c r="V5" s="2">
+        <v>6</v>
+      </c>
+      <c r="W5">
+        <v>60</v>
+      </c>
+      <c r="X5">
+        <f t="shared" ref="X5:X68" si="11">+(V5-1)*60++W5+X4</f>
+        <v>3906</v>
+      </c>
+      <c r="AA5" t="str">
+        <f t="shared" si="10"/>
+        <v>https://www.radio-osterreich.at,at,österreich,6</v>
+      </c>
+    </row>
+    <row r="6" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
         <v>13</v>
-      </c>
-      <c r="W5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="X5" s="2">
-        <v>6</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>15</v>
-      </c>
-      <c r="AA5">
-        <v>3906</v>
-      </c>
-      <c r="AB5">
-        <f t="shared" si="10"/>
-        <v>5.9666666666666668</v>
-      </c>
-      <c r="AC5">
-        <f t="shared" si="11"/>
-        <v>5</v>
-      </c>
-      <c r="AD5">
-        <f t="shared" si="12"/>
-        <v>58.000000000000007</v>
-      </c>
-    </row>
-    <row r="6" spans="3:30">
-      <c r="C6" t="s">
-        <v>16</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>0</v>
@@ -1821,43 +1597,33 @@
         <f t="shared" si="9"/>
         <v>finland</v>
       </c>
-      <c r="R6" s="2">
-        <v>3</v>
+      <c r="S6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="T6" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="U6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="V6" s="2">
+        <v>16</v>
+      </c>
+      <c r="W6">
+        <v>19</v>
+      </c>
+      <c r="X6">
+        <f t="shared" si="11"/>
+        <v>4825</v>
+      </c>
+      <c r="AA6" t="str">
+        <f t="shared" si="10"/>
+        <v>https://www.radio-australia.org,au,australia,16</v>
+      </c>
+    </row>
+    <row r="7" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
         <v>17</v>
-      </c>
-      <c r="V6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="W6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="X6" s="2">
-        <v>16</v>
-      </c>
-      <c r="Z6" t="s">
-        <v>20</v>
-      </c>
-      <c r="AA6">
-        <v>4826</v>
-      </c>
-      <c r="AB6">
-        <f t="shared" si="10"/>
-        <v>15.333333333333334</v>
-      </c>
-      <c r="AC6">
-        <f t="shared" si="11"/>
-        <v>15</v>
-      </c>
-      <c r="AD6">
-        <f t="shared" si="12"/>
-        <v>20.000000000000036</v>
-      </c>
-    </row>
-    <row r="7" spans="3:30">
-      <c r="C7" t="s">
-        <v>21</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>0</v>
@@ -1906,43 +1672,33 @@
         <f t="shared" si="9"/>
         <v>france</v>
       </c>
-      <c r="R7" s="2">
-        <v>62</v>
+      <c r="S7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="T7" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="U7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="V7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="W7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="X7" s="2">
+        <v>20</v>
+      </c>
+      <c r="V7" s="2">
         <v>13</v>
       </c>
-      <c r="Z7" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA7">
-        <v>5587</v>
-      </c>
-      <c r="AB7">
+      <c r="W7">
+        <v>45</v>
+      </c>
+      <c r="X7">
+        <f t="shared" si="11"/>
+        <v>5590</v>
+      </c>
+      <c r="AA7" t="str">
         <f t="shared" si="10"/>
-        <v>12.683333333333334</v>
-      </c>
-      <c r="AC7">
-        <f t="shared" si="11"/>
-        <v>12</v>
-      </c>
-      <c r="AD7">
-        <f t="shared" si="12"/>
-        <v>41.000000000000014</v>
-      </c>
-    </row>
-    <row r="8" spans="3:30">
+        <v>https://www.radio-belgie.be,be,belgie,13</v>
+      </c>
+    </row>
+    <row r="8" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>0</v>
@@ -1991,43 +1747,33 @@
         <f t="shared" si="9"/>
         <v>deutschland</v>
       </c>
-      <c r="R8" s="2">
-        <v>59</v>
+      <c r="S8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="T8" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="U8" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="V8" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="W8" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="X8" s="2">
+        <v>24</v>
+      </c>
+      <c r="V8" s="2">
         <v>3</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="W8">
         <v>30</v>
       </c>
-      <c r="AA8">
-        <v>5736</v>
-      </c>
-      <c r="AB8">
+      <c r="X8">
+        <f t="shared" si="11"/>
+        <v>5740</v>
+      </c>
+      <c r="AA8" t="str">
         <f t="shared" si="10"/>
-        <v>2.4833333333333334</v>
-      </c>
-      <c r="AC8">
-        <f t="shared" si="11"/>
-        <v>2</v>
-      </c>
-      <c r="AD8">
-        <f t="shared" si="12"/>
-        <v>29.000000000000004</v>
-      </c>
-    </row>
-    <row r="9" spans="3:30">
+        <v>https://www.onlineradio-bg.com,bg,bulgaria,3</v>
+      </c>
+    </row>
+    <row r="9" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>0</v>
@@ -2076,43 +1822,33 @@
         <f t="shared" si="9"/>
         <v>italia</v>
       </c>
-      <c r="R9" s="2">
-        <v>40</v>
+      <c r="S9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="T9" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="U9" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="V9" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="W9" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="X9" s="2">
+        <v>28</v>
+      </c>
+      <c r="V9" s="2">
         <v>6</v>
       </c>
-      <c r="Z9" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA9">
-        <v>6082</v>
-      </c>
-      <c r="AB9">
+      <c r="W9">
+        <v>46</v>
+      </c>
+      <c r="X9">
+        <f t="shared" si="11"/>
+        <v>6086</v>
+      </c>
+      <c r="AA9" t="str">
         <f t="shared" si="10"/>
-        <v>5.7666666666666666</v>
-      </c>
-      <c r="AC9">
-        <f t="shared" si="11"/>
-        <v>5</v>
-      </c>
-      <c r="AD9">
-        <f t="shared" si="12"/>
-        <v>46</v>
-      </c>
-    </row>
-    <row r="10" spans="3:30">
+        <v>https://www.radios-bolivia.com,bo,bolivia,6</v>
+      </c>
+    </row>
+    <row r="10" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>0</v>
@@ -2161,43 +1897,33 @@
         <f t="shared" si="9"/>
         <v>nederland</v>
       </c>
-      <c r="R10" s="2">
-        <v>28</v>
+      <c r="S10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="T10" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="U10" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="V10" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="W10" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="X10" s="2">
+        <v>32</v>
+      </c>
+      <c r="V10" s="2">
         <v>99</v>
       </c>
-      <c r="Z10" t="s">
+      <c r="W10">
         <v>40</v>
       </c>
-      <c r="AA10">
-        <v>11985</v>
-      </c>
-      <c r="AB10">
+      <c r="X10">
+        <f t="shared" si="11"/>
+        <v>12006</v>
+      </c>
+      <c r="AA10" t="str">
         <f t="shared" si="10"/>
-        <v>98.38333333333334</v>
-      </c>
-      <c r="AC10">
-        <f t="shared" si="11"/>
-        <v>98</v>
-      </c>
-      <c r="AD10">
-        <f t="shared" si="12"/>
-        <v>23.000000000000398</v>
-      </c>
-    </row>
-    <row r="11" spans="3:30">
+        <v>https://www.radio-ao-vivo.com,br,brasil,99</v>
+      </c>
+    </row>
+    <row r="11" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>0</v>
@@ -2246,43 +1972,33 @@
         <f t="shared" si="9"/>
         <v>norge</v>
       </c>
-      <c r="R11" s="2">
-        <v>4</v>
-      </c>
-      <c r="U11" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="V11" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="W11" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="X11" s="2">
+      <c r="S11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="T11" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="Z11" t="s">
-        <v>45</v>
-      </c>
-      <c r="AA11">
-        <v>14031</v>
-      </c>
-      <c r="AB11">
+      <c r="U11" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="V11" s="2">
+        <v>35</v>
+      </c>
+      <c r="W11">
+        <v>8</v>
+      </c>
+      <c r="X11">
+        <f t="shared" si="11"/>
+        <v>14054</v>
+      </c>
+      <c r="AA11" t="str">
         <f t="shared" si="10"/>
-        <v>34.1</v>
-      </c>
-      <c r="AC11">
-        <f t="shared" si="11"/>
-        <v>34</v>
-      </c>
-      <c r="AD11">
-        <f t="shared" si="12"/>
-        <v>6.0000000000000853</v>
-      </c>
-    </row>
-    <row r="12" spans="3:30">
+        <v>https://www.canadaradiostations.com,ca,canada,35</v>
+      </c>
+    </row>
+    <row r="12" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>0</v>
@@ -2331,43 +2047,33 @@
         <f t="shared" si="9"/>
         <v>españa</v>
       </c>
-      <c r="R12" s="2">
-        <v>44</v>
+      <c r="S12" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="T12" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="U12" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="V12" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="W12" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="X12" s="2">
+        <v>40</v>
+      </c>
+      <c r="V12" s="2">
         <v>10</v>
       </c>
-      <c r="Z12" t="s">
-        <v>50</v>
-      </c>
-      <c r="AA12">
-        <v>14576</v>
-      </c>
-      <c r="AB12">
+      <c r="W12">
+        <v>5</v>
+      </c>
+      <c r="X12">
+        <f t="shared" si="11"/>
+        <v>14599</v>
+      </c>
+      <c r="AA12" t="str">
         <f t="shared" si="10"/>
-        <v>9.0833333333333339</v>
-      </c>
-      <c r="AC12">
-        <f t="shared" si="11"/>
-        <v>9</v>
-      </c>
-      <c r="AD12">
-        <f t="shared" si="12"/>
-        <v>5.0000000000000355</v>
-      </c>
-    </row>
-    <row r="13" spans="3:30">
+        <v>https://www.internetradio-schweiz.ch,ch,schweiz,10</v>
+      </c>
+    </row>
+    <row r="13" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>0</v>
@@ -2416,43 +2122,33 @@
         <f t="shared" si="9"/>
         <v>sverige</v>
       </c>
-      <c r="R13" s="2">
-        <v>6</v>
+      <c r="S13" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="T13" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="U13" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="V13" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="W13" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="X13" s="2">
+        <v>44</v>
+      </c>
+      <c r="V13" s="2">
         <v>27</v>
       </c>
-      <c r="Z13" t="s">
-        <v>55</v>
-      </c>
-      <c r="AA13">
-        <v>16153</v>
-      </c>
-      <c r="AB13">
+      <c r="W13">
+        <v>23</v>
+      </c>
+      <c r="X13">
+        <f t="shared" si="11"/>
+        <v>16182</v>
+      </c>
+      <c r="AA13" t="str">
         <f t="shared" si="10"/>
-        <v>26.283333333333335</v>
-      </c>
-      <c r="AC13">
-        <f t="shared" si="11"/>
-        <v>26</v>
-      </c>
-      <c r="AD13">
-        <f t="shared" si="12"/>
-        <v>17.000000000000099</v>
-      </c>
-    </row>
-    <row r="14" spans="3:30">
+        <v>https://www.radios-chilenas.com,cl,chile,27</v>
+      </c>
+    </row>
+    <row r="14" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>0</v>
@@ -2501,43 +2197,33 @@
         <f t="shared" si="9"/>
         <v>schweiz</v>
       </c>
-      <c r="R14" s="2">
-        <v>10</v>
+      <c r="S14" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="T14" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="U14" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="V14" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="W14" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="X14" s="2">
+        <v>48</v>
+      </c>
+      <c r="V14" s="2">
         <v>37</v>
       </c>
-      <c r="Z14" t="s">
-        <v>60</v>
-      </c>
-      <c r="AA14">
-        <v>18341</v>
-      </c>
-      <c r="AB14">
+      <c r="W14">
+        <v>45</v>
+      </c>
+      <c r="X14">
+        <f t="shared" si="11"/>
+        <v>18387</v>
+      </c>
+      <c r="AA14" t="str">
         <f t="shared" si="10"/>
-        <v>36.466666666666669</v>
-      </c>
-      <c r="AC14">
-        <f t="shared" si="11"/>
-        <v>36</v>
-      </c>
-      <c r="AD14">
-        <f t="shared" si="12"/>
-        <v>28.000000000000114</v>
-      </c>
-    </row>
-    <row r="15" spans="3:30">
+        <v>https://www.emisorascolombianas.co,co,colombia,37</v>
+      </c>
+    </row>
+    <row r="15" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>0</v>
@@ -2586,43 +2272,33 @@
         <f t="shared" si="9"/>
         <v>uk</v>
       </c>
-      <c r="R15" s="2">
-        <v>61</v>
+      <c r="S15" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="T15" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="U15" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="V15" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="W15" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="X15" s="2">
+        <v>52</v>
+      </c>
+      <c r="V15" s="2">
         <v>6</v>
       </c>
-      <c r="Z15" t="s">
-        <v>65</v>
-      </c>
-      <c r="AA15">
-        <v>18681</v>
-      </c>
-      <c r="AB15">
+      <c r="W15">
+        <v>42</v>
+      </c>
+      <c r="X15">
+        <f t="shared" si="11"/>
+        <v>18729</v>
+      </c>
+      <c r="AA15" t="str">
         <f t="shared" si="10"/>
-        <v>5.666666666666667</v>
-      </c>
-      <c r="AC15">
-        <f t="shared" si="11"/>
-        <v>5</v>
-      </c>
-      <c r="AD15">
-        <f t="shared" ref="AD15:AD16" si="13">+(AB15-AC15)*60</f>
-        <v>40.000000000000014</v>
-      </c>
-    </row>
-    <row r="16" spans="3:30">
+        <v>https://www.radioscostarica.org,cr,costa rica,6</v>
+      </c>
+    </row>
+    <row r="16" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>0</v>
@@ -2671,43 +2347,33 @@
         <f t="shared" si="9"/>
         <v>polska</v>
       </c>
-      <c r="R16" s="2">
-        <v>12</v>
+      <c r="S16" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="T16" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="U16" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="V16" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="W16" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="X16" s="2">
+        <v>56</v>
+      </c>
+      <c r="V16" s="2">
         <v>4</v>
       </c>
-      <c r="Z16" t="s">
-        <v>70</v>
-      </c>
-      <c r="AA16">
-        <v>18881</v>
-      </c>
-      <c r="AB16">
+      <c r="W16">
+        <v>22</v>
+      </c>
+      <c r="X16">
+        <f t="shared" si="11"/>
+        <v>18931</v>
+      </c>
+      <c r="AA16" t="str">
         <f t="shared" si="10"/>
-        <v>3.3333333333333335</v>
-      </c>
-      <c r="AC16">
-        <f t="shared" si="11"/>
-        <v>3</v>
-      </c>
-      <c r="AD16">
-        <f t="shared" si="13"/>
-        <v>20.000000000000007</v>
-      </c>
-    </row>
-    <row r="17" spans="3:30">
+        <v>https://www.radiaonline.org,cz,czech,4</v>
+      </c>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>0</v>
@@ -2756,43 +2422,33 @@
         <f t="shared" si="9"/>
         <v>portugal</v>
       </c>
-      <c r="R17" s="2">
-        <v>10</v>
+      <c r="S17" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="T17" s="2" t="s">
+        <v>59</v>
       </c>
       <c r="U17" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="V17" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="W17" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="X17" s="2">
+        <v>60</v>
+      </c>
+      <c r="V17" s="2">
         <v>59</v>
       </c>
-      <c r="Z17" t="s">
-        <v>75</v>
-      </c>
-      <c r="AA17">
-        <v>22390</v>
-      </c>
-      <c r="AB17">
+      <c r="W17">
+        <v>34</v>
+      </c>
+      <c r="X17">
+        <f t="shared" si="11"/>
+        <v>22445</v>
+      </c>
+      <c r="AA17" t="str">
         <f t="shared" si="10"/>
-        <v>58.483333333333334</v>
-      </c>
-      <c r="AC17">
-        <f t="shared" si="11"/>
-        <v>58</v>
-      </c>
-      <c r="AD17">
-        <f t="shared" ref="AD17" si="14">+(AB17-AC17)*60</f>
-        <v>29.000000000000057</v>
-      </c>
-    </row>
-    <row r="18" spans="3:30">
+        <v>https://www.internetradio-horen.de,de,deutschland,59</v>
+      </c>
+    </row>
+    <row r="18" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>0</v>
@@ -2841,43 +2497,33 @@
         <f t="shared" si="9"/>
         <v>croatia</v>
       </c>
-      <c r="R18" s="2">
-        <v>4</v>
+      <c r="S18" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="T18" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="U18" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="V18" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="W18" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="X18" s="2">
+        <v>64</v>
+      </c>
+      <c r="V18" s="2">
         <v>5</v>
       </c>
-      <c r="Z18" t="s">
-        <v>80</v>
-      </c>
-      <c r="AA18">
-        <v>22633</v>
-      </c>
-      <c r="AB18">
+      <c r="W18">
+        <v>6</v>
+      </c>
+      <c r="X18">
+        <f t="shared" si="11"/>
+        <v>22691</v>
+      </c>
+      <c r="AA18" t="str">
         <f t="shared" si="10"/>
-        <v>4.05</v>
-      </c>
-      <c r="AC18">
-        <f t="shared" si="11"/>
-        <v>4</v>
-      </c>
-      <c r="AD18">
-        <f t="shared" ref="AD18:AD65" si="15">+(AB18-AC18)*60</f>
-        <v>2.9999999999999893</v>
-      </c>
-    </row>
-    <row r="19" spans="3:30">
+        <v>https://www.radio-danmark.dk,dk,danmark,5</v>
+      </c>
+    </row>
+    <row r="19" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>0</v>
@@ -2926,43 +2572,33 @@
         <f t="shared" si="9"/>
         <v>ukraine</v>
       </c>
-      <c r="R19" s="2">
-        <v>5</v>
+      <c r="S19" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="T19" s="2" t="s">
+        <v>67</v>
       </c>
       <c r="U19" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="V19" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="W19" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="X19" s="2">
+        <v>68</v>
+      </c>
+      <c r="V19" s="2">
         <v>13</v>
       </c>
-      <c r="Z19" t="s">
-        <v>85</v>
-      </c>
-      <c r="AA19">
-        <v>23395</v>
-      </c>
-      <c r="AB19">
+      <c r="W19">
+        <v>50</v>
+      </c>
+      <c r="X19">
+        <f t="shared" si="11"/>
+        <v>23461</v>
+      </c>
+      <c r="AA19" t="str">
         <f t="shared" si="10"/>
-        <v>12.7</v>
-      </c>
-      <c r="AC19">
-        <f t="shared" si="11"/>
-        <v>12</v>
-      </c>
-      <c r="AD19">
-        <f t="shared" si="15"/>
-        <v>41.999999999999957</v>
-      </c>
-    </row>
-    <row r="20" spans="3:30">
+        <v>https://www.radio-dominicana.com,do,domican republic,13</v>
+      </c>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>0</v>
@@ -3011,43 +2647,33 @@
         <f t="shared" si="9"/>
         <v>romania</v>
       </c>
-      <c r="R20" s="2">
-        <v>11</v>
+      <c r="S20" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="T20" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="U20" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="V20" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="W20" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="X20" s="2">
+        <v>72</v>
+      </c>
+      <c r="V20" s="2">
         <v>17</v>
       </c>
-      <c r="Z20" t="s">
-        <v>90</v>
-      </c>
-      <c r="AA20">
-        <v>24381</v>
-      </c>
-      <c r="AB20">
+      <c r="W20">
+        <v>27</v>
+      </c>
+      <c r="X20">
+        <f t="shared" si="11"/>
+        <v>24448</v>
+      </c>
+      <c r="AA20" t="str">
         <f t="shared" si="10"/>
-        <v>16.433333333333334</v>
-      </c>
-      <c r="AC20">
-        <f t="shared" si="11"/>
-        <v>16</v>
-      </c>
-      <c r="AD20">
-        <f t="shared" si="15"/>
-        <v>26.000000000000014</v>
-      </c>
-    </row>
-    <row r="21" spans="3:30">
+        <v>https://www.radio-ecuador.org,ec,ecuador,17</v>
+      </c>
+    </row>
+    <row r="21" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>0</v>
@@ -3096,43 +2722,33 @@
         <f t="shared" si="9"/>
         <v>ireland</v>
       </c>
-      <c r="R21" s="2">
-        <v>5</v>
+      <c r="S21" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="T21" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="U21" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="V21" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="W21" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="X21" s="2">
+        <v>76</v>
+      </c>
+      <c r="V21" s="2">
         <v>44</v>
       </c>
-      <c r="Z21" t="s">
-        <v>95</v>
-      </c>
-      <c r="AA21">
-        <v>26974</v>
-      </c>
-      <c r="AB21">
+      <c r="W21">
+        <v>22</v>
+      </c>
+      <c r="X21">
+        <f t="shared" si="11"/>
+        <v>27050</v>
+      </c>
+      <c r="AA21" t="str">
         <f t="shared" si="10"/>
-        <v>43.216666666666669</v>
-      </c>
-      <c r="AC21">
-        <f t="shared" si="11"/>
-        <v>43</v>
-      </c>
-      <c r="AD21">
-        <f t="shared" si="15"/>
-        <v>13.000000000000114</v>
-      </c>
-    </row>
-    <row r="22" spans="3:30">
+        <v>https://www.radio-espana.es,es,españa,44</v>
+      </c>
+    </row>
+    <row r="22" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>0</v>
@@ -3181,43 +2797,33 @@
         <f t="shared" si="9"/>
         <v>bulgaria</v>
       </c>
-      <c r="R22" s="2">
+      <c r="S22" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="T22" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="U22" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="V22" s="2">
         <v>3</v>
       </c>
-      <c r="U22" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="V22" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="W22" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="X22" s="2">
-        <v>3</v>
-      </c>
-      <c r="Z22" t="s">
-        <v>100</v>
-      </c>
-      <c r="AA22">
-        <v>27101</v>
-      </c>
-      <c r="AB22">
+      <c r="W22">
+        <v>7</v>
+      </c>
+      <c r="X22">
+        <f t="shared" si="11"/>
+        <v>27177</v>
+      </c>
+      <c r="AA22" t="str">
         <f t="shared" si="10"/>
-        <v>2.1166666666666667</v>
-      </c>
-      <c r="AC22">
-        <f t="shared" si="11"/>
-        <v>2</v>
-      </c>
-      <c r="AD22">
-        <f t="shared" si="15"/>
-        <v>7.0000000000000018</v>
-      </c>
-    </row>
-    <row r="23" spans="3:30">
+        <v>https://www.radio-suomi.com,fi,finland,3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>0</v>
@@ -3266,43 +2872,33 @@
         <f t="shared" si="9"/>
         <v>czech</v>
       </c>
-      <c r="R23" s="2">
-        <v>4</v>
+      <c r="S23" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="T23" s="2" t="s">
+        <v>83</v>
       </c>
       <c r="U23" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="V23" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="W23" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="X23" s="2">
+        <v>84</v>
+      </c>
+      <c r="V23" s="2">
         <v>62</v>
       </c>
-      <c r="Z23" t="s">
-        <v>105</v>
-      </c>
-      <c r="AA23">
-        <v>30772</v>
-      </c>
-      <c r="AB23">
+      <c r="W23">
+        <v>24</v>
+      </c>
+      <c r="X23">
+        <f t="shared" si="11"/>
+        <v>30861</v>
+      </c>
+      <c r="AA23" t="str">
         <f t="shared" si="10"/>
-        <v>61.18333333333333</v>
-      </c>
-      <c r="AC23">
-        <f t="shared" si="11"/>
-        <v>61</v>
-      </c>
-      <c r="AD23">
-        <f t="shared" si="15"/>
-        <v>10.999999999999801</v>
-      </c>
-    </row>
-    <row r="24" spans="3:30">
+        <v>https://www.radio-en-ligne.fr,fr,france,62</v>
+      </c>
+    </row>
+    <row r="24" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
-        <v>106</v>
+        <v>85</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>0</v>
@@ -3351,43 +2947,33 @@
         <f t="shared" si="9"/>
         <v>srbija</v>
       </c>
-      <c r="R24" s="2">
-        <v>5</v>
+      <c r="S24" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="T24" s="2" t="s">
+        <v>87</v>
       </c>
       <c r="U24" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="V24" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="W24" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="X24" s="2">
+        <v>88</v>
+      </c>
+      <c r="V24" s="2">
         <v>61</v>
       </c>
-      <c r="Z24" t="s">
-        <v>110</v>
-      </c>
-      <c r="AA24">
-        <v>34393</v>
-      </c>
-      <c r="AB24">
+      <c r="W24">
+        <v>26</v>
+      </c>
+      <c r="X24">
+        <f t="shared" si="11"/>
+        <v>34487</v>
+      </c>
+      <c r="AA24" t="str">
         <f t="shared" si="10"/>
-        <v>60.35</v>
-      </c>
-      <c r="AC24">
-        <f t="shared" si="11"/>
-        <v>60</v>
-      </c>
-      <c r="AD24">
-        <f t="shared" si="15"/>
-        <v>21.000000000000085</v>
-      </c>
-    </row>
-    <row r="25" spans="3:30">
+        <v>https://www.radio-uk.co.uk,gb,uk,61</v>
+      </c>
+    </row>
+    <row r="25" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
-        <v>111</v>
+        <v>89</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>0</v>
@@ -3436,43 +3022,33 @@
         <f t="shared" si="9"/>
         <v>magyarorszag</v>
       </c>
-      <c r="R25" s="2">
-        <v>8</v>
+      <c r="S25" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="T25" s="2" t="s">
+        <v>91</v>
       </c>
       <c r="U25" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="V25" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="W25" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="X25" s="2">
+        <v>92</v>
+      </c>
+      <c r="V25" s="2">
         <v>9</v>
       </c>
-      <c r="Z25" t="s">
-        <v>115</v>
-      </c>
-      <c r="AA25">
-        <v>34926</v>
-      </c>
-      <c r="AB25">
+      <c r="W25">
+        <v>54</v>
+      </c>
+      <c r="X25">
+        <f t="shared" si="11"/>
+        <v>35021</v>
+      </c>
+      <c r="AA25" t="str">
         <f t="shared" si="10"/>
-        <v>8.8833333333333329</v>
-      </c>
-      <c r="AC25">
-        <f t="shared" si="11"/>
-        <v>8</v>
-      </c>
-      <c r="AD25">
-        <f t="shared" si="15"/>
-        <v>52.999999999999972</v>
-      </c>
-    </row>
-    <row r="26" spans="3:30">
+        <v>https://www.radio-ghana.org,gh,ghana,9</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
-        <v>116</v>
+        <v>93</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>0</v>
@@ -3521,43 +3097,33 @@
         <f t="shared" si="9"/>
         <v>slovenija</v>
       </c>
-      <c r="R26" s="2">
-        <v>2</v>
+      <c r="S26" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="T26" s="2" t="s">
+        <v>95</v>
       </c>
       <c r="U26" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="V26" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="W26" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="X26" s="2">
+        <v>96</v>
+      </c>
+      <c r="V26" s="2">
         <v>19</v>
       </c>
-      <c r="Z26" t="s">
-        <v>120</v>
-      </c>
-      <c r="AA26">
-        <v>36024</v>
-      </c>
-      <c r="AB26">
+      <c r="W26">
+        <v>19</v>
+      </c>
+      <c r="X26">
+        <f t="shared" si="11"/>
+        <v>36120</v>
+      </c>
+      <c r="AA26" t="str">
         <f t="shared" si="10"/>
-        <v>18.3</v>
-      </c>
-      <c r="AC26">
-        <f t="shared" si="11"/>
-        <v>18</v>
-      </c>
-      <c r="AD26">
-        <f t="shared" si="15"/>
-        <v>18.000000000000043</v>
-      </c>
-    </row>
-    <row r="27" spans="3:30">
+        <v>https://www.greek-radio.org,gr,greece,19</v>
+      </c>
+    </row>
+    <row r="27" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
-        <v>121</v>
+        <v>97</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>0</v>
@@ -3606,43 +3172,33 @@
         <f t="shared" si="9"/>
         <v>greece</v>
       </c>
-      <c r="R27" s="2">
-        <v>19</v>
+      <c r="S27" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="T27" s="2" t="s">
+        <v>99</v>
       </c>
       <c r="U27" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="V27" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="W27" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="X27" s="2">
+        <v>100</v>
+      </c>
+      <c r="V27" s="2">
         <v>18</v>
       </c>
-      <c r="Z27" t="s">
-        <v>125</v>
-      </c>
-      <c r="AA27">
-        <v>37074</v>
-      </c>
-      <c r="AB27">
+      <c r="W27">
+        <v>34</v>
+      </c>
+      <c r="X27">
+        <f t="shared" si="11"/>
+        <v>37174</v>
+      </c>
+      <c r="AA27" t="str">
         <f t="shared" si="10"/>
-        <v>17.5</v>
-      </c>
-      <c r="AC27">
-        <f t="shared" si="11"/>
-        <v>17</v>
-      </c>
-      <c r="AD27">
-        <f t="shared" si="15"/>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="28" spans="3:30">
+        <v>https://www.radios-guatemala.com,gt,guatemala,18</v>
+      </c>
+    </row>
+    <row r="28" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>0</v>
@@ -3688,45 +3244,35 @@
       </c>
       <c r="P28" s="2"/>
       <c r="Q28" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="R28" s="2">
-        <v>35</v>
+        <v>36</v>
+      </c>
+      <c r="S28" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="T28" s="2" t="s">
+        <v>103</v>
       </c>
       <c r="U28" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="V28" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="W28" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="X28" s="2">
+        <v>103</v>
+      </c>
+      <c r="V28" s="2">
         <v>1</v>
       </c>
-      <c r="Z28" t="s">
-        <v>129</v>
-      </c>
-      <c r="AA28">
-        <v>37114</v>
-      </c>
-      <c r="AB28">
+      <c r="W28">
+        <v>33</v>
+      </c>
+      <c r="X28">
+        <f t="shared" si="11"/>
+        <v>37207</v>
+      </c>
+      <c r="AA28" t="str">
         <f t="shared" si="10"/>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="AC28">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AD28">
-        <f t="shared" si="15"/>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="29" spans="3:30">
+        <v>https://www.radio-hk.com,hk,hk,1</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
-        <v>130</v>
+        <v>104</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>0</v>
@@ -3775,43 +3321,33 @@
         <f t="shared" si="9"/>
         <v>mexico</v>
       </c>
-      <c r="R29" s="2">
-        <v>40</v>
+      <c r="S29" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="T29" s="2" t="s">
+        <v>106</v>
       </c>
       <c r="U29" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="V29" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="W29" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="X29" s="2">
+        <v>107</v>
+      </c>
+      <c r="V29" s="2">
         <v>6</v>
       </c>
-      <c r="Z29" t="s">
-        <v>134</v>
-      </c>
-      <c r="AA29">
-        <v>37429</v>
-      </c>
-      <c r="AB29">
+      <c r="W29">
+        <v>16</v>
+      </c>
+      <c r="X29">
+        <f t="shared" si="11"/>
+        <v>37523</v>
+      </c>
+      <c r="AA29" t="str">
         <f t="shared" si="10"/>
-        <v>5.25</v>
-      </c>
-      <c r="AC29">
-        <f t="shared" si="11"/>
-        <v>5</v>
-      </c>
-      <c r="AD29">
-        <f t="shared" si="15"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="30" spans="3:30">
+        <v>https://www.emisoras-de-honduras.com,hn,honduras,6</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
-        <v>135</v>
+        <v>108</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>0</v>
@@ -3860,43 +3396,33 @@
         <f t="shared" si="9"/>
         <v>us</v>
       </c>
-      <c r="R30" s="2">
-        <v>357</v>
+      <c r="S30" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="T30" s="2" t="s">
+        <v>110</v>
       </c>
       <c r="U30" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="V30" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="W30" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="X30" s="2">
+        <v>111</v>
+      </c>
+      <c r="V30" s="2">
         <v>4</v>
       </c>
-      <c r="Z30" t="s">
-        <v>139</v>
-      </c>
-      <c r="AA30">
-        <v>37662</v>
-      </c>
-      <c r="AB30">
+      <c r="W30">
+        <v>53</v>
+      </c>
+      <c r="X30">
+        <f t="shared" si="11"/>
+        <v>37756</v>
+      </c>
+      <c r="AA30" t="str">
         <f t="shared" si="10"/>
-        <v>3.8833333333333333</v>
-      </c>
-      <c r="AC30">
-        <f t="shared" si="11"/>
-        <v>3</v>
-      </c>
-      <c r="AD30">
-        <f t="shared" si="15"/>
-        <v>53</v>
-      </c>
-    </row>
-    <row r="31" spans="3:30">
+        <v>https://www.radio-hrvatska.com,hr,croatia,4</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
-        <v>140</v>
+        <v>112</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>0</v>
@@ -3945,43 +3471,33 @@
         <f t="shared" si="9"/>
         <v>trinidad</v>
       </c>
-      <c r="R31" s="2">
-        <v>2</v>
+      <c r="S31" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="T31" s="2" t="s">
+        <v>114</v>
       </c>
       <c r="U31" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="V31" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="W31" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="X31" s="2">
+        <v>115</v>
+      </c>
+      <c r="V31" s="2">
         <v>8</v>
       </c>
-      <c r="Z31" t="s">
-        <v>144</v>
-      </c>
-      <c r="AA31">
-        <v>38091</v>
-      </c>
-      <c r="AB31">
+      <c r="W31">
+        <v>9</v>
+      </c>
+      <c r="X31">
+        <f t="shared" si="11"/>
+        <v>38185</v>
+      </c>
+      <c r="AA31" t="str">
         <f t="shared" si="10"/>
-        <v>7.15</v>
-      </c>
-      <c r="AC31">
-        <f t="shared" si="11"/>
-        <v>7</v>
-      </c>
-      <c r="AD31">
-        <f t="shared" si="15"/>
-        <v>9.0000000000000213</v>
-      </c>
-    </row>
-    <row r="32" spans="3:30">
+        <v>https://www.onlineradiok.org,hu,magyarorszag,8</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
-        <v>145</v>
+        <v>116</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>0</v>
@@ -4030,43 +3546,33 @@
         <f t="shared" si="9"/>
         <v>jamaica</v>
       </c>
-      <c r="R32" s="2">
-        <v>2</v>
+      <c r="S32" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="T32" s="2" t="s">
+        <v>118</v>
       </c>
       <c r="U32" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="V32" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="W32" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="X32" s="2">
+        <v>119</v>
+      </c>
+      <c r="V32" s="2">
         <v>11</v>
       </c>
-      <c r="Z32" t="s">
-        <v>149</v>
-      </c>
-      <c r="AA32">
-        <v>38730</v>
-      </c>
-      <c r="AB32">
+      <c r="W32">
+        <v>38</v>
+      </c>
+      <c r="X32">
+        <f t="shared" si="11"/>
+        <v>38823</v>
+      </c>
+      <c r="AA32" t="str">
         <f t="shared" si="10"/>
-        <v>10.65</v>
-      </c>
-      <c r="AC32">
-        <f t="shared" si="11"/>
-        <v>10</v>
-      </c>
-      <c r="AD32">
-        <f t="shared" si="15"/>
-        <v>39.000000000000021</v>
-      </c>
-    </row>
-    <row r="33" spans="3:30">
+        <v>https://www.radioindonesia.org,id,indonesia,11</v>
+      </c>
+    </row>
+    <row r="33" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>0</v>
@@ -4115,43 +3621,33 @@
         <f t="shared" si="9"/>
         <v>nicaragua</v>
       </c>
-      <c r="R33" s="2">
-        <v>4</v>
+      <c r="S33" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="T33" s="2" t="s">
+        <v>122</v>
       </c>
       <c r="U33" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="V33" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="W33" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="X33" s="2">
+        <v>123</v>
+      </c>
+      <c r="V33" s="2">
         <v>5</v>
       </c>
-      <c r="Z33" t="s">
-        <v>154</v>
-      </c>
-      <c r="AA33">
-        <v>39022</v>
-      </c>
-      <c r="AB33">
+      <c r="W33">
+        <v>54</v>
+      </c>
+      <c r="X33">
+        <f t="shared" si="11"/>
+        <v>39117</v>
+      </c>
+      <c r="AA33" t="str">
         <f t="shared" si="10"/>
-        <v>4.8666666666666663</v>
-      </c>
-      <c r="AC33">
-        <f t="shared" si="11"/>
-        <v>4</v>
-      </c>
-      <c r="AD33">
-        <f t="shared" si="15"/>
-        <v>51.999999999999972</v>
-      </c>
-    </row>
-    <row r="34" spans="3:30">
+        <v>https://www.radio-ireland.com,ie,ireland,5</v>
+      </c>
+    </row>
+    <row r="34" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
-        <v>155</v>
+        <v>124</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>0</v>
@@ -4200,43 +3696,33 @@
         <f t="shared" si="9"/>
         <v>salvador</v>
       </c>
-      <c r="R34" s="2">
-        <v>6</v>
+      <c r="S34" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="T34" s="2" t="s">
+        <v>126</v>
       </c>
       <c r="U34" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="V34" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="W34" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="X34" s="2">
+        <v>127</v>
+      </c>
+      <c r="V34" s="2">
         <v>4</v>
       </c>
-      <c r="Z34" t="s">
-        <v>159</v>
-      </c>
-      <c r="AA34">
-        <v>39254</v>
-      </c>
-      <c r="AB34">
+      <c r="W34">
+        <v>53</v>
+      </c>
+      <c r="X34">
+        <f t="shared" si="11"/>
+        <v>39350</v>
+      </c>
+      <c r="AA34" t="str">
         <f t="shared" si="10"/>
-        <v>3.8666666666666667</v>
-      </c>
-      <c r="AC34">
-        <f t="shared" si="11"/>
-        <v>3</v>
-      </c>
-      <c r="AD34">
-        <f t="shared" si="15"/>
-        <v>52</v>
-      </c>
-    </row>
-    <row r="35" spans="3:30">
+        <v>https://www.radio-israel.org,il,Israel,4</v>
+      </c>
+    </row>
+    <row r="35" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
-        <v>160</v>
+        <v>128</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>0</v>
@@ -4285,43 +3771,36 @@
         <f t="shared" si="9"/>
         <v>honduras</v>
       </c>
-      <c r="R35" s="2">
-        <v>6</v>
+      <c r="S35" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="T35" s="2" t="s">
+        <v>130</v>
       </c>
       <c r="U35" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="V35" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="W35" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="X35" s="2">
+        <v>131</v>
+      </c>
+      <c r="V35" s="2">
         <v>17</v>
       </c>
-      <c r="Z35" t="s">
-        <v>164</v>
-      </c>
-      <c r="AA35">
-        <v>40244</v>
-      </c>
-      <c r="AB35">
+      <c r="W35">
+        <v>30</v>
+      </c>
+      <c r="X35">
+        <f t="shared" si="11"/>
+        <v>40340</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>267</v>
+      </c>
+      <c r="AA35" t="str">
         <f t="shared" si="10"/>
-        <v>16.5</v>
-      </c>
-      <c r="AC35">
-        <f t="shared" si="11"/>
-        <v>16</v>
-      </c>
-      <c r="AD35">
-        <f t="shared" si="15"/>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="36" spans="3:30">
+        <v>https://www.radioindia.in,in,india,17</v>
+      </c>
+    </row>
+    <row r="36" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
-        <v>165</v>
+        <v>132</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>0</v>
@@ -4370,43 +3849,33 @@
         <f t="shared" si="9"/>
         <v>argentina</v>
       </c>
-      <c r="R36" s="2">
-        <v>30</v>
+      <c r="S36" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="T36" s="2" t="s">
+        <v>134</v>
       </c>
       <c r="U36" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="V36" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="W36" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="X36" s="2">
+        <v>135</v>
+      </c>
+      <c r="V36" s="2">
         <v>40</v>
       </c>
-      <c r="Z36" t="s">
-        <v>169</v>
-      </c>
-      <c r="AA36">
-        <v>42607</v>
-      </c>
-      <c r="AB36">
+      <c r="W36">
+        <v>32</v>
+      </c>
+      <c r="X36">
+        <f t="shared" si="11"/>
+        <v>42712</v>
+      </c>
+      <c r="AA36" t="str">
         <f t="shared" si="10"/>
-        <v>39.383333333333333</v>
-      </c>
-      <c r="AC36">
-        <f t="shared" si="11"/>
-        <v>39</v>
-      </c>
-      <c r="AD36">
-        <f t="shared" si="15"/>
-        <v>22.999999999999972</v>
-      </c>
-    </row>
-    <row r="37" spans="3:30">
+        <v>https://www.radio-italiane.it,it,italia,40</v>
+      </c>
+    </row>
+    <row r="37" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
-        <v>170</v>
+        <v>136</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>0</v>
@@ -4455,43 +3924,33 @@
         <f t="shared" si="9"/>
         <v>brasil</v>
       </c>
-      <c r="R37" s="2">
-        <v>99</v>
+      <c r="S37" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="T37" s="2" t="s">
+        <v>138</v>
       </c>
       <c r="U37" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="V37" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="W37" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="X37" s="2">
+        <v>139</v>
+      </c>
+      <c r="V37" s="2">
         <v>2</v>
       </c>
-      <c r="Z37" t="s">
-        <v>174</v>
-      </c>
-      <c r="AA37">
-        <v>42670</v>
-      </c>
-      <c r="AB37">
+      <c r="W37">
+        <v>5</v>
+      </c>
+      <c r="X37">
+        <f t="shared" si="11"/>
+        <v>42777</v>
+      </c>
+      <c r="AA37" t="str">
         <f t="shared" si="10"/>
-        <v>1.05</v>
-      </c>
-      <c r="AC37">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="AD37">
-        <f t="shared" si="15"/>
-        <v>3.0000000000000027</v>
-      </c>
-    </row>
-    <row r="38" spans="3:30">
+        <v>https://www.radio-jamaica.com,jm,jamaica,2</v>
+      </c>
+    </row>
+    <row r="38" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
-        <v>175</v>
+        <v>140</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>0</v>
@@ -4540,43 +3999,33 @@
         <f t="shared" si="9"/>
         <v>chile</v>
       </c>
-      <c r="R38" s="2">
-        <v>27</v>
+      <c r="S38" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="T38" s="2" t="s">
+        <v>142</v>
       </c>
       <c r="U38" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="V38" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="W38" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="X38" s="2">
+        <v>143</v>
+      </c>
+      <c r="V38" s="2">
         <v>6</v>
       </c>
-      <c r="Z38" t="s">
-        <v>179</v>
-      </c>
-      <c r="AA38">
-        <v>43012</v>
-      </c>
-      <c r="AB38">
+      <c r="W38">
+        <v>43</v>
+      </c>
+      <c r="X38">
+        <f t="shared" si="11"/>
+        <v>43120</v>
+      </c>
+      <c r="AA38" t="str">
         <f t="shared" si="10"/>
-        <v>5.7</v>
-      </c>
-      <c r="AC38">
-        <f t="shared" si="11"/>
-        <v>5</v>
-      </c>
-      <c r="AD38">
-        <f t="shared" si="15"/>
-        <v>42.000000000000014</v>
-      </c>
-    </row>
-    <row r="39" spans="3:30">
+        <v>https://www.radiojapan.org,jp,japan,6</v>
+      </c>
+    </row>
+    <row r="39" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
-        <v>180</v>
+        <v>144</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>0</v>
@@ -4625,43 +4074,33 @@
         <f t="shared" si="9"/>
         <v>colombia</v>
       </c>
-      <c r="R39" s="2">
-        <v>37</v>
+      <c r="S39" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="T39" s="2" t="s">
+        <v>146</v>
       </c>
       <c r="U39" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="V39" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="W39" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="X39" s="2">
+        <v>147</v>
+      </c>
+      <c r="V39" s="2">
         <v>3</v>
       </c>
-      <c r="Z39" t="s">
-        <v>184</v>
-      </c>
-      <c r="AA39">
-        <v>43189</v>
-      </c>
-      <c r="AB39">
+      <c r="W39">
+        <v>60</v>
+      </c>
+      <c r="X39">
+        <f t="shared" si="11"/>
+        <v>43300</v>
+      </c>
+      <c r="AA39" t="str">
         <f t="shared" si="10"/>
-        <v>2.95</v>
-      </c>
-      <c r="AC39">
-        <f t="shared" si="11"/>
-        <v>2</v>
-      </c>
-      <c r="AD39">
-        <f t="shared" si="15"/>
-        <v>57.000000000000014</v>
-      </c>
-    </row>
-    <row r="40" spans="3:30">
+        <v>https://www.radio-kenya.com,ke,kenya,3</v>
+      </c>
+    </row>
+    <row r="40" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
-        <v>185</v>
+        <v>148</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>0</v>
@@ -4710,41 +4149,33 @@
         <f t="shared" si="9"/>
         <v>peru</v>
       </c>
-      <c r="R40" s="2"/>
+      <c r="S40" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="T40" s="2" t="s">
+        <v>150</v>
+      </c>
       <c r="U40" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="V40" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="W40" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="X40" s="2">
+        <v>151</v>
+      </c>
+      <c r="V40" s="2">
         <v>3</v>
       </c>
-      <c r="Z40" t="s">
-        <v>189</v>
-      </c>
-      <c r="AA40">
-        <v>43345</v>
-      </c>
-      <c r="AB40">
+      <c r="W40">
+        <v>36</v>
+      </c>
+      <c r="X40">
+        <f t="shared" si="11"/>
+        <v>43456</v>
+      </c>
+      <c r="AA40" t="str">
         <f t="shared" si="10"/>
-        <v>2.6</v>
-      </c>
-      <c r="AC40">
-        <f t="shared" si="11"/>
-        <v>2</v>
-      </c>
-      <c r="AD40">
-        <f t="shared" si="15"/>
-        <v>36.000000000000007</v>
-      </c>
-    </row>
-    <row r="41" spans="3:30">
+        <v>https://www.radio-korea.com,kr,south korea,3</v>
+      </c>
+    </row>
+    <row r="41" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
-        <v>190</v>
+        <v>152</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>0</v>
@@ -4793,41 +4224,33 @@
         <f t="shared" si="9"/>
         <v>ecuador</v>
       </c>
-      <c r="R41" s="2"/>
+      <c r="S41" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="T41" s="2" t="s">
+        <v>154</v>
+      </c>
       <c r="U41" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="V41" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="W41" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="X41" s="2">
+        <v>155</v>
+      </c>
+      <c r="V41" s="2">
         <v>2</v>
       </c>
-      <c r="Z41" t="s">
-        <v>194</v>
-      </c>
-      <c r="AA41">
-        <v>43443</v>
-      </c>
-      <c r="AB41">
+      <c r="W41">
+        <v>39</v>
+      </c>
+      <c r="X41">
+        <f t="shared" si="11"/>
+        <v>43555</v>
+      </c>
+      <c r="AA41" t="str">
         <f t="shared" si="10"/>
-        <v>1.6333333333333333</v>
-      </c>
-      <c r="AC41">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="AD41">
-        <f t="shared" si="15"/>
-        <v>38</v>
-      </c>
-    </row>
-    <row r="42" spans="3:30">
+        <v>https://www.radio-maroc.org,ma,morocco,2</v>
+      </c>
+    </row>
+    <row r="42" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
-        <v>195</v>
+        <v>156</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>0</v>
@@ -4876,41 +4299,33 @@
         <f t="shared" si="9"/>
         <v>uruguay</v>
       </c>
-      <c r="R42" s="2"/>
+      <c r="S42" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="T42" s="2" t="s">
+        <v>158</v>
+      </c>
       <c r="U42" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="V42" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="W42" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="X42" s="2">
+        <v>159</v>
+      </c>
+      <c r="V42" s="2">
         <v>40</v>
       </c>
-      <c r="Z42" t="s">
-        <v>199</v>
-      </c>
-      <c r="AA42">
-        <v>45801</v>
-      </c>
-      <c r="AB42">
+      <c r="W42">
+        <v>36</v>
+      </c>
+      <c r="X42">
+        <f t="shared" si="11"/>
+        <v>45931</v>
+      </c>
+      <c r="AA42" t="str">
         <f t="shared" si="10"/>
-        <v>39.299999999999997</v>
-      </c>
-      <c r="AC42">
-        <f t="shared" si="11"/>
-        <v>39</v>
-      </c>
-      <c r="AD42">
-        <f t="shared" si="15"/>
-        <v>17.999999999999829</v>
-      </c>
-    </row>
-    <row r="43" spans="3:30">
+        <v>https://www.radio-en-vivo.mx,mx,mexico,40</v>
+      </c>
+    </row>
+    <row r="43" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>0</v>
@@ -4959,41 +4374,33 @@
         <f t="shared" si="9"/>
         <v>guatemala</v>
       </c>
-      <c r="R43" s="2"/>
+      <c r="S43" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="T43" s="2" t="s">
+        <v>162</v>
+      </c>
       <c r="U43" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="V43" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="W43" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="X43" s="2">
+        <v>163</v>
+      </c>
+      <c r="V43" s="2">
         <v>2</v>
       </c>
-      <c r="Z43" t="s">
-        <v>204</v>
-      </c>
-      <c r="AA43">
-        <v>45911</v>
-      </c>
-      <c r="AB43">
+      <c r="W43">
+        <v>50</v>
+      </c>
+      <c r="X43">
+        <f t="shared" si="11"/>
+        <v>46041</v>
+      </c>
+      <c r="AA43" t="str">
         <f t="shared" si="10"/>
-        <v>1.8333333333333333</v>
-      </c>
-      <c r="AC43">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="AD43">
-        <f t="shared" si="15"/>
-        <v>49.999999999999993</v>
-      </c>
-    </row>
-    <row r="44" spans="3:30">
+        <v>https://www.radiomalaysia.org,my,malaysia,2</v>
+      </c>
+    </row>
+    <row r="44" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
-        <v>205</v>
+        <v>164</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>0</v>
@@ -5042,41 +4449,33 @@
         <f t="shared" si="9"/>
         <v>venezuela</v>
       </c>
-      <c r="R44" s="2"/>
+      <c r="S44" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="T44" s="2" t="s">
+        <v>166</v>
+      </c>
       <c r="U44" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="V44" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="W44" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="X44" s="2">
+        <v>167</v>
+      </c>
+      <c r="V44" s="2">
         <v>6</v>
       </c>
-      <c r="Z44" t="s">
-        <v>209</v>
-      </c>
-      <c r="AA44">
-        <v>46243</v>
-      </c>
-      <c r="AB44">
+      <c r="W44">
+        <v>33</v>
+      </c>
+      <c r="X44">
+        <f t="shared" si="11"/>
+        <v>46374</v>
+      </c>
+      <c r="AA44" t="str">
         <f t="shared" si="10"/>
-        <v>5.5333333333333332</v>
-      </c>
-      <c r="AC44">
-        <f t="shared" si="11"/>
-        <v>5</v>
-      </c>
-      <c r="AD44">
-        <f t="shared" si="15"/>
-        <v>31.999999999999993</v>
-      </c>
-    </row>
-    <row r="45" spans="3:30">
+        <v>https://www.radio-nigeria.com,ng,Nigeria,6</v>
+      </c>
+    </row>
+    <row r="45" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
-        <v>210</v>
+        <v>168</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>0</v>
@@ -5125,41 +4524,33 @@
         <f t="shared" si="9"/>
         <v>puerto rico</v>
       </c>
-      <c r="R45" s="2"/>
+      <c r="S45" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="T45" s="2" t="s">
+        <v>170</v>
+      </c>
       <c r="U45" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="V45" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="W45" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="X45" s="2">
+        <v>171</v>
+      </c>
+      <c r="V45" s="2">
         <v>4</v>
       </c>
-      <c r="Z45" t="s">
-        <v>214</v>
-      </c>
-      <c r="AA45">
-        <v>46441</v>
-      </c>
-      <c r="AB45">
+      <c r="W45">
+        <v>20</v>
+      </c>
+      <c r="X45">
+        <f t="shared" si="11"/>
+        <v>46574</v>
+      </c>
+      <c r="AA45" t="str">
         <f t="shared" si="10"/>
-        <v>3.3</v>
-      </c>
-      <c r="AC45">
-        <f t="shared" si="11"/>
-        <v>3</v>
-      </c>
-      <c r="AD45">
-        <f t="shared" si="15"/>
-        <v>17.999999999999989</v>
-      </c>
-    </row>
-    <row r="46" spans="3:30">
+        <v>https://www.radiosdenicaragua.org,ni,nicaragua,4</v>
+      </c>
+    </row>
+    <row r="46" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
-        <v>215</v>
+        <v>172</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>0</v>
@@ -5208,41 +4599,33 @@
         <f t="shared" si="9"/>
         <v>domican republic</v>
       </c>
-      <c r="R46" s="2"/>
+      <c r="S46" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="T46" s="2" t="s">
+        <v>174</v>
+      </c>
       <c r="U46" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="V46" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="W46" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="X46" s="2">
+        <v>175</v>
+      </c>
+      <c r="V46" s="2">
         <v>28</v>
       </c>
-      <c r="Z46" t="s">
-        <v>219</v>
-      </c>
-      <c r="AA46">
-        <v>48084</v>
-      </c>
-      <c r="AB46">
+      <c r="W46">
+        <v>27</v>
+      </c>
+      <c r="X46">
+        <f t="shared" si="11"/>
+        <v>48221</v>
+      </c>
+      <c r="AA46" t="str">
         <f t="shared" si="10"/>
-        <v>27.383333333333333</v>
-      </c>
-      <c r="AC46">
-        <f t="shared" si="11"/>
-        <v>27</v>
-      </c>
-      <c r="AD46">
-        <f t="shared" si="15"/>
-        <v>22.999999999999972</v>
-      </c>
-    </row>
-    <row r="47" spans="3:30">
+        <v>https://www.radio-nederland.nl,nl,nederland,28</v>
+      </c>
+    </row>
+    <row r="47" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
-        <v>220</v>
+        <v>176</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>0</v>
@@ -5291,41 +4674,33 @@
         <f t="shared" si="9"/>
         <v>bolivia</v>
       </c>
-      <c r="R47" s="2"/>
+      <c r="S47" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="T47" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="U47" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="V47" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="W47" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="X47" s="2">
+        <v>179</v>
+      </c>
+      <c r="V47" s="2">
         <v>4</v>
       </c>
-      <c r="Z47" t="s">
-        <v>224</v>
-      </c>
-      <c r="AA47">
-        <v>48294</v>
-      </c>
-      <c r="AB47">
+      <c r="W47">
+        <v>30</v>
+      </c>
+      <c r="X47">
+        <f t="shared" si="11"/>
+        <v>48431</v>
+      </c>
+      <c r="AA47" t="str">
         <f t="shared" si="10"/>
-        <v>3.5</v>
-      </c>
-      <c r="AC47">
-        <f t="shared" si="11"/>
-        <v>3</v>
-      </c>
-      <c r="AD47">
-        <f t="shared" si="15"/>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="48" spans="3:30">
+        <v>https://www.radio-norge.org,no,norge,4</v>
+      </c>
+    </row>
+    <row r="48" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
-        <v>225</v>
+        <v>180</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>0</v>
@@ -5374,41 +4749,33 @@
         <f t="shared" si="9"/>
         <v>costa rica</v>
       </c>
-      <c r="R48" s="2"/>
+      <c r="S48" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="T48" s="2" t="s">
+        <v>182</v>
+      </c>
       <c r="U48" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="V48" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="W48" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="X48" s="2">
+        <v>183</v>
+      </c>
+      <c r="V48" s="2">
         <v>5</v>
       </c>
-      <c r="Z48" t="s">
-        <v>229</v>
-      </c>
-      <c r="AA48">
-        <v>48581</v>
-      </c>
-      <c r="AB48">
+      <c r="W48">
+        <v>48</v>
+      </c>
+      <c r="X48">
+        <f t="shared" si="11"/>
+        <v>48719</v>
+      </c>
+      <c r="AA48" t="str">
         <f t="shared" si="10"/>
-        <v>4.7833333333333332</v>
-      </c>
-      <c r="AC48">
-        <f t="shared" si="11"/>
-        <v>4</v>
-      </c>
-      <c r="AD48">
-        <f t="shared" si="15"/>
-        <v>46.999999999999993</v>
-      </c>
-    </row>
-    <row r="49" spans="3:30">
+        <v>https://www.radio-stations.co.nz,nz,new zealand,5</v>
+      </c>
+    </row>
+    <row r="49" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
-        <v>230</v>
+        <v>184</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>0</v>
@@ -5457,41 +4824,33 @@
         <f t="shared" si="9"/>
         <v>australia</v>
       </c>
-      <c r="R49" s="2"/>
+      <c r="S49" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="T49" s="2" t="s">
+        <v>186</v>
+      </c>
       <c r="U49" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="V49" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="W49" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="X49" s="2">
+        <v>187</v>
+      </c>
+      <c r="V49" s="2">
         <v>23</v>
       </c>
-      <c r="Z49" t="s">
-        <v>234</v>
-      </c>
-      <c r="AA49">
-        <v>49917</v>
-      </c>
-      <c r="AB49">
+      <c r="W49">
+        <v>20</v>
+      </c>
+      <c r="X49">
+        <f t="shared" si="11"/>
+        <v>50059</v>
+      </c>
+      <c r="AA49" t="str">
         <f t="shared" si="10"/>
-        <v>22.266666666666666</v>
-      </c>
-      <c r="AC49">
-        <f t="shared" si="11"/>
-        <v>22</v>
-      </c>
-      <c r="AD49">
-        <f t="shared" si="15"/>
-        <v>15.999999999999943</v>
-      </c>
-    </row>
-    <row r="50" spans="3:30">
+        <v>https://www.radiosdelperu.com.pe,pe,peru,23</v>
+      </c>
+    </row>
+    <row r="50" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
-        <v>235</v>
+        <v>188</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>0</v>
@@ -5540,41 +4899,33 @@
         <f t="shared" si="9"/>
         <v>new zealand</v>
       </c>
-      <c r="R50" s="2"/>
+      <c r="S50" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="T50" s="2" t="s">
+        <v>190</v>
+      </c>
       <c r="U50" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="V50" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="W50" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="X50" s="2">
+        <v>191</v>
+      </c>
+      <c r="V50" s="2">
         <v>18</v>
       </c>
-      <c r="Z50" t="s">
-        <v>239</v>
-      </c>
-      <c r="AA50">
-        <v>50975</v>
-      </c>
-      <c r="AB50">
+      <c r="W50">
+        <v>42</v>
+      </c>
+      <c r="X50">
+        <f t="shared" si="11"/>
+        <v>51121</v>
+      </c>
+      <c r="AA50" t="str">
         <f t="shared" si="10"/>
-        <v>17.633333333333333</v>
-      </c>
-      <c r="AC50">
-        <f t="shared" si="11"/>
-        <v>17</v>
-      </c>
-      <c r="AD50">
-        <f t="shared" si="15"/>
-        <v>37.999999999999972</v>
-      </c>
-    </row>
-    <row r="51" spans="3:30">
+        <v>https://www.radio-philippines.com,ph,philippines,18</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
-        <v>240</v>
+        <v>192</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>0</v>
@@ -5623,41 +4974,33 @@
         <f t="shared" si="9"/>
         <v>turkey</v>
       </c>
-      <c r="R51" s="2"/>
+      <c r="S51" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="T51" s="2" t="s">
+        <v>194</v>
+      </c>
       <c r="U51" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="V51" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="W51" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="X51" s="2">
+        <v>195</v>
+      </c>
+      <c r="V51" s="2">
         <v>12</v>
       </c>
-      <c r="Z51" t="s">
-        <v>244</v>
-      </c>
-      <c r="AA51">
-        <v>51645</v>
-      </c>
-      <c r="AB51">
+      <c r="W51">
+        <v>20</v>
+      </c>
+      <c r="X51">
+        <f t="shared" si="11"/>
+        <v>51801</v>
+      </c>
+      <c r="AA51" t="str">
         <f t="shared" si="10"/>
-        <v>11.166666666666666</v>
-      </c>
-      <c r="AC51">
-        <f t="shared" si="11"/>
-        <v>11</v>
-      </c>
-      <c r="AD51">
-        <f t="shared" si="15"/>
-        <v>9.9999999999999645</v>
-      </c>
-    </row>
-    <row r="52" spans="3:30">
+        <v>https://www.radio-polska.pl,pl,polska,12</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
-        <v>245</v>
+        <v>196</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>0</v>
@@ -5706,41 +5049,33 @@
         <f t="shared" si="9"/>
         <v>india</v>
       </c>
-      <c r="R52" s="2"/>
+      <c r="S52" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="T52" s="2" t="s">
+        <v>198</v>
+      </c>
       <c r="U52" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="V52" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="W52" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="X52" s="2">
+        <v>199</v>
+      </c>
+      <c r="V52" s="2">
         <v>4</v>
       </c>
-      <c r="Z52" t="s">
-        <v>249</v>
-      </c>
-      <c r="AA52">
-        <v>51875</v>
-      </c>
-      <c r="AB52">
+      <c r="W52">
+        <v>52</v>
+      </c>
+      <c r="X52">
+        <f t="shared" si="11"/>
+        <v>52033</v>
+      </c>
+      <c r="AA52" t="str">
         <f t="shared" si="10"/>
-        <v>3.8333333333333335</v>
-      </c>
-      <c r="AC52">
-        <f t="shared" si="11"/>
-        <v>3</v>
-      </c>
-      <c r="AD52">
-        <f t="shared" si="15"/>
-        <v>50.000000000000007</v>
-      </c>
-    </row>
-    <row r="53" spans="3:30">
+        <v>https://www.emisoras-puertorico.com,pr,puerto rico,4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>0</v>
@@ -5789,41 +5124,33 @@
         <f t="shared" si="9"/>
         <v>hk</v>
       </c>
-      <c r="R53" s="2"/>
+      <c r="S53" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="T53" s="2" t="s">
+        <v>202</v>
+      </c>
       <c r="U53" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="V53" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="W53" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="X53" s="2">
+        <v>203</v>
+      </c>
+      <c r="V53" s="2">
         <v>10</v>
       </c>
-      <c r="Z53" t="s">
-        <v>254</v>
-      </c>
-      <c r="AA53">
-        <v>52466</v>
-      </c>
-      <c r="AB53">
+      <c r="W53">
+        <v>52</v>
+      </c>
+      <c r="X53">
+        <f t="shared" si="11"/>
+        <v>52625</v>
+      </c>
+      <c r="AA53" t="str">
         <f t="shared" si="10"/>
-        <v>9.85</v>
-      </c>
-      <c r="AC53">
-        <f t="shared" si="11"/>
-        <v>9</v>
-      </c>
-      <c r="AD53">
-        <f t="shared" si="15"/>
-        <v>50.999999999999979</v>
-      </c>
-    </row>
-    <row r="54" spans="3:30">
+        <v>https://www.radios-online.pt,pt,portugal,10</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
-        <v>255</v>
+        <v>204</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>0</v>
@@ -5872,41 +5199,33 @@
         <f t="shared" si="9"/>
         <v>indonesia</v>
       </c>
-      <c r="R54" s="2"/>
+      <c r="S54" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="T54" s="2" t="s">
+        <v>206</v>
+      </c>
       <c r="U54" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="V54" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="W54" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="X54" s="2">
-        <v>11</v>
-      </c>
-      <c r="Z54" t="s">
-        <v>259</v>
-      </c>
-      <c r="AA54">
-        <v>53125</v>
-      </c>
-      <c r="AB54">
+        <v>207</v>
+      </c>
+      <c r="V54" s="2">
+        <v>12</v>
+      </c>
+      <c r="W54">
+        <v>2</v>
+      </c>
+      <c r="X54">
+        <f t="shared" si="11"/>
+        <v>53287</v>
+      </c>
+      <c r="AA54" t="str">
         <f t="shared" si="10"/>
-        <v>10.983333333333333</v>
-      </c>
-      <c r="AC54">
-        <f t="shared" si="11"/>
-        <v>10</v>
-      </c>
-      <c r="AD54">
-        <f t="shared" si="15"/>
-        <v>58.99999999999995</v>
-      </c>
-    </row>
-    <row r="55" spans="3:30">
+        <v>https://www.radio-romania.com,ro,romania,12</v>
+      </c>
+    </row>
+    <row r="55" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
-        <v>260</v>
+        <v>208</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>0</v>
@@ -5955,41 +5274,33 @@
         <f t="shared" si="9"/>
         <v>japan</v>
       </c>
-      <c r="R55" s="2"/>
+      <c r="S55" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="T55" s="2" t="s">
+        <v>210</v>
+      </c>
       <c r="U55" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="V55" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="W55" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="X55" s="2">
+        <v>211</v>
+      </c>
+      <c r="V55" s="2">
         <v>5</v>
       </c>
-      <c r="Z55" t="s">
-        <v>264</v>
-      </c>
-      <c r="AA55">
-        <v>53386</v>
-      </c>
-      <c r="AB55">
+      <c r="W55">
+        <v>22</v>
+      </c>
+      <c r="X55">
+        <f t="shared" si="11"/>
+        <v>53549</v>
+      </c>
+      <c r="AA55" t="str">
         <f t="shared" si="10"/>
-        <v>4.3499999999999996</v>
-      </c>
-      <c r="AC55">
-        <f t="shared" si="11"/>
-        <v>4</v>
-      </c>
-      <c r="AD55">
-        <f t="shared" si="15"/>
-        <v>20.999999999999979</v>
-      </c>
-    </row>
-    <row r="56" spans="3:30">
+        <v>https://www.radiosrbija.org,rs,srbija,5</v>
+      </c>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
-        <v>265</v>
+        <v>212</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>0</v>
@@ -6038,41 +5349,33 @@
         <f t="shared" si="9"/>
         <v>philippines</v>
       </c>
-      <c r="R56" s="2"/>
+      <c r="S56" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="T56" s="2" t="s">
+        <v>214</v>
+      </c>
       <c r="U56" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="V56" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="W56" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="X56" s="2">
+        <v>215</v>
+      </c>
+      <c r="V56" s="2">
         <v>6</v>
       </c>
-      <c r="Z56" t="s">
-        <v>269</v>
-      </c>
-      <c r="AA56">
-        <v>53696</v>
-      </c>
-      <c r="AB56">
+      <c r="W56">
+        <v>12</v>
+      </c>
+      <c r="X56">
+        <f t="shared" si="11"/>
+        <v>53861</v>
+      </c>
+      <c r="AA56" t="str">
         <f t="shared" si="10"/>
-        <v>5.166666666666667</v>
-      </c>
-      <c r="AC56">
-        <f t="shared" si="11"/>
-        <v>5</v>
-      </c>
-      <c r="AD56">
-        <f t="shared" si="15"/>
-        <v>10.000000000000018</v>
-      </c>
-    </row>
-    <row r="57" spans="3:30">
+        <v>https://www.radio-sveriges.se,se,sverige,6</v>
+      </c>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
-        <v>270</v>
+        <v>216</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>0</v>
@@ -6121,41 +5424,33 @@
         <f t="shared" si="9"/>
         <v>singapore</v>
       </c>
-      <c r="R57" s="2"/>
+      <c r="S57" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="T57" s="2" t="s">
+        <v>218</v>
+      </c>
       <c r="U57" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="V57" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="W57" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="X57" s="2">
+        <v>219</v>
+      </c>
+      <c r="V57" s="2">
         <v>2</v>
       </c>
-      <c r="Z57" t="s">
-        <v>274</v>
-      </c>
-      <c r="AA57">
-        <v>53761</v>
-      </c>
-      <c r="AB57">
+      <c r="W57">
+        <v>5</v>
+      </c>
+      <c r="X57">
+        <f t="shared" si="11"/>
+        <v>53926</v>
+      </c>
+      <c r="AA57" t="str">
         <f t="shared" si="10"/>
-        <v>1.0833333333333333</v>
-      </c>
-      <c r="AC57">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="AD57">
-        <f t="shared" si="15"/>
-        <v>4.9999999999999956</v>
-      </c>
-    </row>
-    <row r="58" spans="3:30">
+        <v>https://www.radio-singapore.com,sg,singapore,2</v>
+      </c>
+    </row>
+    <row r="58" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
-        <v>275</v>
+        <v>220</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>0</v>
@@ -6204,41 +5499,33 @@
         <f t="shared" si="9"/>
         <v>thailand</v>
       </c>
-      <c r="R58" s="2"/>
+      <c r="S58" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="T58" s="2" t="s">
+        <v>222</v>
+      </c>
       <c r="U58" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="V58" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="W58" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="X58" s="2">
+        <v>223</v>
+      </c>
+      <c r="V58" s="2">
         <v>2</v>
       </c>
-      <c r="Z58" t="s">
-        <v>279</v>
-      </c>
-      <c r="AA58">
-        <v>53874</v>
-      </c>
-      <c r="AB58">
+      <c r="W58">
+        <v>53</v>
+      </c>
+      <c r="X58">
+        <f t="shared" si="11"/>
+        <v>54039</v>
+      </c>
+      <c r="AA58" t="str">
         <f t="shared" si="10"/>
-        <v>1.8833333333333333</v>
-      </c>
-      <c r="AC58">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="AD58">
-        <f t="shared" si="15"/>
-        <v>53</v>
-      </c>
-    </row>
-    <row r="59" spans="3:30">
+        <v>https://www.radijskepostaje.com,si,slovenija,2</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
-        <v>280</v>
+        <v>224</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>0</v>
@@ -6287,41 +5574,33 @@
         <f t="shared" si="9"/>
         <v>south korea</v>
       </c>
-      <c r="R59" s="2"/>
+      <c r="S59" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="T59" s="2" t="s">
+        <v>226</v>
+      </c>
       <c r="U59" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="V59" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="W59" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="X59" s="2">
+        <v>227</v>
+      </c>
+      <c r="V59" s="2">
         <v>2</v>
       </c>
-      <c r="Z59" t="s">
-        <v>284</v>
-      </c>
-      <c r="AA59">
-        <v>53962</v>
-      </c>
-      <c r="AB59">
+      <c r="W59">
+        <v>28</v>
+      </c>
+      <c r="X59">
+        <f t="shared" si="11"/>
+        <v>54127</v>
+      </c>
+      <c r="AA59" t="str">
         <f t="shared" si="10"/>
-        <v>1.4666666666666666</v>
-      </c>
-      <c r="AC59">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="AD59">
-        <f t="shared" si="15"/>
-        <v>27.999999999999993</v>
-      </c>
-    </row>
-    <row r="60" spans="3:30">
+        <v>https://www.radio-senegal.com,sn,senegal,2</v>
+      </c>
+    </row>
+    <row r="60" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
-        <v>285</v>
+        <v>228</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>0</v>
@@ -6370,41 +5649,33 @@
         <f t="shared" si="9"/>
         <v>taiwan</v>
       </c>
-      <c r="R60" s="2"/>
+      <c r="S60" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="T60" s="2" t="s">
+        <v>230</v>
+      </c>
       <c r="U60" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="V60" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="W60" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="X60" s="2">
+        <v>231</v>
+      </c>
+      <c r="V60" s="2">
         <v>6</v>
       </c>
-      <c r="Z60" t="s">
-        <v>289</v>
-      </c>
-      <c r="AA60">
-        <v>54289</v>
-      </c>
-      <c r="AB60">
+      <c r="W60">
+        <v>30</v>
+      </c>
+      <c r="X60">
+        <f t="shared" si="11"/>
+        <v>54457</v>
+      </c>
+      <c r="AA60" t="str">
         <f t="shared" si="10"/>
-        <v>5.45</v>
-      </c>
-      <c r="AC60">
-        <f t="shared" si="11"/>
-        <v>5</v>
-      </c>
-      <c r="AD60">
-        <f t="shared" si="15"/>
-        <v>27.000000000000011</v>
-      </c>
-    </row>
-    <row r="61" spans="3:30">
+        <v>https://www.radioselsalvador.org,sv,salvador,6</v>
+      </c>
+    </row>
+    <row r="61" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
-        <v>290</v>
+        <v>232</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>0</v>
@@ -6453,41 +5724,33 @@
         <f t="shared" si="9"/>
         <v>malaysia</v>
       </c>
-      <c r="R61" s="2"/>
+      <c r="S61" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="T61" s="2" t="s">
+        <v>234</v>
+      </c>
       <c r="U61" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="V61" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="W61" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="X61" s="2">
+        <v>235</v>
+      </c>
+      <c r="V61" s="2">
         <v>7</v>
       </c>
-      <c r="Z61" t="s">
-        <v>294</v>
-      </c>
-      <c r="AA61">
-        <v>54679</v>
-      </c>
-      <c r="AB61">
+      <c r="W61">
+        <v>33</v>
+      </c>
+      <c r="X61">
+        <f t="shared" si="11"/>
+        <v>54850</v>
+      </c>
+      <c r="AA61" t="str">
         <f t="shared" si="10"/>
-        <v>6.5</v>
-      </c>
-      <c r="AC61">
-        <f t="shared" si="11"/>
-        <v>6</v>
-      </c>
-      <c r="AD61">
-        <f t="shared" si="15"/>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="62" spans="3:30">
+        <v>https://www.radio-thai.com,th,thailand,7</v>
+      </c>
+    </row>
+    <row r="62" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
-        <v>295</v>
+        <v>236</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>0</v>
@@ -6536,41 +5799,33 @@
         <f t="shared" si="9"/>
         <v>south africa</v>
       </c>
-      <c r="R62" s="2"/>
+      <c r="S62" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="T62" s="2" t="s">
+        <v>238</v>
+      </c>
       <c r="U62" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="V62" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="W62" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="X62" s="2">
+        <v>239</v>
+      </c>
+      <c r="V62" s="2">
         <v>17</v>
       </c>
-      <c r="Z62" t="s">
-        <v>299</v>
-      </c>
-      <c r="AA62">
-        <v>55657</v>
-      </c>
-      <c r="AB62">
+      <c r="W62">
+        <v>15</v>
+      </c>
+      <c r="X62">
+        <f t="shared" si="11"/>
+        <v>55825</v>
+      </c>
+      <c r="AA62" t="str">
         <f t="shared" si="10"/>
-        <v>16.3</v>
-      </c>
-      <c r="AC62">
-        <f t="shared" si="11"/>
-        <v>16</v>
-      </c>
-      <c r="AD62">
-        <f t="shared" si="15"/>
-        <v>18.000000000000043</v>
-      </c>
-    </row>
-    <row r="63" spans="3:30">
+        <v>https://www.canli-radyo-dinle.com,tr,turkey,17</v>
+      </c>
+    </row>
+    <row r="63" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>0</v>
@@ -6619,41 +5874,33 @@
         <f t="shared" si="9"/>
         <v>morocco</v>
       </c>
-      <c r="R63" s="2"/>
+      <c r="S63" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="T63" s="2" t="s">
+        <v>242</v>
+      </c>
       <c r="U63" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="V63" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="W63" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="X63" s="2">
+        <v>243</v>
+      </c>
+      <c r="V63" s="2">
         <v>2</v>
       </c>
-      <c r="Z63" t="s">
-        <v>304</v>
-      </c>
-      <c r="AA63">
-        <v>55724</v>
-      </c>
-      <c r="AB63">
+      <c r="W63">
+        <v>7</v>
+      </c>
+      <c r="X63">
+        <f t="shared" si="11"/>
+        <v>55892</v>
+      </c>
+      <c r="AA63" t="str">
         <f t="shared" si="10"/>
-        <v>1.1166666666666667</v>
-      </c>
-      <c r="AC63">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="AD63">
-        <f t="shared" si="15"/>
-        <v>7.0000000000000018</v>
-      </c>
-    </row>
-    <row r="64" spans="3:30">
+        <v>https://www.radio-trinidad.com,tt,trinidad,2</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
-        <v>305</v>
+        <v>244</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>0</v>
@@ -6702,41 +5949,33 @@
         <f t="shared" si="9"/>
         <v>senegal</v>
       </c>
-      <c r="R64" s="2"/>
+      <c r="S64" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="T64" s="2" t="s">
+        <v>246</v>
+      </c>
       <c r="U64" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="V64" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="W64" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="X64" s="2">
+        <v>247</v>
+      </c>
+      <c r="V64" s="2">
         <v>3</v>
       </c>
-      <c r="Z64" t="s">
-        <v>309</v>
-      </c>
-      <c r="AA64">
-        <v>55852</v>
-      </c>
-      <c r="AB64">
+      <c r="W64">
+        <v>8</v>
+      </c>
+      <c r="X64">
+        <f t="shared" si="11"/>
+        <v>56020</v>
+      </c>
+      <c r="AA64" t="str">
         <f t="shared" si="10"/>
-        <v>2.1333333333333333</v>
-      </c>
-      <c r="AC64">
-        <f t="shared" si="11"/>
-        <v>2</v>
-      </c>
-      <c r="AD64">
-        <f t="shared" si="15"/>
-        <v>7.9999999999999982</v>
-      </c>
-    </row>
-    <row r="65" spans="3:30">
+        <v>https://www.radiotaiwan.tw,tw,taiwan,3</v>
+      </c>
+    </row>
+    <row r="65" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
-        <v>310</v>
+        <v>248</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>0</v>
@@ -6785,41 +6024,33 @@
         <f t="shared" si="9"/>
         <v>ghana</v>
       </c>
-      <c r="R65" s="2"/>
+      <c r="S65" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="T65" s="2" t="s">
+        <v>250</v>
+      </c>
       <c r="U65" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="V65" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="W65" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="X65" s="2">
+        <v>251</v>
+      </c>
+      <c r="V65" s="2">
         <v>5</v>
       </c>
-      <c r="Z65" t="s">
-        <v>314</v>
-      </c>
-      <c r="AA65">
-        <v>56119</v>
-      </c>
-      <c r="AB65">
+      <c r="W65">
+        <v>27</v>
+      </c>
+      <c r="X65">
+        <f t="shared" si="11"/>
+        <v>56287</v>
+      </c>
+      <c r="AA65" t="str">
         <f t="shared" si="10"/>
-        <v>4.45</v>
-      </c>
-      <c r="AC65">
-        <f t="shared" si="11"/>
-        <v>4</v>
-      </c>
-      <c r="AD65">
-        <f t="shared" si="15"/>
-        <v>27.000000000000011</v>
-      </c>
-    </row>
-    <row r="66" spans="3:30">
+        <v>https://www.radio-ua.com,ua,ukraine,5</v>
+      </c>
+    </row>
+    <row r="66" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
-        <v>315</v>
+        <v>252</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>0</v>
@@ -6868,42 +6099,33 @@
         <f t="shared" si="9"/>
         <v>kenya</v>
       </c>
-      <c r="R66" s="2"/>
+      <c r="S66" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="T66" s="2" t="s">
+        <v>254</v>
+      </c>
       <c r="U66" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="V66" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="W66" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="X66" s="2">
-        <v>356</v>
-      </c>
-      <c r="Z66" t="s">
-        <v>318</v>
-      </c>
-      <c r="AA66">
-        <f>+$AA$65+371</f>
-        <v>56490</v>
-      </c>
-      <c r="AB66">
+        <v>254</v>
+      </c>
+      <c r="V66" s="2">
+        <v>357</v>
+      </c>
+      <c r="W66">
+        <v>13</v>
+      </c>
+      <c r="X66">
+        <f t="shared" si="11"/>
+        <v>77660</v>
+      </c>
+      <c r="AA66" t="str">
         <f t="shared" si="10"/>
-        <v>6.1833333333333336</v>
-      </c>
-      <c r="AC66">
-        <f t="shared" si="11"/>
-        <v>6</v>
-      </c>
-      <c r="AD66">
-        <f t="shared" ref="AD66:AD69" si="16">+(AB66-AC66)*60</f>
-        <v>11.000000000000014</v>
-      </c>
-    </row>
-    <row r="67" spans="3:30">
+        <v>https://www.fmradiofree.com,us,us,357</v>
+      </c>
+    </row>
+    <row r="67" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
-        <v>319</v>
+        <v>255</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>0</v>
@@ -6952,216 +6174,186 @@
         <f t="shared" si="9"/>
         <v>Nigeria</v>
       </c>
-      <c r="R67" s="2"/>
+      <c r="S67" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="T67" s="2" t="s">
+        <v>257</v>
+      </c>
       <c r="U67" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="V67" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="W67" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="X67" s="2">
+        <v>258</v>
+      </c>
+      <c r="V67" s="2">
         <v>7</v>
       </c>
-      <c r="Z67" t="s">
-        <v>323</v>
-      </c>
-      <c r="AA67">
-        <f>+$AA$65+1061</f>
-        <v>57180</v>
-      </c>
-      <c r="AB67">
+      <c r="W67">
+        <v>10</v>
+      </c>
+      <c r="X67">
+        <f t="shared" si="11"/>
+        <v>78030</v>
+      </c>
+      <c r="AA67" t="str">
         <f t="shared" si="10"/>
-        <v>11.5</v>
-      </c>
-      <c r="AC67">
-        <f t="shared" si="11"/>
-        <v>11</v>
-      </c>
-      <c r="AD67">
-        <f t="shared" si="16"/>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="68" spans="3:30">
+        <v>https://www.radios-uruguay.com,uy,uruguay,7</v>
+      </c>
+    </row>
+    <row r="68" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
-        <v>324</v>
+        <v>259</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E68" s="1" t="str">
-        <f t="shared" ref="E68:E69" si="17">SUBSTITUTE(C68," ","")</f>
+        <f t="shared" ref="E68:E69" si="12">SUBSTITUTE(C68," ","")</f>
         <v>&lt;ahref="https://www.radio-israel.org"class="mdc-typography--caption"&gt;&lt;imgclass="website-links"src="https://cdn.mytuner.mobi/static/ctr/images/country/il.png"data-src="https://cdn.mytuner.mobi/static/ctr/images/country/il.png"alt="RadioIsrael"title="radioIsraelwebsite"width="64"height="64"&gt;&lt;/a&gt;</v>
       </c>
       <c r="F68" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G68" t="str">
-        <f t="shared" ref="G68:G69" si="18">+MID($E68,9,+FIND("class",$E68,1)-10)</f>
+        <f t="shared" ref="G68:G69" si="13">+MID($E68,9,+FIND("class",$E68,1)-10)</f>
         <v>https://www.radio-israel.org</v>
       </c>
       <c r="H68" t="str">
-        <f t="shared" ref="H68:H69" si="19">IF(ISERROR(+FIND("/",G68,10)),G68,MID(G68,1,LEN(G68)-1))</f>
+        <f t="shared" ref="H68:H69" si="14">IF(ISERROR(+FIND("/",G68,10)),G68,MID(G68,1,LEN(G68)-1))</f>
         <v>https://www.radio-israel.org</v>
       </c>
       <c r="I68" t="str">
-        <f t="shared" ref="I68:I69" si="20">+MID($E68,FIND("png",$E68,1)-3,2)</f>
+        <f t="shared" ref="I68:I69" si="15">+MID($E68,FIND("png",$E68,1)-3,2)</f>
         <v>il</v>
       </c>
       <c r="J68" t="str">
-        <f t="shared" ref="J68:J69" si="21">MID(+MID($C68,FIND("title",$C68,1)+7,LEN($C68)),1,FIND("""",MID($C68,FIND("title",$C68,1)+7,LEN($C68)),1)-1)</f>
+        <f t="shared" ref="J68:J69" si="16">MID(+MID($C68,FIND("title",$C68,1)+7,LEN($C68)),1,FIND("""",MID($C68,FIND("title",$C68,1)+7,LEN($C68)),1)-1)</f>
         <v>radio Israel website</v>
       </c>
       <c r="K68" t="str">
-        <f t="shared" ref="K68:K69" si="22">MID(J68,FIND(" ",J68,1)+1,100)</f>
+        <f t="shared" ref="K68:K69" si="17">MID(J68,FIND(" ",J68,1)+1,100)</f>
         <v>Israel website</v>
       </c>
       <c r="L68" t="str">
-        <f t="shared" ref="L68:L69" si="23">+MID(K68,1,FIND("website",K68,1)-2)</f>
+        <f t="shared" ref="L68:L69" si="18">+MID(K68,1,FIND("website",K68,1)-2)</f>
         <v>Israel</v>
       </c>
       <c r="N68" s="2" t="str">
-        <f t="shared" ref="N68:N69" si="24">+H68</f>
+        <f t="shared" ref="N68:N69" si="19">+H68</f>
         <v>https://www.radio-israel.org</v>
       </c>
       <c r="O68" s="2" t="str">
-        <f t="shared" ref="O68:O69" si="25">+I68</f>
+        <f t="shared" ref="O68:O69" si="20">+I68</f>
         <v>il</v>
       </c>
       <c r="P68" s="2"/>
       <c r="Q68" s="2" t="str">
-        <f t="shared" ref="Q68:Q69" si="26">+L68</f>
+        <f t="shared" ref="Q68:Q69" si="21">+L68</f>
         <v>Israel</v>
       </c>
-      <c r="R68" s="2"/>
+      <c r="S68" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="T68" s="2" t="s">
+        <v>261</v>
+      </c>
       <c r="U68" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="V68" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="W68" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="X68" s="2">
+        <v>262</v>
+      </c>
+      <c r="V68" s="2">
         <v>12</v>
       </c>
-      <c r="Z68" t="s">
-        <v>328</v>
-      </c>
-      <c r="AA68">
-        <f>+$AA$65+1673</f>
-        <v>57792</v>
-      </c>
-      <c r="AB68">
-        <f t="shared" ref="AB68:AB69" si="27">(+AA68-AA67)/60</f>
-        <v>10.199999999999999</v>
-      </c>
-      <c r="AC68">
-        <f t="shared" ref="AC68:AC69" si="28">+INT(AB68)</f>
-        <v>10</v>
-      </c>
-      <c r="AD68">
+      <c r="W68">
+        <v>32</v>
+      </c>
+      <c r="X68">
+        <f t="shared" si="11"/>
+        <v>78722</v>
+      </c>
+      <c r="AA68" t="str">
+        <f t="shared" ref="AA68:AA69" si="22">+S68&amp;","&amp;T68&amp;","&amp;U68&amp;","&amp;TEXT(V68,0)</f>
+        <v>https://www.radios-venezuela.com,ve,venezuela,12</v>
+      </c>
+    </row>
+    <row r="69" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C69" t="s">
+        <v>263</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E69" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>&lt;ahref="https://www.radioarabic.org"class="mdc-typography--caption"&gt;&lt;imgclass="website-links"src="https://cdn.mytuner.mobi/static/ctr/images/country/arab.png"data-src="https://cdn.mytuner.mobi/static/ctr/images/country/arab.png"alt="RadioArabic"title="radioArabicwebsite"width="64"height="64"&gt;&lt;/a&gt;</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G69" t="str">
+        <f t="shared" si="13"/>
+        <v>https://www.radioarabic.org</v>
+      </c>
+      <c r="H69" t="str">
+        <f t="shared" si="14"/>
+        <v>https://www.radioarabic.org</v>
+      </c>
+      <c r="I69" t="str">
+        <f t="shared" si="15"/>
+        <v>ab</v>
+      </c>
+      <c r="J69" t="str">
         <f t="shared" si="16"/>
-        <v>11.999999999999957</v>
-      </c>
-    </row>
-    <row r="69" spans="3:30">
-      <c r="C69" t="s">
-        <v>329</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E69" s="1" t="str">
+        <v>radio Arabic website</v>
+      </c>
+      <c r="K69" t="str">
         <f t="shared" si="17"/>
-        <v>&lt;ahref="https://www.radioarabic.org"class="mdc-typography--caption"&gt;&lt;imgclass="website-links"src="https://cdn.mytuner.mobi/static/ctr/images/country/arab.png"data-src="https://cdn.mytuner.mobi/static/ctr/images/country/arab.png"alt="RadioArabic"title="radioArabicwebsite"width="64"height="64"&gt;&lt;/a&gt;</v>
-      </c>
-      <c r="F69" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G69" t="str">
+        <v>Arabic website</v>
+      </c>
+      <c r="L69" t="str">
         <f t="shared" si="18"/>
-        <v>https://www.radioarabic.org</v>
-      </c>
-      <c r="H69" t="str">
+        <v>Arabic</v>
+      </c>
+      <c r="N69" s="2" t="str">
         <f t="shared" si="19"/>
         <v>https://www.radioarabic.org</v>
       </c>
-      <c r="I69" t="str">
+      <c r="O69" s="2" t="str">
         <f t="shared" si="20"/>
         <v>ab</v>
       </c>
-      <c r="J69" t="str">
-        <f t="shared" si="21"/>
-        <v>radio Arabic website</v>
-      </c>
-      <c r="K69" t="str">
-        <f t="shared" si="22"/>
-        <v>Arabic website</v>
-      </c>
-      <c r="L69" t="str">
-        <f t="shared" si="23"/>
-        <v>Arabic</v>
-      </c>
-      <c r="N69" s="2" t="str">
-        <f t="shared" si="24"/>
-        <v>https://www.radioarabic.org</v>
-      </c>
-      <c r="O69" s="2" t="str">
-        <f t="shared" si="25"/>
-        <v>ab</v>
-      </c>
       <c r="P69" s="2"/>
       <c r="Q69" s="2" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="21"/>
         <v>Arabic</v>
       </c>
-      <c r="R69" s="2"/>
+      <c r="S69" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="T69" s="2" t="s">
+        <v>265</v>
+      </c>
       <c r="U69" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="V69" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="W69" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="X69" s="2">
+        <v>266</v>
+      </c>
+      <c r="V69" s="2">
         <v>11</v>
       </c>
-      <c r="Z69" t="s">
-        <v>333</v>
-      </c>
-      <c r="AA69">
-        <f>+AA68+21342</f>
-        <v>79134</v>
-      </c>
-      <c r="AB69">
-        <f t="shared" si="27"/>
-        <v>355.7</v>
-      </c>
-      <c r="AC69">
-        <f t="shared" si="28"/>
-        <v>355</v>
-      </c>
-      <c r="AD69">
-        <f t="shared" si="16"/>
-        <v>41.999999999999318</v>
-      </c>
-    </row>
-    <row r="70" spans="3:30">
-      <c r="AA70">
-        <f>+AA69+132</f>
-        <v>79266</v>
+      <c r="W69">
+        <v>14</v>
+      </c>
+      <c r="X69">
+        <f t="shared" ref="X69" si="23">+(V69-1)*60++W69+X68</f>
+        <v>79336</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>268</v>
+      </c>
+      <c r="AA69" t="str">
+        <f t="shared" si="22"/>
+        <v>https://www.radio-south-africa.co.za,za,south africa,11</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="U3:X69">
-    <sortCondition ref="V3:V69"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="S3:V69">
+    <sortCondition ref="T3:T69"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7175,341 +6367,341 @@
       <selection activeCell="H56" sqref="H56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
-      <c r="A6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
-      <c r="A10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
-      <c r="A14" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
-      <c r="A18" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" t="s">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
-      <c r="A22" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" t="s">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
-      <c r="A25" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1">
-      <c r="A28" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1">
-      <c r="A29" t="s">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
-      <c r="A30" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1">
-      <c r="A31" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1">
-      <c r="A32" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33" t="s">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
-      <c r="A34" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1">
-      <c r="A35" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1">
-      <c r="A37" t="s">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
-      <c r="A38" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1">
-      <c r="A39" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1">
-      <c r="A40" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1">
-      <c r="A41" t="s">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="42" spans="1:1">
-      <c r="A42" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1">
-      <c r="A43" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1">
-      <c r="A44" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1">
-      <c r="A45" t="s">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="46" spans="1:1">
-      <c r="A46" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1">
-      <c r="A47" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1">
-      <c r="A48" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1">
-      <c r="A49" t="s">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="50" spans="1:1">
-      <c r="A50" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1">
-      <c r="A51" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1">
-      <c r="A52" t="s">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="53" spans="1:1">
-      <c r="A53" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1">
-      <c r="A54" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1">
-      <c r="A55" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1">
-      <c r="A56" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1">
-      <c r="A57" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1">
-      <c r="A58" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1">
-      <c r="A59" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1">
-      <c r="A60" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1">
-      <c r="A61" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1">
-      <c r="A62" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1">
-      <c r="A63" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1">
-      <c r="A64" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1">
-      <c r="A65" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>329</v>
+        <v>263</v>
       </c>
     </row>
   </sheetData>
